--- a/data/preprocessed/video/S3_surge.xlsx
+++ b/data/preprocessed/video/S3_surge.xlsx
@@ -63582,7 +63582,7 @@
         <v>0.1877381504405153</v>
       </c>
       <c r="E342" t="n">
-        <v>0.1383238241164493</v>
+        <v>0.1382431805810367</v>
       </c>
       <c r="F342" t="n">
         <v>0.02118908892965867</v>
@@ -63726,7 +63726,7 @@
         <v>0</v>
       </c>
       <c r="BA342" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB342" t="n">
         <v>0</v>

--- a/data/preprocessed/video/S3_surge.xlsx
+++ b/data/preprocessed/video/S3_surge.xlsx
@@ -867,25 +867,25 @@
         <v>0.02392088869176025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0362190278421806</v>
+        <v>0.03622910828410718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02861837462954376</v>
+        <v>0.02860829418761719</v>
       </c>
       <c r="G3" t="n">
         <v>0.02673333198927441</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1368319187113163</v>
+        <v>0.1368117578274632</v>
       </c>
       <c r="I3" t="n">
         <v>0.1879901614886797</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06578496401282233</v>
+        <v>0.0657950444547489</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05628918771798955</v>
+        <v>0.05629926815991613</v>
       </c>
       <c r="L3" t="n">
         <v>0.03958589544565633</v>
@@ -1043,40 +1043,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05407821078876098</v>
+        <v>0.05401100784258382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04397760797833377</v>
+        <v>0.0438633629698326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03263375066362909</v>
+        <v>0.03266735213671768</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04853396772914525</v>
+        <v>0.04857428949685154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02655860432921379</v>
+        <v>0.02651156226688978</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02827227945673138</v>
+        <v>0.02829244034058453</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1150447235606809</v>
+        <v>0.1150850453283872</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1500238570458929</v>
+        <v>0.1500507382243638</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06191407431301788</v>
+        <v>0.06195439608072418</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05073822436375611</v>
+        <v>0.05071806347990296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03427350255035181</v>
+        <v>0.03428022284496952</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02831260122443768</v>
+        <v>0.02835292299214398</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1228,40 +1228,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04466139795568638</v>
+        <v>0.0446109957460535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04540735065825286</v>
+        <v>0.04532166690187698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04064434184794662</v>
+        <v>0.04066954295276305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06560855627910728</v>
+        <v>0.065638797604887</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03073022721316103</v>
+        <v>0.03069494566641802</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02740872159835487</v>
+        <v>0.02742384226124473</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1011169129654644</v>
+        <v>0.1011471542912441</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1277040785468035</v>
+        <v>0.1277242394306566</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05834055765004738</v>
+        <v>0.0583707989758271</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04722687042599948</v>
+        <v>0.04721174976310961</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03071510655027116</v>
+        <v>0.03072014677123445</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0242888248220802</v>
+        <v>0.02431906614785992</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1413,40 +1413,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0408459506864781</v>
+        <v>0.04080966109554243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04377734319872583</v>
+        <v>0.04370879619362513</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04169673998508094</v>
+        <v>0.04172899739924598</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06881716094433581</v>
+        <v>0.06884941835850084</v>
       </c>
       <c r="F6" t="n">
-        <v>0.030950988891353</v>
+        <v>0.03091873147718796</v>
       </c>
       <c r="G6" t="n">
-        <v>0.028773613435213</v>
+        <v>0.02878167778875426</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09507066389790528</v>
+        <v>0.09513517872623536</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1147759117759723</v>
+        <v>0.114735590008266</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05242233019495575</v>
+        <v>0.05245055543235015</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0414870667930082</v>
+        <v>0.04147497026269632</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02778169794963811</v>
+        <v>0.02778573012640874</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02331404608778049</v>
+        <v>0.02333420697163364</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1598,40 +1598,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03679025288468647</v>
+        <v>0.03676001155890674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04022432343433936</v>
+        <v>0.04016720093008878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0394447692586843</v>
+        <v>0.03947165043715516</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06790521696471173</v>
+        <v>0.0679320981431826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02889726685617898</v>
+        <v>0.02887038567770811</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02797322634624302</v>
+        <v>0.02795978575700759</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09255189747518532</v>
+        <v>0.09263590115790676</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1101758701101456</v>
+        <v>0.1101389084897482</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05132961029011512</v>
+        <v>0.05135313132127713</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04110468202926016</v>
+        <v>0.04108452114540701</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02566480514505756</v>
+        <v>0.02567152543967528</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02225089547925781</v>
+        <v>0.0222676962158021</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1783,40 +1783,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03383284323184729</v>
+        <v>0.03380692209546467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03645087800649181</v>
+        <v>0.0364019158599913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03752516510323813</v>
+        <v>0.03755108623962074</v>
       </c>
       <c r="E8" t="n">
-        <v>0.064808601209077</v>
+        <v>0.06482876209293015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02668724996903864</v>
+        <v>0.02666420895892076</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02620626888282782</v>
+        <v>0.02619474837776888</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09108687324852321</v>
+        <v>0.0911588764051416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.105481744319671</v>
+        <v>0.1054500629307589</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05823039282042125</v>
+        <v>0.05825055370427439</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03919851846304942</v>
+        <v>0.03918123770546101</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02304677037041304</v>
+        <v>0.02305253062294251</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02021560625217809</v>
+        <v>0.02023000688350177</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1968,40 +1968,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03167526864377734</v>
+        <v>0.03165510775992419</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03430626398661317</v>
+        <v>0.03426594221890688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03680117336344026</v>
+        <v>0.03681881413681175</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06627890566722446</v>
+        <v>0.06630158666155925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02808915142839862</v>
+        <v>0.02806395032358219</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02517590371161872</v>
+        <v>0.0251633031592105</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08881121348359912</v>
+        <v>0.08887169613515856</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1013613636821838</v>
+        <v>0.1013361625773674</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05385476099272192</v>
+        <v>0.05387492187657507</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03692465877704078</v>
+        <v>0.03690953811415092</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02132769500614907</v>
+        <v>0.02133021511663071</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01846988971996532</v>
+        <v>0.01848501038285518</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2153,40 +2153,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02912351677497542</v>
+        <v>0.02910559598932817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03231117652197872</v>
+        <v>0.03227533495068424</v>
       </c>
       <c r="D10" t="n">
-        <v>0.033937487819466</v>
+        <v>0.03395316850690734</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06223216825825644</v>
+        <v>0.06225232914210959</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02625395097321067</v>
+        <v>0.02623154999115161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02489197126402021</v>
+        <v>0.02488301087119659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08910662643450289</v>
+        <v>0.08916038879144461</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1001749516698812</v>
+        <v>0.1001503105896163</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05445902748376489</v>
+        <v>0.05447694826941213</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0377456547695051</v>
+        <v>0.03772997408206376</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01970838401555524</v>
+        <v>0.01971286421196705</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0170919493110578</v>
+        <v>0.01710538990029323</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2338,40 +2338,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02737041591903389</v>
+        <v>0.02735428721195137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03022318098425435</v>
+        <v>0.03019092357008931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0318501643112034</v>
+        <v>0.0318642769299006</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05925888590955827</v>
+        <v>0.05927703070502611</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02484425717223443</v>
+        <v>0.02482409628838128</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02295921453196508</v>
+        <v>0.02295115017842382</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0840063708392976</v>
+        <v>0.08405475696054515</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09931856212576359</v>
+        <v>0.09929638515352512</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0579141549565533</v>
+        <v>0.05793028366363581</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04126529707062358</v>
+        <v>0.04125118445192637</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01956210560270962</v>
+        <v>0.01956613777948025</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01608435313804157</v>
+        <v>0.01609644966835346</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2523,40 +2523,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02683047079329412</v>
+        <v>0.02681580833231002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02871093141450594</v>
+        <v>0.02868160649253772</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02994074532954797</v>
+        <v>0.02995357498290907</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05573751262346251</v>
+        <v>0.05575400789206963</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02311903535669186</v>
+        <v>0.02310070728046172</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02232909527117305</v>
+        <v>0.022321764040681</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08819836843465399</v>
+        <v>0.08824235581760631</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09699034660224959</v>
+        <v>0.09697018571839644</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05607108361085095</v>
+        <v>0.05608574607183506</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04128032609313229</v>
+        <v>0.04126749643977119</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02006374504912841</v>
+        <v>0.02006741066437443</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01532960295888463</v>
+        <v>0.01534059980462271</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2708,40 +2708,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03148290021034522</v>
+        <v>0.03146945962110979</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02769097397229895</v>
+        <v>0.02766409279382808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02860493404030833</v>
+        <v>0.02861669455588933</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05346498390489439</v>
+        <v>0.05348010456778425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02382344441980336</v>
+        <v>0.02380664368325907</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02384024515634765</v>
+        <v>0.02383352486172994</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0873100676733668</v>
+        <v>0.0873503894410731</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09565667358857012</v>
+        <v>0.09563819277837141</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05588428996727216</v>
+        <v>0.0558977305565076</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04047801455615814</v>
+        <v>0.04046625404057714</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01907891641969584</v>
+        <v>0.0190822765670047</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0160480635471059</v>
+        <v>0.01605814398903248</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2893,40 +2893,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03129589508896378</v>
+        <v>0.03131915764725587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02671006943098232</v>
+        <v>0.02668525603547075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02768399520481132</v>
+        <v>0.02769485106534763</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05195459768956271</v>
+        <v>0.05197165689897691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02330288005980028</v>
+        <v>0.02328582085038608</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0236114966664754</v>
+        <v>0.02360219164315856</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1002104486106825</v>
+        <v>0.1002399145178525</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1111609102173809</v>
+        <v>0.1111469526824056</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05609068055389702</v>
+        <v>0.05611549394940859</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04420041159219805</v>
+        <v>0.04419110656888121</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02432798346187189</v>
+        <v>0.02430782257801874</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01720808978727166</v>
+        <v>0.01719723392673535</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -3078,40 +3078,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03413237636337977</v>
+        <v>0.03415397731036528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03229341574334619</v>
+        <v>0.0322703747332283</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0289423888343265</v>
+        <v>0.02895246927625307</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05249318130106824</v>
+        <v>0.05250902199552428</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02350471044650598</v>
+        <v>0.02348886975204993</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02398137134331969</v>
+        <v>0.02397273096452548</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09808702013496272</v>
+        <v>0.09811438133447771</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1067648405706106</v>
+        <v>0.1067518800024193</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05409597156739351</v>
+        <v>0.0541190125775114</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04437266529764665</v>
+        <v>0.04436402491885244</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02356231297180068</v>
+        <v>0.0235435921510799</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01783662195750662</v>
+        <v>0.01782654151558004</v>
       </c>
       <c r="N15" t="n">
         <v>0.01337962656282852</v>
@@ -3263,40 +3263,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03435817826253503</v>
+        <v>0.03437833914638818</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03344825037129628</v>
+        <v>0.03342674542851959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03053836280182523</v>
+        <v>0.03054777121429003</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05381343118082297</v>
+        <v>0.05382955988790548</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02342694703735812</v>
+        <v>0.0234108183302756</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02409091214558846</v>
+        <v>0.0240828477920472</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09590801260727271</v>
+        <v>0.09595236655174963</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1031215768499291</v>
+        <v>0.1030893194357641</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05255404796946298</v>
+        <v>0.05257555291223967</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04328138545593839</v>
+        <v>0.04327466516132067</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02258153397444944</v>
+        <v>0.02256406120844338</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01746201353467336</v>
+        <v>0.01745260512220856</v>
       </c>
       <c r="N16" t="n">
         <v>0.01788808021343656</v>
@@ -3448,40 +3448,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03452047337755287</v>
+        <v>0.0345393742061652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03536975060986674</v>
+        <v>0.03534958972601359</v>
       </c>
       <c r="D17" t="n">
-        <v>0.031168726436967</v>
+        <v>0.03117754682365275</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05252792282413661</v>
+        <v>0.05254304348702647</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02248316566198262</v>
+        <v>0.02246804499909276</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02302750952601762</v>
+        <v>0.02301994919457269</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09264682163666055</v>
+        <v>0.09268840345960767</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09832463055180339</v>
+        <v>0.09829438922602367</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05103853752948529</v>
+        <v>0.05105869841333844</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04570724380556843</v>
+        <v>0.04570094352936432</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02259153041269329</v>
+        <v>0.02257514969456261</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01692002177375456</v>
+        <v>0.01691120138706881</v>
       </c>
       <c r="N17" t="n">
         <v>0.02052881998346807</v>
@@ -3633,40 +3633,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03466723275266035</v>
+        <v>0.03468383583348059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0379997082601513</v>
+        <v>0.03797954737629815</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03232382648831796</v>
+        <v>0.03233449989741668</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05159881738627186</v>
+        <v>0.0516154204670921</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02180577478869615</v>
+        <v>0.02179154357656451</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02260983827413347</v>
+        <v>0.02260153673372335</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09086510352613858</v>
+        <v>0.0909125408999107</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09452845471569003</v>
+        <v>0.09448457514495083</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04855215205575789</v>
+        <v>0.04857349887395534</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04380485687551366</v>
+        <v>0.04380129907248075</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02235604832445266</v>
+        <v>0.02234063117797672</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01659715114851812</v>
+        <v>0.0165900355424523</v>
       </c>
       <c r="N18" t="n">
         <v>0.02177731236443288</v>
@@ -3818,40 +3818,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03483800729823996</v>
+        <v>0.03485368798568129</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04073730592349169</v>
+        <v>0.04071826508874149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03252734599884859</v>
+        <v>0.03253854648987812</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0498769066035855</v>
+        <v>0.04989146724192389</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02137837722805768</v>
+        <v>0.02136381658971929</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02200112452929937</v>
+        <v>0.02199440423468165</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0886496464004982</v>
+        <v>0.08869332831551335</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09118991776599486</v>
+        <v>0.09114959599828856</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04690765643165797</v>
+        <v>0.04692781731551111</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04203544283381384</v>
+        <v>0.04203208268650498</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02255442878615798</v>
+        <v>0.02253874809871665</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01728907795317747</v>
+        <v>0.0172834777076627</v>
       </c>
       <c r="N19" t="n">
         <v>0.02203696610059385</v>
@@ -4003,40 +4003,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03463533736055831</v>
+        <v>0.03465019274866063</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04241956072617382</v>
+        <v>0.042401522040621</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03271580899790857</v>
+        <v>0.03272641998941023</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04965519583115366</v>
+        <v>0.04966899012010581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02127291576252176</v>
+        <v>0.02125912147356961</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02161777298632562</v>
+        <v>0.02161140639142462</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08744305876685424</v>
+        <v>0.08748444163371069</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08989419780373697</v>
+        <v>0.08985599823433102</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04613871324750456</v>
+        <v>0.04615781303220754</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04013819755331758</v>
+        <v>0.04013501425586708</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02146709690700209</v>
+        <v>0.02145224151889977</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01660089620434223</v>
+        <v>0.0165955907085914</v>
       </c>
       <c r="N20" t="n">
         <v>0.02156365692966717</v>
@@ -4188,40 +4188,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0350950585673676</v>
+        <v>0.0351091711860648</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04501723755569444</v>
+        <v>0.04500010080441927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03438841958831475</v>
+        <v>0.03439749198604867</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0493397310538094</v>
+        <v>0.0493538436725066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0208524021693111</v>
+        <v>0.02083929759480656</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0210842523336223</v>
+        <v>0.02107820406846636</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08379367351464688</v>
+        <v>0.08382794701719723</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08724118465353521</v>
+        <v>0.08719582266486563</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04570774782766476</v>
+        <v>0.04572387653474728</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03958387935727102</v>
+        <v>0.03959597588758291</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02116086369226427</v>
+        <v>0.02114775911775972</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01697748029273603</v>
+        <v>0.01697244007177275</v>
       </c>
       <c r="N21" t="n">
         <v>0.02101872946109958</v>
@@ -4373,40 +4373,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03522490425980275</v>
+        <v>0.03523834484903818</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04544647237334885</v>
+        <v>0.04543015165784868</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03530650783730359</v>
+        <v>0.0353151482160978</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04878261863000074</v>
+        <v>0.04879605921923617</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02072250847477154</v>
+        <v>0.02071002792762435</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02185055792845958</v>
+        <v>0.02184479767593011</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08293515587723366</v>
+        <v>0.08296779730823399</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08464499083639827</v>
+        <v>0.08460466906869198</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04558855860240913</v>
+        <v>0.04560199919164456</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0395191725205233</v>
+        <v>0.03953069302558224</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02117852846668798</v>
+        <v>0.02116508787745255</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01710410984417557</v>
+        <v>0.01709930963373434</v>
       </c>
       <c r="N22" t="n">
         <v>0.02113052636227572</v>
@@ -4558,40 +4558,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03796844271834696</v>
+        <v>0.03798127237170805</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04574229625135857</v>
+        <v>0.04572671738656296</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03506802465492814</v>
+        <v>0.03507627228923171</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05007413706835089</v>
+        <v>0.05008696672171199</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02059892487504834</v>
+        <v>0.02058701162549875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02145942805405316</v>
+        <v>0.02145392963118412</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07980502592506383</v>
+        <v>0.07983618365465506</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08184127519423179</v>
+        <v>0.08180278623414851</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04550678047180134</v>
+        <v>0.04551961012516243</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03950891752548977</v>
+        <v>0.03951991437122785</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02229885394539333</v>
+        <v>0.02228602429203224</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01827400840525576</v>
+        <v>0.01826942638619822</v>
       </c>
       <c r="N23" t="n">
         <v>0.02193687443984817</v>
@@ -4743,40 +4743,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03863877218464214</v>
+        <v>0.03865104402698753</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04682759726969039</v>
+        <v>0.04681181918667488</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03711969341431581</v>
+        <v>0.03712845901599109</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0502558240848931</v>
+        <v>0.05026809592723849</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02133372135730082</v>
+        <v>0.02132232607512296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02299480287476673</v>
+        <v>0.02298954351376156</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07864322511029319</v>
+        <v>0.07867302815598914</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0809801345169233</v>
+        <v>0.08094331898988713</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04426716502034058</v>
+        <v>0.04427943686268598</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03893417296109913</v>
+        <v>0.03894469168310948</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02213665047075664</v>
+        <v>0.02212437862841124</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01838935575457367</v>
+        <v>0.01838497295373603</v>
       </c>
       <c r="N24" t="n">
         <v>0.02373724933666309</v>
@@ -4928,40 +4928,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0393288441765287</v>
+        <v>0.0393406046921097</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04725627171495198</v>
+        <v>0.04724115105206212</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03774873490453821</v>
+        <v>0.03775713527281036</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0511313615988925</v>
+        <v>0.0511431221144735</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02238446133478492</v>
+        <v>0.02237354085603113</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0239645706067754</v>
+        <v>0.02395953038581211</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07902898463068621</v>
+        <v>0.0790575458828115</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07970773438707553</v>
+        <v>0.07967245284033252</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04364663346841126</v>
+        <v>0.04365839398399226</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03864169405186724</v>
+        <v>0.03865177449379381</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02207028756140669</v>
+        <v>0.02205852704582569</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01886974724971943</v>
+        <v>0.01886554706558335</v>
       </c>
       <c r="N25" t="n">
         <v>0.02862593496098869</v>
@@ -5113,40 +5113,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04492490070764702</v>
+        <v>0.04493619080260479</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05256506925263604</v>
+        <v>0.05255055341626177</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04009999798391162</v>
+        <v>0.04010806233745287</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0524707163162033</v>
+        <v>0.05248200641116107</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02311324368460313</v>
+        <v>0.0231027600249995</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02324872482409629</v>
+        <v>0.02324388621197153</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07623394689623193</v>
+        <v>0.07626136569827222</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07737263361625774</v>
+        <v>0.07733876333138445</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04357815366625673</v>
+        <v>0.04358944376121449</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03832825951089696</v>
+        <v>0.03833793673514647</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02248422410838491</v>
+        <v>0.02247293401342715</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02079716134755348</v>
+        <v>0.02079312917078285</v>
       </c>
       <c r="N26" t="n">
         <v>0.03260660067337352</v>
@@ -5298,40 +5298,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0441717211036378</v>
+        <v>0.04418257696417411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05130247063877434</v>
+        <v>0.05128851310379909</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04026903924083416</v>
+        <v>0.04027679342693153</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05261370350783871</v>
+        <v>0.05262455936837502</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02295471710402861</v>
+        <v>0.02294463666210204</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02484751393039532</v>
+        <v>0.0248428614187369</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08091725818182946</v>
+        <v>0.0809436224145605</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08235023177262245</v>
+        <v>0.08231766419101352</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04803020410568645</v>
+        <v>0.04804105996622277</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03948198935195165</v>
+        <v>0.03949129437526849</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02252746145006382</v>
+        <v>0.02251660558952751</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02110611913841687</v>
+        <v>0.02110224204536819</v>
       </c>
       <c r="N27" t="n">
         <v>0.03135250064747454</v>
@@ -5483,40 +5483,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04473700127013568</v>
+        <v>0.04474745506176324</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05016550592244631</v>
+        <v>0.05015206533321087</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03947426388506205</v>
+        <v>0.03948173087908174</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05115413593065253</v>
+        <v>0.05116458972228009</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02275342417678258</v>
+        <v>0.02274371708455699</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02537135228008396</v>
+        <v>0.02536687208367215</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08161051113814163</v>
+        <v>0.08163589891780855</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08332941316147299</v>
+        <v>0.08329805178659032</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04889761033790388</v>
+        <v>0.04890806412953144</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04028667283440373</v>
+        <v>0.04029563322722735</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02395859701155965</v>
+        <v>0.02394814321993209</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02223820158942435</v>
+        <v>0.0222344680924145</v>
       </c>
       <c r="N28" t="n">
         <v>0.0301912969197903</v>
@@ -5668,40 +5668,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04501997367564594</v>
+        <v>0.0450307741491387</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04964113626741396</v>
+        <v>0.04962745566765647</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03916539701100497</v>
+        <v>0.0391725973266668</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05018980032084606</v>
+        <v>0.05019988076277264</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02276883818586607</v>
+        <v>0.02275947777550568</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0250873398289781</v>
+        <v>0.025083019639581</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08110147548868542</v>
+        <v>0.08112595656193568</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08356470347660042</v>
+        <v>0.08353446215082069</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04930128136817518</v>
+        <v>0.04931136181010175</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04175895071239923</v>
+        <v>0.04176759109119343</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0251543027646332</v>
+        <v>0.02514422232270663</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02318861658895126</v>
+        <v>0.02318501643112034</v>
       </c>
       <c r="N29" t="n">
         <v>0.02911303631551207</v>
@@ -5853,40 +5853,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04444154004125334</v>
+        <v>0.04445196808462566</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04962149678572943</v>
+        <v>0.04960550711922521</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0395104659319299</v>
+        <v>0.03948474342494485</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05084992029498849</v>
+        <v>0.05086938597595015</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02266778547985337</v>
+        <v>0.0226371965526279</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0251927623817373</v>
+        <v>0.02517885832390754</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08116702318988285</v>
+        <v>0.08124210510216354</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08291893447643227</v>
+        <v>0.08293283853426203</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05037579192299377</v>
+        <v>0.0504369697774447</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04201180593550324</v>
+        <v>0.04192977199430768</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02474852773407655</v>
+        <v>0.02474088050227018</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02300356847644201</v>
+        <v>0.02299939725909308</v>
       </c>
       <c r="N30" t="n">
         <v>0.0281091385115289</v>
@@ -6038,40 +6038,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04350651532563188</v>
+        <v>0.04351659576755845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04918785239544902</v>
+        <v>0.04916970759998118</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04047095824680954</v>
+        <v>0.0404481092451093</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05122611775300229</v>
+        <v>0.05124627863685544</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0226675537455562</v>
+        <v>0.02264268865547065</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02549410966176757</v>
+        <v>0.02547394877791442</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08091436328568645</v>
+        <v>0.08098761449701955</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08235116227495413</v>
+        <v>0.08236594692311311</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04989482738923275</v>
+        <v>0.04995329395240687</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0416268489210567</v>
+        <v>0.04154687741510588</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02440071772746517</v>
+        <v>0.02439332540338568</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02282884081638139</v>
+        <v>0.02282548066907253</v>
       </c>
       <c r="N31" t="n">
         <v>0.02717216722781127</v>
@@ -6223,37 +6223,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04318916567108753</v>
+        <v>0.04319566918200791</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04832758964927216</v>
+        <v>0.04830742876541901</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0398522142178455</v>
+        <v>0.03983205333399235</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0509166373466716</v>
+        <v>0.05093354647506456</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0224748330386159</v>
+        <v>0.02245077004821053</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02569472129529126</v>
+        <v>0.025672609358162</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08170230699042878</v>
+        <v>0.08177774771710508</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08203398604736767</v>
+        <v>0.08204829377139249</v>
       </c>
       <c r="J32" t="n">
-        <v>0.04917044466455216</v>
+        <v>0.04922767556065142</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04134346927188643</v>
+        <v>0.04127193065176235</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02461708953578589</v>
+        <v>0.02460473286503719</v>
       </c>
       <c r="M32" t="n">
         <v>0.02299056145460127</v>
@@ -6408,37 +6408,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04270201205620854</v>
+        <v>0.04270831233241265</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04722498034313824</v>
+        <v>0.0472048194592851</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03967409931251386</v>
+        <v>0.03965456845628113</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05061326888570795</v>
+        <v>0.05062838954859781</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02246237475050906</v>
+        <v>0.0224415838390355</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02574166851474769</v>
+        <v>0.02571961754803331</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08256511965484567</v>
+        <v>0.08264009294167456</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08189351021148768</v>
+        <v>0.08190485070865507</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04893361524969254</v>
+        <v>0.0489884276526683</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04097321626580109</v>
+        <v>0.04090454325517631</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02434426725267636</v>
+        <v>0.02433292675550896</v>
       </c>
       <c r="M33" t="n">
         <v>0.02260791113082397</v>
@@ -6593,40 +6593,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04180206532981678</v>
+        <v>0.04180756375268583</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04597842296679014</v>
+        <v>0.04595887301881132</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0388316951087863</v>
+        <v>0.03881092328905881</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04971429583836592</v>
+        <v>0.04972956923522436</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02215803322635846</v>
+        <v>0.02267977246304296</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02581998285713936</v>
+        <v>0.02588901861093954</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08229061852980725</v>
+        <v>0.08175360589626431</v>
       </c>
       <c r="I34" t="n">
-        <v>0.08224968582622662</v>
+        <v>0.08226312641546206</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04951879635857782</v>
+        <v>0.04953773537068229</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04172325460202721</v>
+        <v>0.04167010318095982</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02420405746951583</v>
+        <v>0.02419000594440606</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02235964206488994</v>
+        <v>0.02236025300076428</v>
       </c>
       <c r="N34" t="n">
         <v>0.02470197020710115</v>
@@ -6778,40 +6778,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04088390058549578</v>
+        <v>0.04088923729004515</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04468541312615851</v>
+        <v>0.04466643817664966</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03773880270440468</v>
+        <v>0.03771864182055153</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04852131776280601</v>
+        <v>0.0485361419421098</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02163084947291148</v>
+        <v>0.02213724343792879</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02542168860447548</v>
+        <v>0.02548869389492859</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08793643866288274</v>
+        <v>0.08741522051856165</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08158753915065754</v>
+        <v>0.08160058442844487</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0486007753638743</v>
+        <v>0.048619157346211</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04086255376729833</v>
+        <v>0.04081096562332116</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02364219412084908</v>
+        <v>0.0236285558758896</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02178620687201515</v>
+        <v>0.0217867998391873</v>
       </c>
       <c r="N35" t="n">
         <v>0.02397544167159818</v>
@@ -6963,37 +6963,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04022672353955997</v>
+        <v>0.04023133174158355</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04371340439564871</v>
+        <v>0.04369554761280735</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03687252849164908</v>
+        <v>0.03685294363304888</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04748579377719919</v>
+        <v>0.04750019440852287</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02129910975297157</v>
+        <v>0.0217887312179766</v>
       </c>
       <c r="G36" t="n">
-        <v>0.024974150866774</v>
+        <v>0.02504096979611586</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08784097094816637</v>
+        <v>0.08733406872557294</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08256803578268872</v>
+        <v>0.08258186038875945</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04870639128819407</v>
+        <v>0.04872597614679428</v>
       </c>
       <c r="K36" t="n">
-        <v>0.04064261377218777</v>
+        <v>0.04059019547416959</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02370631928503746</v>
+        <v>0.02369422275472557</v>
       </c>
       <c r="M36" t="n">
         <v>0.02172824856641715</v>
@@ -7148,37 +7148,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04101339802736952</v>
+        <v>0.04101731819922985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04324173571769387</v>
+        <v>0.0432243749565981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0361316640121503</v>
+        <v>0.03611318320195157</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04664276481880966</v>
+        <v>0.04665676543259657</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02083403336402268</v>
+        <v>0.02131061425732904</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02455875665589179</v>
+        <v>0.02462315947931157</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08898398105772957</v>
+        <v>0.0884911594524304</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08159613717465374</v>
+        <v>0.08161013778844065</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04827579641091465</v>
+        <v>0.04829427722111337</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04017168112650059</v>
+        <v>0.04012015886776477</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02330990190609956</v>
+        <v>0.02329870141507004</v>
       </c>
       <c r="M37" t="n">
         <v>0.02136101646696191</v>
@@ -7333,37 +7333,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0399714042382537</v>
+        <v>0.03997521845952321</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04215804280319109</v>
+        <v>0.04214115125185466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03522542320147207</v>
+        <v>0.03520744187263007</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04578373256424102</v>
+        <v>0.04579735478306072</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02053958153633563</v>
+        <v>0.02100328186495804</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0248997813361435</v>
+        <v>0.0249624435427141</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08778811673914595</v>
+        <v>0.08730861463669271</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08152897963587265</v>
+        <v>0.08154260185469234</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04996411907562892</v>
+        <v>0.04998210040447092</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04048142011086307</v>
+        <v>0.04043129034560659</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02368794874994347</v>
+        <v>0.02367705097488771</v>
       </c>
       <c r="M38" t="n">
         <v>0.02108501517787621</v>
@@ -7518,40 +7518,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03928348218785912</v>
+        <v>0.03928135998955878</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04228639278282802</v>
+        <v>0.04227631234090145</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03545928085066197</v>
+        <v>0.03544124216510915</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04579544767242596</v>
+        <v>0.04580765031265287</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02055932658403534</v>
+        <v>0.02101559921860659</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02500851532068008</v>
+        <v>0.02506687577393919</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0870854683532484</v>
+        <v>0.08661699307845025</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08118098213215141</v>
+        <v>0.08119424587152849</v>
       </c>
       <c r="J39" t="n">
-        <v>0.04953423052803477</v>
+        <v>0.0495517386640125</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03996948278844124</v>
+        <v>0.03991908057880836</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02317122214216819</v>
+        <v>0.02315742785321603</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02066490594947682</v>
+        <v>0.02067021144522765</v>
       </c>
       <c r="N39" t="n">
         <v>0.02145171096932469</v>
@@ -7703,40 +7703,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03911056383788789</v>
+        <v>0.0390940215742135</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04184624069303813</v>
+        <v>0.0418519270961762</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03515127641657349</v>
+        <v>0.03513628499011858</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04504199925663203</v>
+        <v>0.04505699068308693</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02035318766836277</v>
+        <v>0.0207962101673922</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02508065645905609</v>
+        <v>0.02514010521913588</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08613091444082754</v>
+        <v>0.08567445135256269</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0803395713175758</v>
+        <v>0.08034577466645368</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04923132753216824</v>
+        <v>0.04924735285010279</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03994129564178555</v>
+        <v>0.03989166885076242</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0228950098710789</v>
+        <v>0.02288105233610364</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02058064379388546</v>
+        <v>0.02058684714276336</v>
       </c>
       <c r="N40" t="n">
         <v>0.02090166709831636</v>
@@ -7888,40 +7888,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03864287010342533</v>
+        <v>0.03862674139634282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04102135037600049</v>
+        <v>0.0410268946190601</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03447158323420899</v>
+        <v>0.03445696659341545</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0440822765670047</v>
+        <v>0.04409689320779823</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02008830467127679</v>
+        <v>0.02052025160783049</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02470464305155138</v>
+        <v>0.02476260559262918</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0868984496280317</v>
+        <v>0.08645339811697345</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0799500010080442</v>
+        <v>0.07995604927320013</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0492782403580573</v>
+        <v>0.04929386504304348</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0395027317997621</v>
+        <v>0.03945434567851454</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0225872462248745</v>
+        <v>0.02257363762827362</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02036098062539062</v>
+        <v>0.02036702889054656</v>
       </c>
       <c r="N41" t="n">
         <v>0.02037912542085845</v>
@@ -8073,40 +8073,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03791967215452482</v>
+        <v>0.03790393683054187</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04010983256140096</v>
+        <v>0.04011524157902009</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03392929233822489</v>
+        <v>0.03391503220086534</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04324558759387719</v>
+        <v>0.04325984773123673</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01968587376041298</v>
+        <v>0.02010728540583121</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02458398507897903</v>
+        <v>0.02464053389954274</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0856586782032817</v>
+        <v>0.08522448160712731</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07964729271292229</v>
+        <v>0.07965319345941589</v>
       </c>
       <c r="J42" t="n">
-        <v>0.04940940903532138</v>
+        <v>0.04942465263042985</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03928962879878995</v>
+        <v>0.03924242282684112</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02227925184435207</v>
+        <v>0.02226597516474147</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02009253353959721</v>
+        <v>0.02009843428609081</v>
       </c>
       <c r="N42" t="n">
         <v>0.01988207358132532</v>
@@ -8258,40 +8258,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0370293033646595</v>
+        <v>0.03701394269124758</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03918411783172574</v>
+        <v>0.03918939806321109</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03312145204445763</v>
+        <v>0.03310753143417807</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04221593074640392</v>
+        <v>0.04222985135668348</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01921764250144726</v>
+        <v>0.01962902053626031</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02405625462620281</v>
+        <v>0.02411145704627691</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0841736101710699</v>
+        <v>0.08374975158910966</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07847672041942319</v>
+        <v>0.07848248067195265</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04868853450535272</v>
+        <v>0.04870341515772052</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03867337544077933</v>
+        <v>0.03862729342054356</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02175263363545858</v>
+        <v>0.02173967306726727</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01961942011537786</v>
+        <v>0.01962518036790733</v>
       </c>
       <c r="N43" t="n">
         <v>0.01940869087700805</v>
@@ -8443,40 +8443,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03623989201267979</v>
+        <v>0.03622488856423094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03831693190731807</v>
+        <v>0.03832208934272237</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03246511815450082</v>
+        <v>0.03245152127934405</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04153704703065345</v>
+        <v>0.04155064390581022</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01943978061207506</v>
+        <v>0.01984159171584594</v>
       </c>
       <c r="G44" t="n">
-        <v>0.023899086805733</v>
+        <v>0.02395300544859608</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08312801270416997</v>
+        <v>0.0827140112985344</v>
       </c>
       <c r="I44" t="n">
-        <v>0.07791290779490098</v>
+        <v>0.0779185340880693</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04789241402203537</v>
+        <v>0.04790694861272021</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03802295808927333</v>
+        <v>0.03797794774392677</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02135084485824789</v>
+        <v>0.02133818569861917</v>
       </c>
       <c r="M44" t="n">
-        <v>0.01927755582572182</v>
+        <v>0.01928318211889014</v>
       </c>
       <c r="N44" t="n">
         <v>0.02188299842041819</v>
@@ -8628,40 +8628,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03575395290784093</v>
+        <v>0.03573929044685683</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03758309491560837</v>
+        <v>0.03758813513657166</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03205122330744798</v>
+        <v>0.03203793545218113</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04080929453401783</v>
+        <v>0.04082258238928467</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01937552578668685</v>
+        <v>0.01976820481991749</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02377426408191917</v>
+        <v>0.02382695730108081</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08197002992974849</v>
+        <v>0.08156543764696826</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07703290439525597</v>
+        <v>0.077038402818125</v>
       </c>
       <c r="J45" t="n">
-        <v>0.04738907390063617</v>
+        <v>0.04740327815971452</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03754231494599632</v>
+        <v>0.037498327563044</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02116801164199402</v>
+        <v>0.02115564019053868</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01928571821315919</v>
+        <v>0.01929121663602823</v>
       </c>
       <c r="N45" t="n">
         <v>0.02184981607775503</v>
@@ -8813,40 +8813,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03502079931184183</v>
+        <v>0.03500646268332404</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03694369961179098</v>
+        <v>0.03694862782784397</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03173815940090813</v>
+        <v>0.03172516683131388</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04058833939279898</v>
+        <v>0.04060133196239323</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01930740643669818</v>
+        <v>0.01969135926919036</v>
       </c>
       <c r="G46" t="n">
-        <v>0.023547912340477</v>
+        <v>0.02359943459921283</v>
       </c>
       <c r="H46" t="n">
-        <v>0.08119280749268049</v>
+        <v>0.08079631011023523</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07622337363270006</v>
+        <v>0.0762296459076766</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04688032723354592</v>
+        <v>0.04689421584242253</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03699118969375617</v>
+        <v>0.03694817980820279</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02078183907582509</v>
+        <v>0.02076974254551319</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01889612440609396</v>
+        <v>0.01890150064178813</v>
       </c>
       <c r="N46" t="n">
         <v>0.02136426460936047</v>
@@ -8998,40 +8998,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03433573832224631</v>
+        <v>0.03432171335956586</v>
       </c>
       <c r="C47" t="n">
-        <v>0.03622691688368836</v>
+        <v>0.03623173796460976</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03125857385413863</v>
+        <v>0.03124586373170948</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04103572596274795</v>
+        <v>0.0410484360851771</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01911120305253313</v>
+        <v>0.01948680908431895</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02337260030697137</v>
+        <v>0.02342300251660424</v>
       </c>
       <c r="H47" t="n">
-        <v>0.08124222600701424</v>
+        <v>0.08085434813288302</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07644656533046756</v>
+        <v>0.07645270125164026</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04734652088886707</v>
+        <v>0.04736010757146376</v>
       </c>
       <c r="K47" t="n">
-        <v>0.03681728015651858</v>
+        <v>0.03677520526847723</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02067060359056576</v>
+        <v>0.02065877002830413</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0185598467071579</v>
+        <v>0.01856510606816307</v>
       </c>
       <c r="N47" t="n">
         <v>0.02089982407437438</v>
@@ -9183,40 +9183,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03367553931436695</v>
+        <v>0.03366181275514778</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03548701617632109</v>
+        <v>0.03549173468105267</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03064883300654114</v>
+        <v>0.03063639331224877</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04039254527727006</v>
+        <v>0.04040498497156243</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01906061434073695</v>
+        <v>0.01942822875482521</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02359895798257328</v>
+        <v>0.02364828780476715</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0817262177710041</v>
+        <v>0.08134659261759908</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07653843629611105</v>
+        <v>0.07654444166576943</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04767105330323213</v>
+        <v>0.0476843509074757</v>
       </c>
       <c r="K48" t="n">
-        <v>0.03690213864082184</v>
+        <v>0.03686095896316435</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02061343135240496</v>
+        <v>0.02060184956806379</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01829879030407331</v>
+        <v>0.0183039377637805</v>
       </c>
       <c r="N48" t="n">
         <v>0.02045514696640896</v>
@@ -9368,40 +9368,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03344816636761356</v>
+        <v>0.03343472577837812</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03531682828975222</v>
+        <v>0.03532144849230191</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03051181763808525</v>
+        <v>0.03049963710409064</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0402671653125273</v>
+        <v>0.04027934584652191</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0190075132893826</v>
+        <v>0.01936746906984402</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02340468606143693</v>
+        <v>0.02345298817900177</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08192711168457625</v>
+        <v>0.08155539538853383</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07620100065186858</v>
+        <v>0.07620688090965907</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04745830057189707</v>
+        <v>0.0474713211427189</v>
       </c>
       <c r="K49" t="n">
-        <v>0.03655294248099836</v>
+        <v>0.03651262071329207</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02055066094097565</v>
+        <v>0.02053932044380826</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01851063150608523</v>
+        <v>0.01851567172704851</v>
       </c>
       <c r="N49" t="n">
         <v>0.02002899807127544</v>
@@ -9553,40 +9553,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03303669404295256</v>
+        <v>0.03302352775145662</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03494580630986291</v>
+        <v>0.03495033222256463</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03072724422524398</v>
+        <v>0.03071531227357579</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03993048198090147</v>
+        <v>0.03994241393256966</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01898538089052681</v>
+        <v>0.01933799063465228</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02345163383391299</v>
+        <v>0.0234989501939765</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08111176165391662</v>
+        <v>0.08074763140473221</v>
       </c>
       <c r="I50" t="n">
-        <v>0.07668336179858125</v>
+        <v>0.07668912205111073</v>
       </c>
       <c r="J50" t="n">
-        <v>0.04742662775478934</v>
+        <v>0.04743938259967603</v>
       </c>
       <c r="K50" t="n">
-        <v>0.03624926916796033</v>
+        <v>0.03620977029347253</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02028596362235949</v>
+        <v>0.0202748545639098</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01833570669452434</v>
+        <v>0.01834064405383532</v>
       </c>
       <c r="N50" t="n">
         <v>0.01962024300859636</v>
@@ -9738,40 +9738,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03274813007802262</v>
+        <v>0.03273522711235661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03455454527126469</v>
+        <v>0.03455898066571238</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0305808350638092</v>
+        <v>0.03056914175117437</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03956250882038669</v>
+        <v>0.03957420213302151</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01887300659260902</v>
+        <v>0.01921856414185198</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02327493397310538</v>
+        <v>0.02332130400596762</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08038305679320981</v>
+        <v>0.0800262091490091</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07666619624604343</v>
+        <v>0.07667184129352231</v>
       </c>
       <c r="J51" t="n">
-        <v>0.04710429225217234</v>
+        <v>0.04711679200016129</v>
       </c>
       <c r="K51" t="n">
-        <v>0.03611620733452955</v>
+        <v>0.0360774984375315</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02017660934255358</v>
+        <v>0.02016572246527288</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0183310820346364</v>
+        <v>0.01833592064676115</v>
       </c>
       <c r="N51" t="n">
         <v>0.01922783814842443</v>
@@ -9923,40 +9923,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03390981601809894</v>
+        <v>0.03389716605175971</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03670387733327641</v>
+        <v>0.03670822575920552</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0321740034494877</v>
+        <v>0.03216253941749277</v>
       </c>
       <c r="E52" t="n">
-        <v>0.040849508489511</v>
+        <v>0.04086097252150593</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01899827288428325</v>
+        <v>0.01933705479530575</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02303835588387489</v>
+        <v>0.0230834213889584</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07946353074001117</v>
+        <v>0.07911407541988993</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07575076561944712</v>
+        <v>0.07575629997972053</v>
       </c>
       <c r="J52" t="n">
-        <v>0.04645739669227099</v>
+        <v>0.04646965134716212</v>
       </c>
       <c r="K52" t="n">
-        <v>0.03574406113728731</v>
+        <v>0.03570611123826962</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01999603897929003</v>
+        <v>0.0199853655701913</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01853575849000514</v>
+        <v>0.01854050222738235</v>
       </c>
       <c r="N52" t="n">
         <v>0.02109540011645875</v>
@@ -10108,40 +10108,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03443401420256725</v>
+        <v>0.03442160750481147</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03717550669729053</v>
+        <v>0.03717977149964408</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03210000418726049</v>
+        <v>0.03208876061741931</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04033378669474716</v>
+        <v>0.04034503026458834</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01895433249639818</v>
+        <v>0.01928659937067026</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02287562440583549</v>
+        <v>0.02291982326659047</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0783196058392123</v>
+        <v>0.07797687081370878</v>
       </c>
       <c r="I53" t="n">
-        <v>0.07468793278051156</v>
+        <v>0.07469336071077971</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04595402077811707</v>
+        <v>0.04596603976656798</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03557620581470907</v>
+        <v>0.03553898572144172</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02001161577077385</v>
+        <v>0.02000114761954241</v>
       </c>
       <c r="M53" t="n">
-        <v>0.01848442881889788</v>
+        <v>0.0184890813305563</v>
       </c>
       <c r="N53" t="n">
         <v>0.02159075576950217</v>
@@ -10293,40 +10293,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03449222912045671</v>
+        <v>0.03448005651133784</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03768829980223314</v>
+        <v>0.03769248413661776</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03173170960871528</v>
+        <v>0.0317206781817013</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03984285161627524</v>
+        <v>0.03985388304328922</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01883825379357461</v>
+        <v>0.01916425148153967</v>
       </c>
       <c r="G54" t="n">
-        <v>0.023068996250456</v>
+        <v>0.02311236117044201</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0785357720648511</v>
+        <v>0.07819950373794199</v>
       </c>
       <c r="I54" t="n">
-        <v>0.07383866652110255</v>
+        <v>0.07384399203759207</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04537644364291195</v>
+        <v>0.04538823585799586</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03534621372895327</v>
+        <v>0.03530969590159663</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0197713603613439</v>
+        <v>0.01976108972239984</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01830227859830885</v>
+        <v>0.01830684332672843</v>
       </c>
       <c r="N54" t="n">
         <v>0.02202481462447691</v>
@@ -10478,40 +10478,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03506388386733541</v>
+        <v>0.03505193667690391</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0383986433965265</v>
+        <v>0.03840275024323733</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03162383972246677</v>
+        <v>0.03161301258113822</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0394376756143656</v>
+        <v>0.03944850275569414</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01900499317890096</v>
+        <v>0.01932495387264444</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02286990928348966</v>
+        <v>0.02291247114940186</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07737000523436281</v>
+        <v>0.07703996409869275</v>
       </c>
       <c r="I55" t="n">
-        <v>0.07271358776368755</v>
+        <v>0.07271881465950134</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04486580691697524</v>
+        <v>0.04487738075770575</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03555782552173754</v>
+        <v>0.03552198395044305</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01993799408166054</v>
+        <v>0.01992791363973397</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01858721486349962</v>
+        <v>0.01859169505991142</v>
       </c>
       <c r="N55" t="n">
         <v>0.02224118838703222</v>
@@ -10663,40 +10663,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0351840413774649</v>
+        <v>0.03517231140867761</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03861175819402468</v>
+        <v>0.03861579037079531</v>
       </c>
       <c r="D56" t="n">
-        <v>0.03157890878299741</v>
+        <v>0.03156827849878393</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03927999985337539</v>
+        <v>0.03929063013758887</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01909565606265269</v>
+        <v>0.01940979928923721</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0230028353533928</v>
+        <v>0.02304462336719751</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0768463245792332</v>
+        <v>0.07652228419148441</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0722192184541734</v>
+        <v>0.07222435031551783</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04514351800092007</v>
+        <v>0.04515488140818275</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03544393349840821</v>
+        <v>0.03540874359204635</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01968728636336144</v>
+        <v>0.01967738920219717</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01846150462509004</v>
+        <v>0.01846590336338527</v>
       </c>
       <c r="N56" t="n">
         <v>0.0224309993750126</v>
@@ -10848,40 +10848,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0355810798745417</v>
+        <v>0.03556991938526585</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03905847232342666</v>
+        <v>0.03906243249704067</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03187723749809192</v>
+        <v>0.03186679704038225</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03912327516438321</v>
+        <v>0.03913335560630978</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01905167522544188</v>
+        <v>0.01936128879890094</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0228656824315178</v>
+        <v>0.02290636421500719</v>
       </c>
       <c r="H57" t="n">
-        <v>0.07579484284591037</v>
+        <v>0.07547586886209091</v>
       </c>
       <c r="I57" t="n">
-        <v>0.07133244721448588</v>
+        <v>0.07133820746701536</v>
       </c>
       <c r="J57" t="n">
-        <v>0.04486048668373622</v>
+        <v>0.04487308723614443</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03568116426224126</v>
+        <v>0.03564480266814897</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0198494702007736</v>
+        <v>0.01984010979041321</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01855737355525666</v>
+        <v>0.01856097371308758</v>
       </c>
       <c r="N57" t="n">
         <v>0.022745077144182</v>
@@ -11033,40 +11033,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03572933058437913</v>
+        <v>0.03571942699231092</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03947890128134796</v>
+        <v>0.03948208457879846</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03182165611403562</v>
+        <v>0.03181245992140085</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03887619696405385</v>
+        <v>0.03888433205753845</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01911251789278442</v>
+        <v>0.01941634594944853</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02309163970590576</v>
+        <v>0.02313231517332878</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07502996720849926</v>
+        <v>0.07471800405835055</v>
       </c>
       <c r="I58" t="n">
-        <v>0.07048386474947273</v>
+        <v>0.07048846284579011</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04465069853925554</v>
+        <v>0.04466307802934081</v>
       </c>
       <c r="K58" t="n">
-        <v>0.03566035913961837</v>
+        <v>0.03562498916794617</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01983689491263086</v>
+        <v>0.0198276987199961</v>
       </c>
       <c r="M58" t="n">
-        <v>0.01861274019305638</v>
+        <v>0.01861556979079015</v>
       </c>
       <c r="N58" t="n">
         <v>0.02290665475406021</v>
@@ -11218,40 +11218,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03552695336370443</v>
+        <v>0.0355172205232236</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03961057514830416</v>
+        <v>0.03961370356131586</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03177216254677846</v>
+        <v>0.03176312490918912</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03906171246547448</v>
+        <v>0.03906970729872659</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01906350608893452</v>
+        <v>0.01936209573082856</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02281725410152326</v>
+        <v>0.02285722826778381</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07401581864659292</v>
+        <v>0.07370923417144677</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0703642654590529</v>
+        <v>0.07036878427784757</v>
       </c>
       <c r="J59" t="n">
-        <v>0.044518012359317</v>
+        <v>0.04453017840991804</v>
       </c>
       <c r="K59" t="n">
-        <v>0.03615715478483818</v>
+        <v>0.03612239464026379</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01971769200982461</v>
+        <v>0.01970865437223527</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01854210392031862</v>
+        <v>0.01854488473188458</v>
       </c>
       <c r="N59" t="n">
         <v>0.02350307175397604</v>
@@ -11403,40 +11403,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03521730528259579</v>
+        <v>0.03520807911540876</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03993905262298224</v>
+        <v>0.03994178630214877</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03207733304994193</v>
+        <v>0.03206913201244234</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03896347087042737</v>
+        <v>0.03897133019803114</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01901513057247684</v>
+        <v>0.01930763424329539</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02271379848478998</v>
+        <v>0.02274967802385067</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07284708242965304</v>
+        <v>0.07254740285102235</v>
       </c>
       <c r="I60" t="n">
-        <v>0.06929159096368682</v>
+        <v>0.06929808345170733</v>
       </c>
       <c r="J60" t="n">
-        <v>0.04408706904829351</v>
+        <v>0.04409937060454289</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03589491600599906</v>
+        <v>0.03586074501641745</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01957109257296959</v>
+        <v>0.01956186640578255</v>
       </c>
       <c r="M60" t="n">
-        <v>0.01834401233709408</v>
+        <v>0.01834674601626061</v>
       </c>
       <c r="N60" t="n">
         <v>0.02405090930711826</v>
@@ -11588,40 +11588,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03466462369710288</v>
+        <v>0.03465555129936897</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03958858356350342</v>
+        <v>0.03959127168135051</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03264147900243947</v>
+        <v>0.03263341464889821</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03934833303092008</v>
+        <v>0.03935606136973045</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01905001915283966</v>
+        <v>0.01933764776247791</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02260908718238207</v>
+        <v>0.02264436872912508</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0717848430475192</v>
+        <v>0.07149015812853235</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06818175708823075</v>
+        <v>0.06818814136811757</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04352936432733211</v>
+        <v>0.043541460857644</v>
       </c>
       <c r="K61" t="n">
-        <v>0.03537596688238812</v>
+        <v>0.03534236540929955</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01925498813868</v>
+        <v>0.01924591574094608</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01804600713695288</v>
+        <v>0.01804869525479997</v>
       </c>
       <c r="N61" t="n">
         <v>0.02438089285834291</v>
@@ -11773,40 +11773,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03434257836552079</v>
+        <v>0.03433365469561857</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03931636756398024</v>
+        <v>0.03931901161432163</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03260014919054052</v>
+        <v>0.03259221703951632</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0389815646895009</v>
+        <v>0.03898916633423242</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01895916297298342</v>
+        <v>0.01924207635951285</v>
       </c>
       <c r="G62" t="n">
-        <v>0.02254548675479507</v>
+        <v>0.0225801899155259</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07083741370893831</v>
+        <v>0.07054755969026272</v>
       </c>
       <c r="I62" t="n">
-        <v>0.06713871778761732</v>
+        <v>0.06714499740717814</v>
       </c>
       <c r="J62" t="n">
-        <v>0.04285708147740279</v>
+        <v>0.04286897970393908</v>
       </c>
       <c r="K62" t="n">
-        <v>0.03488328666033637</v>
+        <v>0.03485023603106891</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01898758651415344</v>
+        <v>0.01897866284425122</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01781594170662212</v>
+        <v>0.01781858575696352</v>
       </c>
       <c r="N62" t="n">
         <v>0.02636911405474705</v>
@@ -11958,40 +11958,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03405986221661764</v>
+        <v>0.03405108247687514</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03919666031707217</v>
+        <v>0.03919926172144032</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03246520133894283</v>
+        <v>0.03245739712583839</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03856581975779624</v>
+        <v>0.03857329879535467</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01877010804282692</v>
+        <v>0.01904845831021877</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02227517525336053</v>
+        <v>0.02230931868569247</v>
       </c>
       <c r="H63" t="n">
-        <v>0.06978299735112001</v>
+        <v>0.06949781839726177</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06616704527939408</v>
+        <v>0.06617322361476843</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04221363903303198</v>
+        <v>0.04222534535268865</v>
       </c>
       <c r="K63" t="n">
-        <v>0.03435804819231662</v>
+        <v>0.03432553063771477</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01870669881135331</v>
+        <v>0.01869791907161081</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01764500065360285</v>
+        <v>0.01764760205797099</v>
       </c>
       <c r="N63" t="n">
         <v>0.02606932352430459</v>
@@ -12143,43 +12143,43 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03410645522699715</v>
+        <v>0.03409749483417353</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03922795975375561</v>
+        <v>0.03923051986599092</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03288304159254342</v>
+        <v>0.03287536125583745</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03850216793504227</v>
+        <v>0.03850952825771882</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01869841973872135</v>
+        <v>0.01897235174790063</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02218241247696299</v>
+        <v>0.02221601395005157</v>
       </c>
       <c r="H64" t="n">
-        <v>0.06896494342311967</v>
+        <v>0.06868429111932267</v>
       </c>
       <c r="I64" t="n">
-        <v>0.06529662260393496</v>
+        <v>0.06530270287049385</v>
       </c>
       <c r="J64" t="n">
-        <v>0.04174455008107555</v>
+        <v>0.04175607058613449</v>
       </c>
       <c r="K64" t="n">
-        <v>0.03427702270467537</v>
+        <v>0.03424502130173387</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0187294610995746</v>
+        <v>0.0187208207207804</v>
       </c>
       <c r="M64" t="n">
-        <v>0.01778381964265313</v>
+        <v>0.01778637975488846</v>
       </c>
       <c r="N64" t="n">
-        <v>0.02666612904309725</v>
+        <v>0.02666644905712666</v>
       </c>
       <c r="O64" t="n">
         <v>0.05120992504311389</v>
@@ -12328,43 +12328,43 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03373073375536784</v>
+        <v>0.03372191336868208</v>
       </c>
       <c r="C65" t="n">
-        <v>0.03966622396725872</v>
+        <v>0.03966874407774037</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03323931221144735</v>
+        <v>0.03323175188000242</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03821842049555452</v>
+        <v>0.03822566581318925</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01852249702626963</v>
+        <v>0.01879214884780549</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02213539041551582</v>
+        <v>0.02216846686558739</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06834728634503337</v>
+        <v>0.0680710192334832</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0647989707868793</v>
+        <v>0.06480495604927319</v>
       </c>
       <c r="J65" t="n">
-        <v>0.04143943670490514</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="K65" t="n">
-        <v>0.03383752343702748</v>
+        <v>0.03380602205600693</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01845760418136731</v>
+        <v>0.01844909880849176</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01752264319267757</v>
+        <v>0.01752516330315921</v>
       </c>
       <c r="N65" t="n">
-        <v>0.02855600189512308</v>
+        <v>0.02855631690893329</v>
       </c>
       <c r="O65" t="n">
         <v>0.05265266829297796</v>
@@ -12513,43 +12513,43 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03375924492837459</v>
+        <v>0.03375056023994553</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03971880219536517</v>
+        <v>0.03972128353491632</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03319939269214486</v>
+        <v>0.03319194867349139</v>
       </c>
       <c r="E66" t="n">
-        <v>0.038003886398072</v>
+        <v>0.03801102024928157</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01858368240094415</v>
+        <v>0.01884918573291791</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02236679471412642</v>
+        <v>0.02239936229573535</v>
       </c>
       <c r="H66" t="n">
-        <v>0.06815185177718192</v>
+        <v>0.06787983492888636</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06412060550888397</v>
+        <v>0.06412649869031797</v>
       </c>
       <c r="J66" t="n">
-        <v>0.04115177578615815</v>
+        <v>0.04116294181413836</v>
       </c>
       <c r="K66" t="n">
-        <v>0.03376668894702806</v>
+        <v>0.03373567220263859</v>
       </c>
       <c r="L66" t="n">
-        <v>0.01840068360904634</v>
+        <v>0.01839230908806119</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0174980963473131</v>
+        <v>0.01750057768686425</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0289625054085448</v>
+        <v>0.0289628155759887</v>
       </c>
       <c r="O66" t="n">
         <v>0.05296667405899075</v>
@@ -12698,43 +12698,43 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03413023808781959</v>
+        <v>0.03411985217795584</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04023776402357479</v>
+        <v>0.04024142963882082</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03332960662449987</v>
+        <v>0.03332380273369366</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03793025922620084</v>
+        <v>0.03793667405288139</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01881957414103944</v>
+        <v>0.01908074922731885</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02222890178778165</v>
+        <v>0.02226067045324722</v>
       </c>
       <c r="H67" t="n">
-        <v>0.067692305812505</v>
+        <v>0.06732910443521117</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0633818477511145</v>
+        <v>0.06347684827957403</v>
       </c>
       <c r="J67" t="n">
-        <v>0.04064006529682625</v>
+        <v>0.04065594962955903</v>
       </c>
       <c r="K67" t="n">
-        <v>0.03347103827940908</v>
+        <v>0.03344049148569219</v>
       </c>
       <c r="L67" t="n">
-        <v>0.01863934805810978</v>
+        <v>0.01862987855205754</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01799725445418073</v>
+        <v>0.0180024474091126</v>
       </c>
       <c r="N67" t="n">
-        <v>0.02931514699422605</v>
+        <v>0.02931545246216321</v>
       </c>
       <c r="O67" t="n">
         <v>0.05363008932493419</v>
@@ -12883,43 +12883,43 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03426959073706687</v>
+        <v>0.03425935984078318</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0405438383373951</v>
+        <v>0.04054744924196581</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03334459734953586</v>
+        <v>0.03333888008396556</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03763013925754385</v>
+        <v>0.03763645834054261</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01884922276783659</v>
+        <v>0.0191064997184999</v>
       </c>
       <c r="G68" t="n">
-        <v>0.02217877769074829</v>
+        <v>0.0222100721970278</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0672597176212444</v>
+        <v>0.06690193716002957</v>
       </c>
       <c r="I68" t="n">
-        <v>0.06269794151357685</v>
+        <v>0.06279152412370116</v>
       </c>
       <c r="J68" t="n">
-        <v>0.04055978649924908</v>
+        <v>0.04057543375238884</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03369666054518039</v>
+        <v>0.03366656967375778</v>
       </c>
       <c r="L68" t="n">
-        <v>0.01867920934429885</v>
+        <v>0.01866988117415784</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0180247328908571</v>
+        <v>0.01802984833899894</v>
       </c>
       <c r="N68" t="n">
-        <v>0.02977311182038639</v>
+        <v>0.02977341272910061</v>
       </c>
       <c r="O68" t="n">
         <v>0.05575417202409556</v>
@@ -13068,43 +13068,43 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03402356688728998</v>
+        <v>0.03401348644536341</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04042583344500882</v>
+        <v>0.04042909476445565</v>
       </c>
       <c r="D69" t="n">
-        <v>0.03330400122388424</v>
+        <v>0.03329866451933488</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03740021844910622</v>
+        <v>0.03740644460441381</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0189029039974289</v>
+        <v>0.0191555080127654</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02234122414514888</v>
+        <v>0.02237294788885898</v>
       </c>
       <c r="H69" t="n">
-        <v>0.06718881379289079</v>
+        <v>0.06683748074339109</v>
       </c>
       <c r="I69" t="n">
-        <v>0.06230009594208846</v>
+        <v>0.06239437772246053</v>
       </c>
       <c r="J69" t="n">
-        <v>0.04041486355232402</v>
+        <v>0.04042761234652527</v>
       </c>
       <c r="K69" t="n">
-        <v>0.03367104790344597</v>
+        <v>0.03364110306125232</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01866631009574048</v>
+        <v>0.01865682262098606</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01797372443866763</v>
+        <v>0.01797876465963091</v>
       </c>
       <c r="N69" t="n">
-        <v>0.03150820014302368</v>
+        <v>0.03150849662660976</v>
       </c>
       <c r="O69" t="n">
         <v>0.05763018297780998</v>
@@ -13253,43 +13253,43 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03380951003500689</v>
+        <v>0.03379957568644157</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04051577969004248</v>
+        <v>0.04051899374399008</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03353368576895802</v>
+        <v>0.03352842640795285</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03739610205380969</v>
+        <v>0.03740223797498239</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01891938246920571</v>
+        <v>0.01916832555678371</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02238939198572726</v>
+        <v>0.02242065596503577</v>
       </c>
       <c r="H70" t="n">
-        <v>0.06754305152216133</v>
+        <v>0.0671965180692652</v>
       </c>
       <c r="I70" t="n">
-        <v>0.06182028237509236</v>
+        <v>0.06191348993957287</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03996763739861486</v>
+        <v>0.03998020142768276</v>
       </c>
       <c r="K70" t="n">
-        <v>0.03354741854491597</v>
+        <v>0.03351790768594252</v>
       </c>
       <c r="L70" t="n">
-        <v>0.01852697570087559</v>
+        <v>0.0185176257257553</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01782806506063313</v>
+        <v>0.01783303223491579</v>
       </c>
       <c r="N70" t="n">
-        <v>0.03259167577558774</v>
+        <v>0.03259196796231025</v>
       </c>
       <c r="O70" t="n">
         <v>0.05940769660733231</v>
@@ -13438,43 +13438,43 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03380749812071761</v>
+        <v>0.03379770569141751</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04073909800205641</v>
+        <v>0.04074226614094762</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03344028202196384</v>
+        <v>0.03343480978206084</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03737251841120715</v>
+        <v>0.03737885468898956</v>
       </c>
       <c r="F71" t="n">
-        <v>0.01892242955931188</v>
+        <v>0.01916781631706734</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02241775079419482</v>
+        <v>0.02244856814522749</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06791654546135302</v>
+        <v>0.0675749624863554</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06166955159314184</v>
+        <v>0.0617614276209869</v>
       </c>
       <c r="J71" t="n">
-        <v>0.03964320995832457</v>
+        <v>0.03965559450126294</v>
       </c>
       <c r="K71" t="n">
-        <v>0.03327265867335624</v>
+        <v>0.03324356939808241</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01839882260438298</v>
+        <v>0.01838960620033582</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01776260271250292</v>
+        <v>0.01776749892715297</v>
       </c>
       <c r="N71" t="n">
-        <v>0.03316090977428451</v>
+        <v>0.03316119778691098</v>
       </c>
       <c r="O71" t="n">
         <v>0.06042274493313787</v>
@@ -13623,43 +13623,43 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03404576974964441</v>
+        <v>0.03403611524188375</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04099985489842748</v>
+        <v>0.04100297841564417</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03345968433735008</v>
+        <v>0.03345428917124853</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03730189446998314</v>
+        <v>0.03730927732885894</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01881691958164178</v>
+        <v>0.01905714645121592</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02237488964755651</v>
+        <v>0.02240413712694911</v>
       </c>
       <c r="H72" t="n">
-        <v>0.06793082034068486</v>
+        <v>0.06759319652517229</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06155856126253702</v>
+        <v>0.06164346413960872</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03964822381193473</v>
+        <v>0.03966526117857119</v>
       </c>
       <c r="K72" t="n">
-        <v>0.03297184773932602</v>
+        <v>0.03294685960159254</v>
       </c>
       <c r="L72" t="n">
-        <v>0.01824701966765209</v>
+        <v>0.01823764911600204</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01768762612975488</v>
+        <v>0.01769245338363521</v>
       </c>
       <c r="N72" t="n">
-        <v>0.033471326537885</v>
+        <v>0.03347161049399561</v>
       </c>
       <c r="O72" t="n">
         <v>0.06140891639224675</v>
@@ -13808,43 +13808,43 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03453671408954569</v>
+        <v>0.03452775369672206</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0412399279584417</v>
+        <v>0.04124356811802629</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03335674235958504</v>
+        <v>0.03335310220000045</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03725871342199642</v>
+        <v>0.03726571372888988</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01877762321100157</v>
+        <v>0.01901143346124294</v>
       </c>
       <c r="G73" t="n">
-        <v>0.02266867379465916</v>
+        <v>0.02269863510816314</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0678895362772704</v>
+        <v>0.06755604165686624</v>
       </c>
       <c r="I73" t="n">
-        <v>0.06119528280119801</v>
+        <v>0.06127900647164371</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0395335331500933</v>
+        <v>0.03955061389891333</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0326807927259531</v>
+        <v>0.03265559162113667</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01805379147821841</v>
+        <v>0.01804483108539478</v>
       </c>
       <c r="M73" t="n">
-        <v>0.01758561095318419</v>
+        <v>0.01759037116187174</v>
       </c>
       <c r="N73" t="n">
-        <v>0.03389940614996562</v>
+        <v>0.03389968616224135</v>
       </c>
       <c r="O73" t="n">
         <v>0.06223748849149547</v>
@@ -13993,43 +13993,43 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03470848052389576</v>
+        <v>0.03469964287617931</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04137952366735867</v>
+        <v>0.04138311396174348</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03339553748502088</v>
+        <v>0.03339194719063607</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03738490689952396</v>
+        <v>0.03739181131180243</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01864080844591898</v>
+        <v>0.01887141581602006</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02273457257407261</v>
+        <v>0.02276412345862448</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06815207271837483</v>
+        <v>0.06782314651742825</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06110239160556032</v>
+        <v>0.06118496837641088</v>
       </c>
       <c r="J74" t="n">
-        <v>0.03938746263677295</v>
+        <v>0.03940430940273244</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0324195297653356</v>
+        <v>0.03239467388113309</v>
       </c>
       <c r="L74" t="n">
-        <v>0.01791142633282084</v>
+        <v>0.01790258868510439</v>
       </c>
       <c r="M74" t="n">
-        <v>0.01752422689224394</v>
+        <v>0.0175289218925933</v>
       </c>
       <c r="N74" t="n">
-        <v>0.03416910783670126</v>
+        <v>0.0341693840131924</v>
       </c>
       <c r="O74" t="n">
         <v>0.06302292292494104</v>
@@ -14178,43 +14178,43 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03495870015698245</v>
+        <v>0.03495025438131424</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0418005957813623</v>
+        <v>0.04180413755825542</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03355670139605947</v>
+        <v>0.03355315961916636</v>
       </c>
       <c r="E75" t="n">
-        <v>0.037601955496756</v>
+        <v>0.03760794927303667</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01864745534228004</v>
+        <v>0.01887521884094534</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02279324141786592</v>
+        <v>0.02282075829988171</v>
       </c>
       <c r="H75" t="n">
-        <v>0.06766374043243462</v>
+        <v>0.06734089384640785</v>
       </c>
       <c r="I75" t="n">
-        <v>0.06078969637164029</v>
+        <v>0.06087115724018206</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03925024397393906</v>
+        <v>0.03926713552527548</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03224624394560485</v>
+        <v>0.03222199639610579</v>
       </c>
       <c r="L75" t="n">
-        <v>0.01788461108837714</v>
+        <v>0.01787562042395614</v>
       </c>
       <c r="M75" t="n">
-        <v>0.01755222894917659</v>
+        <v>0.01755686050357529</v>
       </c>
       <c r="N75" t="n">
-        <v>0.03447729094389444</v>
+        <v>0.03447756338827083</v>
       </c>
       <c r="O75" t="n">
         <v>0.06399336979365608</v>
@@ -14363,43 +14363,43 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03493101617574915</v>
+        <v>0.03492375825756201</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04205641015302111</v>
+        <v>0.04206044232979174</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03368346068291634</v>
+        <v>0.03368157900042338</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0377540775387593</v>
+        <v>0.03776160426873114</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01885499620303354</v>
+        <v>0.01907730354898759</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02298260115723473</v>
+        <v>0.02300222441751846</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06787148108573079</v>
+        <v>0.06752417625988723</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06032136448861918</v>
+        <v>0.0604339966264121</v>
       </c>
       <c r="J76" t="n">
-        <v>0.03888120535204263</v>
+        <v>0.0388957211884169</v>
       </c>
       <c r="K76" t="n">
-        <v>0.03206091275041498</v>
+        <v>0.03203779493693003</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0178926500137766</v>
+        <v>0.01788404803666593</v>
       </c>
       <c r="M76" t="n">
-        <v>0.01749561500776194</v>
+        <v>0.01750287292594907</v>
       </c>
       <c r="N76" t="n">
-        <v>0.03469284893449729</v>
+        <v>0.034693117746282</v>
       </c>
       <c r="O76" t="n">
         <v>0.06499411974220951</v>
@@ -14548,43 +14548,43 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03504014668634652</v>
+        <v>0.0350329842670829</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04232034795563332</v>
+        <v>0.04232432707744645</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03389495542853019</v>
+        <v>0.03389309850501741</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03808125685072139</v>
+        <v>0.03808868454477255</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01887987190411059</v>
+        <v>0.01909925415340735</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02297836737162557</v>
+        <v>0.0229977324311161</v>
       </c>
       <c r="H77" t="n">
-        <v>0.06799947793921812</v>
+        <v>0.0676567429137146</v>
       </c>
       <c r="I77" t="n">
-        <v>0.06024682227332004</v>
+        <v>0.0603579724092999</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03878317393855599</v>
+        <v>0.03879749877708323</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0318366883519963</v>
+        <v>0.03181387472026773</v>
       </c>
       <c r="L77" t="n">
-        <v>0.01776439142249891</v>
+        <v>0.01775590262929758</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0174614476151266</v>
+        <v>0.01746861003439022</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03500831371184155</v>
+        <v>0.03500857898662909</v>
       </c>
       <c r="O77" t="n">
         <v>0.06581096094200138</v>
@@ -14733,43 +14733,43 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03523048995922527</v>
+        <v>0.03522342055839364</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04242033243464666</v>
+        <v>0.04242425987955312</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03397082746289416</v>
+        <v>0.03396925648493157</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03833160045736405</v>
+        <v>0.03833919351751654</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01892845164150178</v>
+        <v>0.01914550842999866</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02303682084331668</v>
+        <v>0.02305488708988638</v>
       </c>
       <c r="H78" t="n">
-        <v>0.06770496091275914</v>
+        <v>0.06736667699148294</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05985949696761979</v>
+        <v>0.05996632346907543</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03881807996644391</v>
+        <v>0.03882855315286113</v>
       </c>
       <c r="K78" t="n">
-        <v>0.03207753718832124</v>
+        <v>0.03206051826039327</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0177703790534177</v>
+        <v>0.01776304782292565</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0174569689498824</v>
+        <v>0.01746403835071402</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03541377072152661</v>
+        <v>0.03541403255118705</v>
       </c>
       <c r="O78" t="n">
         <v>0.06708835206244533</v>
@@ -14918,43 +14918,43 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03549452838781683</v>
+        <v>0.03548780809319911</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04261183733371794</v>
+        <v>0.04261597289963653</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03426419752703497</v>
+        <v>0.03426238821694558</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03853391086511387</v>
+        <v>0.03854114810547141</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0188442230538156</v>
+        <v>0.01905823859010287</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02291542922780196</v>
+        <v>0.0229332638558259</v>
       </c>
       <c r="H79" t="n">
-        <v>0.06726342882871986</v>
+        <v>0.06692560478774466</v>
       </c>
       <c r="I79" t="n">
-        <v>0.05973928358557701</v>
+        <v>0.05984680829946046</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03887535352626782</v>
+        <v>0.03888698480541387</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0322915325838654</v>
+        <v>0.03227499032019102</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0178576321093609</v>
+        <v>0.01785065334187328</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01747664309911039</v>
+        <v>0.01748388033946793</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03550150715530446</v>
+        <v>0.03550176562817437</v>
       </c>
       <c r="O79" t="n">
         <v>0.06843456940229183</v>
@@ -15103,43 +15103,43 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03572406538353275</v>
+        <v>0.0357174301559355</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04258922913712183</v>
+        <v>0.04259331235410474</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03436894774732747</v>
+        <v>0.03436741654095888</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03962711041707764</v>
+        <v>0.03963400084573632</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01886165524939651</v>
+        <v>0.01907321692932385</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02280502205064771</v>
+        <v>0.02282237572282511</v>
       </c>
       <c r="H80" t="n">
-        <v>0.06687645895256808</v>
+        <v>0.06654291116527612</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05943275439271207</v>
+        <v>0.05953891803426789</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03888396492618692</v>
+        <v>0.03889519377288994</v>
       </c>
       <c r="K80" t="n">
-        <v>0.03263664294232532</v>
+        <v>0.03262056527545509</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01781379969115568</v>
+        <v>0.01780690926249701</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01745345579241333</v>
+        <v>0.01746060142213344</v>
       </c>
       <c r="N80" t="n">
-        <v>0.03583839545905439</v>
+        <v>0.03583865066011582</v>
       </c>
       <c r="O80" t="n">
         <v>0.069899825927356</v>
@@ -15288,43 +15288,43 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03577246426483337</v>
+        <v>0.0357659119775811</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04288950827604282</v>
+        <v>0.04289354045281345</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03456180318945182</v>
+        <v>0.03456029112316284</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03957279087115179</v>
+        <v>0.03957959516945223</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01886882320920949</v>
+        <v>0.01907774036813774</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02293199733876333</v>
+        <v>0.02294913409003851</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06726326082135441</v>
+        <v>0.0669338823814036</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05945293441664483</v>
+        <v>0.0595577710126812</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03878828047821616</v>
+        <v>0.0387993689643354</v>
       </c>
       <c r="K81" t="n">
-        <v>0.03248850829620371</v>
+        <v>0.03247263160016935</v>
       </c>
       <c r="L81" t="n">
-        <v>0.01794469869559082</v>
+        <v>0.01793789439729038</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01747167395818633</v>
+        <v>0.01747873026753493</v>
       </c>
       <c r="N81" t="n">
-        <v>0.03615804116852483</v>
+        <v>0.03615829317957299</v>
       </c>
       <c r="O81" t="n">
         <v>0.07111172153787222</v>
@@ -15473,43 +15473,43 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.035972990389232</v>
+        <v>0.03596676789421559</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04310894767404381</v>
+        <v>0.04311218337145234</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03509512079231776</v>
+        <v>0.03509387629331448</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04035238238177695</v>
+        <v>0.04035960047599598</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01904183034939807</v>
+        <v>0.01924767048454071</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02290575085478414</v>
+        <v>0.02292342274063073</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06664267272588341</v>
+        <v>0.06631785848602714</v>
       </c>
       <c r="I82" t="n">
-        <v>0.05900841804015799</v>
+        <v>0.05911270705663292</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03875021436495332</v>
+        <v>0.03876415275379006</v>
       </c>
       <c r="K82" t="n">
-        <v>0.03261732327678579</v>
+        <v>0.03259890469153724</v>
       </c>
       <c r="L82" t="n">
-        <v>0.01793397733667755</v>
+        <v>0.01792601254305655</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01747475720446695</v>
+        <v>0.01748097969948336</v>
       </c>
       <c r="N82" t="n">
-        <v>0.03633613519838932</v>
+        <v>0.03633638409818998</v>
       </c>
       <c r="O82" t="n">
         <v>0.07237309283638994</v>
@@ -15658,43 +15658,43 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03619640831395512</v>
+        <v>0.03619026170302428</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0433409829955238</v>
+        <v>0.04334417923320782</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0353526015653697</v>
+        <v>0.03535137224318353</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04106821213773719</v>
+        <v>0.04107534220641696</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0189443466177167</v>
+        <v>0.01914767650730881</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02281474458864667</v>
+        <v>0.02283220096369025</v>
       </c>
       <c r="H83" t="n">
-        <v>0.06698084863552613</v>
+        <v>0.0666599955449364</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05905590023017829</v>
+        <v>0.05915891742937913</v>
       </c>
       <c r="J83" t="n">
-        <v>0.038681114316637</v>
+        <v>0.03869488272512209</v>
       </c>
       <c r="K83" t="n">
-        <v>0.03243886211971533</v>
+        <v>0.03242066815136005</v>
       </c>
       <c r="L83" t="n">
-        <v>0.01782910553042548</v>
+        <v>0.01782123786843401</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0174947298957879</v>
+        <v>0.01750087650671874</v>
       </c>
       <c r="N83" t="n">
-        <v>0.03672182061632313</v>
+        <v>0.03672206648076037</v>
       </c>
       <c r="O83" t="n">
         <v>0.07313729414385331</v>
@@ -15843,43 +15843,43 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0364244016650461</v>
+        <v>0.03642270134954042</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04335051542635533</v>
+        <v>0.04335537347065729</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03562452467072783</v>
+        <v>0.03562306725743724</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04143620306916665</v>
+        <v>0.04144421884226489</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01891260936975863</v>
+        <v>0.0191154327193656</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02286341389833036</v>
+        <v>0.02288721831540998</v>
       </c>
       <c r="H84" t="n">
-        <v>0.06685883470577134</v>
+        <v>0.06652945930209821</v>
       </c>
       <c r="I84" t="n">
-        <v>0.05875051586357932</v>
+        <v>0.05884961996733937</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03869359415849321</v>
+        <v>0.03869772349614988</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03269439524999861</v>
+        <v>0.03268492206360978</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01804423395078267</v>
+        <v>0.0180398617109109</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01785185539642492</v>
+        <v>0.01785525602743629</v>
       </c>
       <c r="N84" t="n">
-        <v>0.03724298212992694</v>
+        <v>0.03724322503214204</v>
       </c>
       <c r="O84" t="n">
         <v>0.07468004312971731</v>
@@ -16028,43 +16028,43 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03675641140107582</v>
+        <v>0.03675497133794346</v>
       </c>
       <c r="C85" t="n">
-        <v>0.04340254276747493</v>
+        <v>0.04340710296739409</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03571404570376365</v>
+        <v>0.03571260564063129</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0416922277872662</v>
+        <v>0.04170014813449421</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01920636200691038</v>
+        <v>0.0194077308349198</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02307029140157504</v>
+        <v>0.02309381243273705</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06699917724393037</v>
+        <v>0.06667276293392703</v>
       </c>
       <c r="I85" t="n">
-        <v>0.05863385050800627</v>
+        <v>0.05873153479048521</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03864553422022021</v>
+        <v>0.03864913437805113</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03268343284169578</v>
+        <v>0.03267383242081333</v>
       </c>
       <c r="L85" t="n">
-        <v>0.01815631597289225</v>
+        <v>0.0181529558255834</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01799886907042005</v>
+        <v>0.01800222921772891</v>
       </c>
       <c r="N85" t="n">
-        <v>0.03746948266211991</v>
+        <v>0.03746972267264197</v>
       </c>
       <c r="O85" t="n">
         <v>0.07582580420325627</v>
@@ -16213,43 +16213,43 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03692501455734408</v>
+        <v>0.03692359143613091</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04345121125404255</v>
+        <v>0.0434557178045509</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03573054148576227</v>
+        <v>0.0357291183645491</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0419706908186149</v>
+        <v>0.0419785179852873</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01905084930688067</v>
+        <v>0.01924984908985469</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0228923278349464</v>
+        <v>0.02291557214809474</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0665477569830779</v>
+        <v>0.06622518284142753</v>
       </c>
       <c r="I86" t="n">
-        <v>0.05853012925498419</v>
+        <v>0.05862666431061044</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0391612123569615</v>
+        <v>0.0391647701599944</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03321944410513545</v>
+        <v>0.03320995663038103</v>
       </c>
       <c r="L86" t="n">
-        <v>0.01882409866024997</v>
+        <v>0.01882077804408592</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01833264746797088</v>
+        <v>0.01833596808413493</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0380670693309077</v>
+        <v>0.03806730651777656</v>
       </c>
       <c r="O86" t="n">
         <v>0.0770039029099271</v>
@@ -16398,43 +16398,43 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03700975646121163</v>
+        <v>0.03700834988791955</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04366472356380662</v>
+        <v>0.04366917771256487</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03592903931513008</v>
+        <v>0.03592763274183801</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04202559682076927</v>
+        <v>0.04203333297387572</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01908602742911691</v>
+        <v>0.01928271326112611</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02307460042769205</v>
+        <v>0.02309757445812936</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0669662511492876</v>
+        <v>0.06664742786974943</v>
       </c>
       <c r="I87" t="n">
-        <v>0.05892065191858941</v>
+        <v>0.05901606447356884</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0393095037937626</v>
+        <v>0.0393130202269928</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03321740043688166</v>
+        <v>0.03320802328160113</v>
       </c>
       <c r="L87" t="n">
-        <v>0.01876110899864641</v>
+        <v>0.01875782699429822</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01836844062127405</v>
+        <v>0.01837172262562223</v>
       </c>
       <c r="N87" t="n">
-        <v>0.03942507723259518</v>
+        <v>0.03942531166147719</v>
       </c>
       <c r="O87" t="n">
         <v>0.07884218388320191</v>
@@ -16583,43 +16583,43 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03706937684561884</v>
+        <v>0.03706798643983587</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04386869285866734</v>
+        <v>0.04387309581031343</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03623745071880503</v>
+        <v>0.03623606031302205</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04280920365203983</v>
+        <v>0.04281685088384619</v>
       </c>
       <c r="F88" t="n">
-        <v>0.01921517618642746</v>
+        <v>0.0194096012617469</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02326287915496698</v>
+        <v>0.02328558911608892</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0669146687114901</v>
+        <v>0.06659951006734893</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05891195649327612</v>
+        <v>0.0590062723522213</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03947779139602998</v>
+        <v>0.03948126741048742</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03317415504461233</v>
+        <v>0.03316488567272582</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0186780160856045</v>
+        <v>0.01867477180544422</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0183382936059641</v>
+        <v>0.01834153788612438</v>
       </c>
       <c r="N88" t="n">
-        <v>0.04100492041433165</v>
+        <v>0.04100515214862881</v>
       </c>
       <c r="O88" t="n">
         <v>0.08064793836423857</v>
@@ -16768,43 +16768,43 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03711458346697556</v>
+        <v>0.0371132088612583</v>
       </c>
       <c r="C89" t="n">
-        <v>0.04420365425183877</v>
+        <v>0.04420800716994342</v>
       </c>
       <c r="D89" t="n">
-        <v>0.03643667374741345</v>
+        <v>0.03643529914169619</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04324899058120162</v>
+        <v>0.04325632181169368</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01922638106636413</v>
+        <v>0.01941882586678054</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02321296674737129</v>
+        <v>0.02323541864075321</v>
       </c>
       <c r="H89" t="n">
-        <v>0.06710069078519311</v>
+        <v>0.06678911348928082</v>
       </c>
       <c r="I89" t="n">
-        <v>0.05926268898537602</v>
+        <v>0.05935593307319684</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03953640963983497</v>
+        <v>0.03953984615412812</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03346385978288561</v>
+        <v>0.03345469574477054</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0187599315263072</v>
+        <v>0.01875672411296693</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0182962311976848</v>
+        <v>0.01829943861102507</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0422794353486275</v>
+        <v>0.04227966444958038</v>
       </c>
       <c r="O89" t="n">
         <v>0.0821358990196312</v>
@@ -16953,43 +16953,43 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03700518904906094</v>
+        <v>0.03700315030799714</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04451591112810566</v>
+        <v>0.04452089471737272</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03683574701398055</v>
+        <v>0.03683484090684109</v>
       </c>
       <c r="E90" t="n">
-        <v>0.04338712815911423</v>
+        <v>0.04339392396266023</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01922170380309023</v>
+        <v>0.01941198630237837</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02323417274343644</v>
+        <v>0.02324278076126138</v>
       </c>
       <c r="H90" t="n">
-        <v>0.06754258533660408</v>
+        <v>0.06723269669490625</v>
       </c>
       <c r="I90" t="n">
-        <v>0.05978109810671178</v>
+        <v>0.05988530042775052</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03957921290550277</v>
+        <v>0.03958578218226391</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03346434887480748</v>
+        <v>0.03345460822305821</v>
       </c>
       <c r="L90" t="n">
-        <v>0.018812143376051</v>
+        <v>0.01880897200106287</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01830381727080983</v>
+        <v>0.01830789475293743</v>
       </c>
       <c r="N90" t="n">
-        <v>0.04340751556975224</v>
+        <v>0.04340774209653711</v>
       </c>
       <c r="O90" t="n">
         <v>0.08388128274869414</v>
@@ -17138,43 +17138,43 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03713365993965175</v>
+        <v>0.03713186786108703</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04484094182688969</v>
+        <v>0.0448454220233015</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03698738152680613</v>
+        <v>0.03698648548752377</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0435248841309203</v>
+        <v>0.04353362051392333</v>
       </c>
       <c r="F91" t="n">
-        <v>0.01941694723896696</v>
+        <v>0.01960242737041592</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02344531584264654</v>
+        <v>0.02345158811762308</v>
       </c>
       <c r="H91" t="n">
-        <v>0.06798317238227723</v>
+        <v>0.06767851902627411</v>
       </c>
       <c r="I91" t="n">
-        <v>0.06015918137851163</v>
+        <v>0.06026155386652151</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03971156495500763</v>
+        <v>0.03971761322016357</v>
       </c>
       <c r="K91" t="n">
-        <v>0.03340322439735758</v>
+        <v>0.0333956080634575</v>
       </c>
       <c r="L91" t="n">
-        <v>0.01873080515849815</v>
+        <v>0.01872811704065106</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01827382512449346</v>
+        <v>0.01827785730126409</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0444124110401</v>
+        <v>0.04441263504992059</v>
       </c>
       <c r="O91" t="n">
         <v>0.08546915496775379</v>
@@ -17323,43 +17323,43 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.03692211097303737</v>
+        <v>0.03692011703946947</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04497405781654083</v>
+        <v>0.04497848878002504</v>
       </c>
       <c r="D92" t="n">
-        <v>0.03720325560611039</v>
+        <v>0.03720236941341355</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04361862608672148</v>
+        <v>0.04362726646551569</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01954276444710105</v>
+        <v>0.01972620633534728</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02366621906550537</v>
+        <v>0.02367220086620905</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06802747463218019</v>
+        <v>0.06772639066342823</v>
       </c>
       <c r="I92" t="n">
-        <v>0.06069666709573163</v>
+        <v>0.06079791461134579</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03996928456112746</v>
+        <v>0.03997615255452799</v>
       </c>
       <c r="K92" t="n">
-        <v>0.03359888835988108</v>
+        <v>0.03359046952926108</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01891556156591136</v>
+        <v>0.01891290298782083</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01838451059232898</v>
+        <v>0.01838872000763898</v>
       </c>
       <c r="N92" t="n">
-        <v>0.04571380717022942</v>
+        <v>0.04571402871840363</v>
       </c>
       <c r="O92" t="n">
         <v>0.08651987918534965</v>
@@ -17508,43 +17508,43 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.03731911085242846</v>
+        <v>0.03729412888765391</v>
       </c>
       <c r="C93" t="n">
-        <v>0.04539529795594935</v>
+        <v>0.04530216343814947</v>
       </c>
       <c r="D93" t="n">
-        <v>0.03742824259328573</v>
+        <v>0.03742232581215491</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04387293208499478</v>
+        <v>0.04387687660574865</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0195996662058882</v>
+        <v>0.01978352470102724</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02364279997861193</v>
+        <v>0.02365134644024533</v>
       </c>
       <c r="H93" t="n">
-        <v>0.06808067509157863</v>
+        <v>0.06778286377466093</v>
       </c>
       <c r="I93" t="n">
-        <v>0.06086505093252854</v>
+        <v>0.06096760847212933</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03992315197011281</v>
+        <v>0.03992512423048974</v>
       </c>
       <c r="K93" t="n">
-        <v>0.03371798254418083</v>
+        <v>0.03372718642593987</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01906474536365414</v>
+        <v>0.01912873425588369</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01848555823295989</v>
+        <v>0.01853311162204829</v>
       </c>
       <c r="N93" t="n">
-        <v>0.04632576657378051</v>
+        <v>0.04632598571382239</v>
       </c>
       <c r="O93" t="n">
         <v>0.0877563828919999</v>
@@ -17693,43 +17693,43 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03722891469626544</v>
+        <v>0.03720832024501761</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04602079432581679</v>
+        <v>0.04594188505998296</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0378508671239502</v>
+        <v>0.03785130069134489</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04426484637731679</v>
+        <v>0.04426137783815926</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01976742144246571</v>
+        <v>0.01994475050689448</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02393487124023904</v>
+        <v>0.02394267545334349</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06847763431755299</v>
+        <v>0.06818042386849207</v>
       </c>
       <c r="I94" t="n">
-        <v>0.06109810047620875</v>
+        <v>0.06119652027480368</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03977308816831433</v>
+        <v>0.03977265460091964</v>
       </c>
       <c r="K94" t="n">
-        <v>0.03380199800862495</v>
+        <v>0.03380958543803206</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0190559373477772</v>
+        <v>0.01911707035042868</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01849208295098109</v>
+        <v>0.01853977536439714</v>
       </c>
       <c r="N94" t="n">
-        <v>0.04694732784827222</v>
+        <v>0.04694754463196957</v>
       </c>
       <c r="O94" t="n">
         <v>0.08868902877218267</v>
@@ -17878,43 +17878,43 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03737034299668804</v>
+        <v>0.03734996763534709</v>
       </c>
       <c r="C95" t="n">
-        <v>0.04592799475988601</v>
+        <v>0.04584992495432702</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03770986085987457</v>
+        <v>0.03771028981485016</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04424198722829455</v>
+        <v>0.04423855558848976</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01967037383855079</v>
+        <v>0.01984581642357073</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0239395482331988</v>
+        <v>0.02394726942275958</v>
       </c>
       <c r="H95" t="n">
-        <v>0.06850689781048512</v>
+        <v>0.06821284917471207</v>
       </c>
       <c r="I95" t="n">
-        <v>0.06182377929065432</v>
+        <v>0.06192115207011527</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04053645967158349</v>
+        <v>0.04053603071660789</v>
       </c>
       <c r="K95" t="n">
-        <v>0.03415489649959871</v>
+        <v>0.03416240321167169</v>
       </c>
       <c r="L95" t="n">
-        <v>0.01914318817353974</v>
+        <v>0.01920367082509919</v>
       </c>
       <c r="M95" t="n">
-        <v>0.01858147163299299</v>
+        <v>0.01862865668030887</v>
       </c>
       <c r="N95" t="n">
-        <v>0.04644788819031188</v>
+        <v>0.04644810266779968</v>
       </c>
       <c r="O95" t="n">
         <v>0.08774552846609561</v>
@@ -18063,43 +18063,43 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03766838317139192</v>
+        <v>0.03765013226600906</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04640441247470605</v>
+        <v>0.04632419337895352</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03814799998726681</v>
+        <v>0.0381530932631876</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04452520587976261</v>
+        <v>0.04451799040554148</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01961484223047286</v>
+        <v>0.01978567919364953</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0238085182917577</v>
+        <v>0.02381594598580886</v>
       </c>
       <c r="H96" t="n">
-        <v>0.06863741074829773</v>
+        <v>0.06834475960268203</v>
       </c>
       <c r="I96" t="n">
-        <v>0.06169867118553424</v>
+        <v>0.06179714118666962</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04058131255842677</v>
+        <v>0.04058173699808684</v>
       </c>
       <c r="K96" t="n">
-        <v>0.03426904593392111</v>
+        <v>0.03427774694695247</v>
       </c>
       <c r="L96" t="n">
-        <v>0.01927911045936043</v>
+        <v>0.01934022977040998</v>
       </c>
       <c r="M96" t="n">
-        <v>0.018732007737535</v>
+        <v>0.0187780594406522</v>
       </c>
       <c r="N96" t="n">
-        <v>0.04595896305146649</v>
+        <v>0.04595917527129652</v>
       </c>
       <c r="O96" t="n">
         <v>0.08682189132434724</v>
@@ -18248,43 +18248,43 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03784764924094272</v>
+        <v>0.03782958844915761</v>
       </c>
       <c r="C97" t="n">
-        <v>0.04689379582400893</v>
+        <v>0.04681525238066437</v>
       </c>
       <c r="D97" t="n">
-        <v>0.03830798942225627</v>
+        <v>0.03831596977211481</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0448709871440764</v>
+        <v>0.04486174673897703</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01985091026390597</v>
+        <v>0.02001891762934887</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02386817638085253</v>
+        <v>0.02387636673991788</v>
       </c>
       <c r="H97" t="n">
-        <v>0.06867007049589054</v>
+        <v>0.06837962776288113</v>
       </c>
       <c r="I97" t="n">
-        <v>0.06152303716994953</v>
+        <v>0.061619851414286</v>
       </c>
       <c r="J97" t="n">
         <v>0.04079680853208605</v>
       </c>
       <c r="K97" t="n">
-        <v>0.03427518262400624</v>
+        <v>0.03428421301989879</v>
       </c>
       <c r="L97" t="n">
-        <v>0.01936389891332836</v>
+        <v>0.01942501159250822</v>
       </c>
       <c r="M97" t="n">
-        <v>0.01879603401813135</v>
+        <v>0.01884097598838733</v>
       </c>
       <c r="N97" t="n">
-        <v>0.04548022385301372</v>
+        <v>0.04548043386222052</v>
       </c>
       <c r="O97" t="n">
         <v>0.08591749662305195</v>
@@ -18433,43 +18433,43 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0378087239262095</v>
+        <v>0.03779251208146161</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04699107122258302</v>
+        <v>0.0469120904404779</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0383578482060035</v>
+        <v>0.03836761688168492</v>
       </c>
       <c r="E98" t="n">
-        <v>0.04494255914777242</v>
+        <v>0.04494235130360898</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02000209091228415</v>
+        <v>0.02015631128155256</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02375367806227718</v>
+        <v>0.02375658788056526</v>
       </c>
       <c r="H98" t="n">
-        <v>0.06857444053027698</v>
+        <v>0.06828927833804481</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0614541151793373</v>
+        <v>0.06155034702700748</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04120344264758546</v>
+        <v>0.04119887007598991</v>
       </c>
       <c r="K98" t="n">
-        <v>0.03495543925058046</v>
+        <v>0.03496790990038653</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01965873235429033</v>
+        <v>0.01972066991499382</v>
       </c>
       <c r="M98" t="n">
-        <v>0.01902667825328596</v>
+        <v>0.01907406672254904</v>
       </c>
       <c r="N98" t="n">
-        <v>0.04501135556586924</v>
+        <v>0.04501156341003268</v>
       </c>
       <c r="O98" t="n">
         <v>0.08503174923518544</v>
@@ -18618,43 +18618,43 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03832131429213285</v>
+        <v>0.03830465070445831</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04770167981307158</v>
+        <v>0.0476220648941821</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03862352182662545</v>
+        <v>0.03863483660837977</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04476086517347206</v>
+        <v>0.04476004228025356</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01994713733964383</v>
+        <v>0.02010101837150255</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02372030846975189</v>
+        <v>0.023722982872712</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06842048526835988</v>
+        <v>0.06813843861772043</v>
       </c>
       <c r="I99" t="n">
-        <v>0.06134771805538812</v>
+        <v>0.06144296794542901</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04166534660879533</v>
+        <v>0.04166061497278898</v>
       </c>
       <c r="K99" t="n">
-        <v>0.03498242505808598</v>
+        <v>0.03499476845636341</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01969738924783034</v>
+        <v>0.0197589005159129</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01908330518352782</v>
+        <v>0.01913000437367746</v>
       </c>
       <c r="N99" t="n">
-        <v>0.04455205601927874</v>
+        <v>0.04455226174258337</v>
       </c>
       <c r="O99" t="n">
         <v>0.08416407832462232</v>
@@ -18803,43 +18803,43 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03861623839043649</v>
+        <v>0.03860035405770371</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04793789796108298</v>
+        <v>0.04785236693867568</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03904185704955851</v>
+        <v>0.03905794502758274</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0449418684333303</v>
+        <v>0.04494044291629018</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01994664900654699</v>
+        <v>0.02009917932984</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02362041006423176</v>
+        <v>0.02362346474360345</v>
       </c>
       <c r="H100" t="n">
-        <v>0.06828857922585872</v>
+        <v>0.06800917788599489</v>
       </c>
       <c r="I100" t="n">
-        <v>0.06114083314139765</v>
+        <v>0.06123613913779435</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04200672884771996</v>
+        <v>0.04200163771543381</v>
       </c>
       <c r="K100" t="n">
-        <v>0.03502434273991299</v>
+        <v>0.03503676510269119</v>
       </c>
       <c r="L100" t="n">
-        <v>0.01978862026038494</v>
+        <v>0.01985012113840161</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01927747057885563</v>
+        <v>0.01932369806001386</v>
       </c>
       <c r="N100" t="n">
-        <v>0.04410203525140724</v>
+        <v>0.04410223889669868</v>
       </c>
       <c r="O100" t="n">
         <v>0.08331393611932311</v>
@@ -18988,43 +18988,43 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03895627104292252</v>
+        <v>0.03893994072700147</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04792544505151106</v>
+        <v>0.04784137416584343</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03900344751113889</v>
+        <v>0.03901957621822141</v>
       </c>
       <c r="E101" t="n">
-        <v>0.04504163222515675</v>
+        <v>0.04504022096328703</v>
       </c>
       <c r="F101" t="n">
-        <v>0.02002116892804581</v>
+        <v>0.02017217394810588</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02352412249753029</v>
+        <v>0.02352694502126973</v>
       </c>
       <c r="H101" t="n">
-        <v>0.06817644805548276</v>
+        <v>0.06789984072901756</v>
       </c>
       <c r="I101" t="n">
-        <v>0.06122739460897966</v>
+        <v>0.06132174754541239</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04250882038668576</v>
+        <v>0.04250378016572247</v>
       </c>
       <c r="K101" t="n">
-        <v>0.03544122094312615</v>
+        <v>0.03545351908227657</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0199058486724058</v>
+        <v>0.01996673454164231</v>
       </c>
       <c r="M101" t="n">
-        <v>0.01926614382774541</v>
+        <v>0.01931190903409205</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04366101489889317</v>
+        <v>0.0436612165077317</v>
       </c>
       <c r="O101" t="n">
         <v>0.08248079675812987</v>
@@ -19173,43 +19173,43 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.03898655827962587</v>
+        <v>0.03897038965000107</v>
       </c>
       <c r="C102" t="n">
-        <v>0.04815397166417716</v>
+        <v>0.0480701343253819</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03936622165674159</v>
+        <v>0.03938039415925222</v>
       </c>
       <c r="E102" t="n">
-        <v>0.04525639354524352</v>
+        <v>0.04525599431982068</v>
       </c>
       <c r="F102" t="n">
-        <v>0.02012754853034143</v>
+        <v>0.02027586077492449</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02355549762351086</v>
+        <v>0.02356028832858488</v>
       </c>
       <c r="H102" t="n">
-        <v>0.06794756812831744</v>
+        <v>0.06767449793909856</v>
       </c>
       <c r="I102" t="n">
-        <v>0.06131583501690021</v>
+        <v>0.06140925376584351</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04275265130593622</v>
+        <v>0.04274766098815079</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03550950445944778</v>
+        <v>0.03552168083484424</v>
       </c>
       <c r="L102" t="n">
-        <v>0.01988521869868082</v>
+        <v>0.01994530212481743</v>
       </c>
       <c r="M102" t="n">
-        <v>0.01924306460605134</v>
+        <v>0.01928837669154307</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0432287276226665</v>
+        <v>0.04322892723537792</v>
       </c>
       <c r="O102" t="n">
         <v>0.08166415520606918</v>
@@ -19358,43 +19358,43 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.03883559431716075</v>
+        <v>0.03882057248213291</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04825191301092522</v>
+        <v>0.04817304837702908</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03989819148965609</v>
+        <v>0.03990629537434215</v>
       </c>
       <c r="E103" t="n">
-        <v>0.04571085102253235</v>
+        <v>0.04570847915384375</v>
       </c>
       <c r="F103" t="n">
-        <v>0.02012728238005954</v>
+        <v>0.02027275699296069</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02357716538763648</v>
+        <v>0.02358131615784154</v>
       </c>
       <c r="H103" t="n">
-        <v>0.06799969640080786</v>
+        <v>0.06773404710768402</v>
       </c>
       <c r="I103" t="n">
-        <v>0.06115329743114762</v>
+        <v>0.06124481203138298</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0429614599009903</v>
+        <v>0.04295651850788904</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03561993334258362</v>
+        <v>0.0356323856531988</v>
       </c>
       <c r="L103" t="n">
-        <v>0.01982170663067751</v>
+        <v>0.01988199162651291</v>
       </c>
       <c r="M103" t="n">
-        <v>0.01918130208475398</v>
+        <v>0.01922597227838939</v>
       </c>
       <c r="N103" t="n">
-        <v>0.04280491656754232</v>
+        <v>0.04280511422326637</v>
       </c>
       <c r="O103" t="n">
         <v>0.08086352623346066</v>
@@ -19543,43 +19543,43 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0387691839128674</v>
+        <v>0.03875411218416165</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04817315967831059</v>
+        <v>0.04809486498373525</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0399048484576826</v>
+        <v>0.03991306940061301</v>
       </c>
       <c r="E104" t="n">
-        <v>0.04580494090414322</v>
+        <v>0.04580259206330596</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02026638595408838</v>
+        <v>0.02041044819210699</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02351385414833674</v>
+        <v>0.02351796461980194</v>
       </c>
       <c r="H104" t="n">
-        <v>0.06798563214059848</v>
+        <v>0.06772256196682537</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0613754068143396</v>
+        <v>0.06146603292331054</v>
       </c>
       <c r="J104" t="n">
-        <v>0.043310863408446</v>
+        <v>0.04330596999003504</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03600342382699378</v>
+        <v>0.03601575524138939</v>
       </c>
       <c r="L104" t="n">
-        <v>0.01987119348321939</v>
+        <v>0.01993089318783308</v>
       </c>
       <c r="M104" t="n">
-        <v>0.01921664983656961</v>
+        <v>0.01926108207574111</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04238933485329434</v>
+        <v>0.04238953059003078</v>
       </c>
       <c r="O104" t="n">
         <v>0.08007844345449502</v>
@@ -19728,43 +19728,43 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.03885680809785162</v>
+        <v>0.03884207514426663</v>
       </c>
       <c r="C105" t="n">
-        <v>0.04829578497952119</v>
+        <v>0.04821804926389511</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04001450808218817</v>
+        <v>0.0400226499775904</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04575628903263427</v>
+        <v>0.0457553197593721</v>
       </c>
       <c r="F105" t="n">
-        <v>0.02026071899915169</v>
+        <v>0.0204028144593859</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02362526034679822</v>
+        <v>0.0236291374398469</v>
       </c>
       <c r="H105" t="n">
-        <v>0.06788596073590328</v>
+        <v>0.06762464466442208</v>
       </c>
       <c r="I105" t="n">
-        <v>0.06143079466449963</v>
+        <v>0.06152132478718636</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04346395776760084</v>
+        <v>0.04345872369198512</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03618103233030352</v>
+        <v>0.03619324517340686</v>
       </c>
       <c r="L105" t="n">
-        <v>0.01986195997909471</v>
+        <v>0.01992108564808712</v>
       </c>
       <c r="M105" t="n">
-        <v>0.01920983292830634</v>
+        <v>0.01925364407975646</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04198174509508958</v>
+        <v>0.04198193894974202</v>
       </c>
       <c r="O105" t="n">
         <v>0.07930845842127873</v>
@@ -19913,43 +19913,43 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.03893892308238793</v>
+        <v>0.0389250984763172</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04823443459761276</v>
+        <v>0.0481566711884649</v>
       </c>
       <c r="D106" t="n">
-        <v>0.04015030418933566</v>
+        <v>0.04015932858496517</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04563156848796251</v>
+        <v>0.04562984041220367</v>
       </c>
       <c r="F106" t="n">
-        <v>0.02024709563267254</v>
+        <v>0.02038726177755633</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02361895545500715</v>
+        <v>0.02362260361494248</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0678768957231085</v>
+        <v>0.06761749235086466</v>
       </c>
       <c r="I106" t="n">
-        <v>0.06156058681612602</v>
+        <v>0.06165121478925636</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04376371060107275</v>
+        <v>0.04375967842430212</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03623371648613075</v>
+        <v>0.0362444689575191</v>
       </c>
       <c r="L106" t="n">
-        <v>0.01986442285629802</v>
+        <v>0.01992317743209862</v>
       </c>
       <c r="M106" t="n">
-        <v>0.01922810696020914</v>
+        <v>0.01927169287101546</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04158191895132683</v>
+        <v>0.04158211095974448</v>
       </c>
       <c r="O106" t="n">
         <v>0.07855313976964751</v>
@@ -20098,43 +20098,43 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03889624106026469</v>
+        <v>0.03888254687500595</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04794904850138064</v>
+        <v>0.04787201870930022</v>
       </c>
       <c r="D107" t="n">
-        <v>0.03987556550328223</v>
+        <v>0.03988450476310391</v>
       </c>
       <c r="E107" t="n">
-        <v>0.04557139558583154</v>
+        <v>0.0455696838126742</v>
       </c>
       <c r="F107" t="n">
-        <v>0.02021470960909568</v>
+        <v>0.02035374362887541</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02368808754236163</v>
+        <v>0.02369151108867631</v>
       </c>
       <c r="H107" t="n">
-        <v>0.06802814763701127</v>
+        <v>0.06777119146639238</v>
       </c>
       <c r="I107" t="n">
-        <v>0.06185568382865075</v>
+        <v>0.0619454568209025</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0445026785445972</v>
+        <v>0.04449868440723007</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03635254614845334</v>
+        <v>0.03636319718143236</v>
       </c>
       <c r="L107" t="n">
-        <v>0.01976679563292432</v>
+        <v>0.01982499592027398</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0191410474454068</v>
+        <v>0.01918422216837533</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04118963669706903</v>
+        <v>0.04118982689408651</v>
       </c>
       <c r="O107" t="n">
         <v>0.07781207241333007</v>
@@ -20283,43 +20283,43 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.03869909918533072</v>
+        <v>0.03868628666101283</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04768991128645846</v>
+        <v>0.04761341297950165</v>
       </c>
       <c r="D108" t="n">
-        <v>0.03983357284588964</v>
+        <v>0.03984525485335595</v>
       </c>
       <c r="E108" t="n">
-        <v>0.04607176483289924</v>
+        <v>0.04607496796397872</v>
       </c>
       <c r="F108" t="n">
-        <v>0.02033102663931067</v>
+        <v>0.02046536972517324</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02383864359080792</v>
+        <v>0.02383581729867897</v>
       </c>
       <c r="H108" t="n">
-        <v>0.06820445849467537</v>
+        <v>0.06795329533414969</v>
       </c>
       <c r="I108" t="n">
-        <v>0.06188618823067895</v>
+        <v>0.06196080234288312</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04450694109083948</v>
+        <v>0.04447943184745107</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03652549211869598</v>
+        <v>0.03657108963170964</v>
       </c>
       <c r="L108" t="n">
-        <v>0.01964631026620469</v>
+        <v>0.0197034013672094</v>
       </c>
       <c r="M108" t="n">
-        <v>0.01900361143608237</v>
+        <v>0.01904770159329392</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04080468682139549</v>
+        <v>0.04080487524087074</v>
       </c>
       <c r="O108" t="n">
         <v>0.07708485678329895</v>
@@ -20468,43 +20468,43 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03847406003612532</v>
+        <v>0.03846136614629185</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04746170738791855</v>
+        <v>0.04738591739861876</v>
       </c>
       <c r="D109" t="n">
-        <v>0.03958346867259994</v>
+        <v>0.03959504251333045</v>
       </c>
       <c r="E109" t="n">
-        <v>0.04590129231265499</v>
+        <v>0.04590446578511335</v>
       </c>
       <c r="F109" t="n">
-        <v>0.02034643865453728</v>
+        <v>0.02047953782293816</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02395318344089538</v>
+        <v>0.023950383318138</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0684764420072176</v>
+        <v>0.06822760443151162</v>
       </c>
       <c r="I109" t="n">
-        <v>0.06212240344616708</v>
+        <v>0.06219632668696196</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04475454870608194</v>
+        <v>0.04472729417791009</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0367161429690411</v>
+        <v>0.03676131828286019</v>
       </c>
       <c r="L109" t="n">
-        <v>0.01971043743891066</v>
+        <v>0.01976699991860977</v>
       </c>
       <c r="M109" t="n">
-        <v>0.01898949916631012</v>
+        <v>0.01903318108132527</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04042686564712331</v>
+        <v>0.04042705232197379</v>
       </c>
       <c r="O109" t="n">
         <v>0.07637110810937951</v>
@@ -20653,43 +20653,43 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.03831548231955223</v>
+        <v>0.03830290488742366</v>
       </c>
       <c r="C110" t="n">
-        <v>0.04725396739374706</v>
+        <v>0.04717887272545001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.03940380012314786</v>
+        <v>0.03941526778185332</v>
       </c>
       <c r="E110" t="n">
-        <v>0.04569658535665066</v>
+        <v>0.0456997297146828</v>
       </c>
       <c r="F110" t="n">
-        <v>0.02031921152817835</v>
+        <v>0.02045108960329114</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02395205482872589</v>
+        <v>0.02394928039516812</v>
       </c>
       <c r="H110" t="n">
-        <v>0.06862931329625087</v>
+        <v>0.06838275863408347</v>
       </c>
       <c r="I110" t="n">
-        <v>0.06231359274533715</v>
+        <v>0.06238683779126235</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04535551499128181</v>
+        <v>0.04532851050465282</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03700483990686042</v>
+        <v>0.03704960076825915</v>
       </c>
       <c r="L110" t="n">
-        <v>0.01962245878070304</v>
+        <v>0.01967850233857005</v>
       </c>
       <c r="M110" t="n">
-        <v>0.01885948955231555</v>
+        <v>0.0189027707158168</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04005597697146162</v>
+        <v>0.04005616193369881</v>
       </c>
       <c r="O110" t="n">
         <v>0.07567045574140356</v>
@@ -20838,43 +20838,43 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0381511736383614</v>
+        <v>0.03819607742512523</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04712295023377461</v>
+        <v>0.04695341552864587</v>
       </c>
       <c r="D111" t="n">
-        <v>0.03930126042180235</v>
+        <v>0.03930987461763051</v>
       </c>
       <c r="E111" t="n">
-        <v>0.04553958772825328</v>
+        <v>0.04553408930538424</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02030036051325945</v>
+        <v>0.02040776303996803</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02397239058596692</v>
+        <v>0.02399163506600857</v>
       </c>
       <c r="H111" t="n">
-        <v>0.06872350447479982</v>
+        <v>0.06846067986165968</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0625013058754314</v>
+        <v>0.0625152352133663</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04574541202431769</v>
+        <v>0.04573991360144865</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0371165537351703</v>
+        <v>0.03717483701758213</v>
       </c>
       <c r="L111" t="n">
-        <v>0.01953846238437275</v>
+        <v>0.01960865891633417</v>
       </c>
       <c r="M111" t="n">
-        <v>0.01878609485512572</v>
+        <v>0.01890669359672001</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03969219828779112</v>
+        <v>0.03969238156855342</v>
       </c>
       <c r="O111" t="n">
         <v>0.0749825425073908</v>
@@ -21023,43 +21023,43 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03816582454109924</v>
+        <v>0.03821086867799636</v>
       </c>
       <c r="C112" t="n">
-        <v>0.04698212456120563</v>
+        <v>0.04681429882534699</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03912846133769099</v>
+        <v>0.03913681629856707</v>
       </c>
       <c r="E112" t="n">
-        <v>0.04525010484567751</v>
+        <v>0.04524447432856538</v>
       </c>
       <c r="F112" t="n">
-        <v>0.02023462546435873</v>
+        <v>0.02034178691907367</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02388937595889069</v>
+        <v>0.02390735728773268</v>
       </c>
       <c r="H112" t="n">
-        <v>0.06872500209328096</v>
+        <v>0.06846472689903266</v>
       </c>
       <c r="I112" t="n">
-        <v>0.06259227918065441</v>
+        <v>0.06260662791781116</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04595682555804328</v>
+        <v>0.04595192155926819</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03748235241551909</v>
+        <v>0.03753992899373033</v>
       </c>
       <c r="L112" t="n">
-        <v>0.01960273614070917</v>
+        <v>0.01967175538272895</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0188202758917059</v>
+        <v>0.0189392432693979</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03933461091582904</v>
+        <v>0.0393347925454133</v>
       </c>
       <c r="O112" t="n">
         <v>0.07430702410642331</v>
@@ -21208,43 +21208,43 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03801802671029098</v>
+        <v>0.03806266866739438</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04672932861376643</v>
+        <v>0.04656300132197796</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03886730394260485</v>
+        <v>0.03887558430561596</v>
       </c>
       <c r="E113" t="n">
-        <v>0.04513499871834381</v>
+        <v>0.04512941847370588</v>
       </c>
       <c r="F113" t="n">
-        <v>0.02026204828819695</v>
+        <v>0.02036825294420908</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02383916510899838</v>
+        <v>0.02385698589026143</v>
       </c>
       <c r="H113" t="n">
-        <v>0.06863376890442877</v>
+        <v>0.06837581759584341</v>
       </c>
       <c r="I113" t="n">
-        <v>0.06263878608438193</v>
+        <v>0.06265300670781407</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04650539879668324</v>
+        <v>0.04650053858361151</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03777015584363218</v>
+        <v>0.03782721834525225</v>
       </c>
       <c r="L113" t="n">
-        <v>0.01951375548304038</v>
+        <v>0.01958215848182784</v>
       </c>
       <c r="M113" t="n">
-        <v>0.01874566180981374</v>
+        <v>0.01886356697877635</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03898340903265199</v>
+        <v>0.03898358904054354</v>
       </c>
       <c r="O113" t="n">
         <v>0.07364356853404454</v>
@@ -21393,43 +21393,43 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.03786321036562031</v>
+        <v>0.03790727884625506</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04643033709889877</v>
+        <v>0.04626566014494783</v>
       </c>
       <c r="D114" t="n">
-        <v>0.03882058472629281</v>
+        <v>0.03882843498195244</v>
       </c>
       <c r="E114" t="n">
-        <v>0.04514111102170542</v>
+        <v>0.04513593698956612</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02023153615408482</v>
+        <v>0.02033626570118038</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02376932523305892</v>
+        <v>0.02378680989339175</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06860641726285492</v>
+        <v>0.06835092712411414</v>
       </c>
       <c r="I114" t="n">
-        <v>0.06256350455395115</v>
+        <v>0.06257813457586228</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04637931043711115</v>
+        <v>0.04637520689437998</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0380300282983875</v>
+        <v>0.03808872680093339</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0195248347298165</v>
+        <v>0.01958959933900847</v>
       </c>
       <c r="M114" t="n">
-        <v>0.01877549214412427</v>
+        <v>0.01889253231941334</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03863842311200905</v>
+        <v>0.03863860152691041</v>
       </c>
       <c r="O114" t="n">
         <v>0.07299185553816803</v>
@@ -21578,43 +21578,43 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.03757900325297629</v>
+        <v>0.03762268516799145</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04608212129282906</v>
+        <v>0.0459188888735619</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03852550369492409</v>
+        <v>0.03853328508869197</v>
       </c>
       <c r="E115" t="n">
-        <v>0.04485053887920341</v>
+        <v>0.04484541023331094</v>
       </c>
       <c r="F115" t="n">
-        <v>0.020168665246916</v>
+        <v>0.02027247611377388</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02371114475974416</v>
+        <v>0.02372847604586353</v>
       </c>
       <c r="H115" t="n">
-        <v>0.06892033515170358</v>
+        <v>0.0686670861545307</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0628124715934915</v>
+        <v>0.0628269732818771</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04657111115119708</v>
+        <v>0.04656704360445478</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03791537168357882</v>
+        <v>0.03797355528697957</v>
       </c>
       <c r="L115" t="n">
-        <v>0.01954544634605202</v>
+        <v>0.01960964284463704</v>
       </c>
       <c r="M115" t="n">
-        <v>0.01891267755283655</v>
+        <v>0.01902869105992133</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0382994895759388</v>
+        <v>0.03829966642579716</v>
       </c>
       <c r="O115" t="n">
         <v>0.07235157610362269</v>
@@ -21763,43 +21763,43 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03731253665117201</v>
+        <v>0.03735583872344789</v>
       </c>
       <c r="C116" t="n">
-        <v>0.04575118138396578</v>
+        <v>0.04558936837704008</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03831058805791959</v>
+        <v>0.03831830178739384</v>
       </c>
       <c r="E116" t="n">
-        <v>0.04455134582665322</v>
+        <v>0.04454626177768155</v>
       </c>
       <c r="F116" t="n">
-        <v>0.02004885946373802</v>
+        <v>0.02015176762740583</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02359927876629416</v>
+        <v>0.02361645934557771</v>
       </c>
       <c r="H116" t="n">
-        <v>0.06905313094143438</v>
+        <v>0.06880208410945432</v>
       </c>
       <c r="I116" t="n">
-        <v>0.06326835977184891</v>
+        <v>0.06328273535859638</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04686195842825749</v>
+        <v>0.04685792625148687</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0379252522082742</v>
+        <v>0.03798292986729756</v>
       </c>
       <c r="L116" t="n">
-        <v>0.01948084847517976</v>
+        <v>0.01954448674334231</v>
       </c>
       <c r="M116" t="n">
-        <v>0.01884306329728626</v>
+        <v>0.01895806799126595</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03796645053614803</v>
+        <v>0.03796662584818153</v>
       </c>
       <c r="O116" t="n">
         <v>0.0717224319635912</v>
@@ -21948,43 +21948,43 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.03724062849122202</v>
+        <v>0.03728338346904853</v>
       </c>
       <c r="C117" t="n">
-        <v>0.04552223293607123</v>
+        <v>0.04536216247030615</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03830550552025856</v>
+        <v>0.03831402175567929</v>
       </c>
       <c r="E117" t="n">
-        <v>0.04446170092510648</v>
+        <v>0.04445752970775756</v>
       </c>
       <c r="F117" t="n">
-        <v>0.02014280857796944</v>
+        <v>0.02024257019289795</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02373161970455268</v>
+        <v>0.02374361195443084</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06903729693992543</v>
+        <v>0.06878424308742385</v>
       </c>
       <c r="I117" t="n">
-        <v>0.06334184725141109</v>
+        <v>0.06336583175116742</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04675083024605316</v>
+        <v>0.04674665902870423</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03786474688705525</v>
+        <v>0.037922101125603</v>
       </c>
       <c r="L117" t="n">
-        <v>0.01939320606022265</v>
+        <v>0.01945629572262517</v>
       </c>
       <c r="M117" t="n">
-        <v>0.01877934190703886</v>
+        <v>0.01889318138052</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03763915354876744</v>
+        <v>0.03763932734949031</v>
       </c>
       <c r="O117" t="n">
         <v>0.07110413513631886</v>
@@ -22133,43 +22133,43 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.03718528558753554</v>
+        <v>0.03722836439918756</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04559530351349065</v>
+        <v>0.04543642885611798</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0383092979411602</v>
+        <v>0.03831843064923043</v>
       </c>
       <c r="E118" t="n">
-        <v>0.04428932625944783</v>
+        <v>0.0442845014325428</v>
       </c>
       <c r="F118" t="n">
-        <v>0.02012159597692147</v>
+        <v>0.02021809251502201</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02370023901847857</v>
+        <v>0.02371402423820722</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0689190337181305</v>
+        <v>0.06866193937019122</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0633965023795874</v>
+        <v>0.06342579597151078</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04665676543259657</v>
+        <v>0.04665314681241779</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03779648776725449</v>
+        <v>0.03785369642912838</v>
       </c>
       <c r="L118" t="n">
-        <v>0.01930206466405333</v>
+        <v>0.01936427046807886</v>
       </c>
       <c r="M118" t="n">
-        <v>0.01873687065517875</v>
+        <v>0.01884990945695367</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03731745138168396</v>
+        <v>0.03731762369693056</v>
       </c>
       <c r="O118" t="n">
         <v>0.07049640748558109</v>
@@ -22318,43 +22318,43 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03716436826895576</v>
+        <v>0.03720691115098486</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0453966722240086</v>
+        <v>0.04523931481698531</v>
       </c>
       <c r="D119" t="n">
-        <v>0.03809296491083593</v>
+        <v>0.03810219107802296</v>
       </c>
       <c r="E119" t="n">
-        <v>0.04406451619516966</v>
+        <v>0.04405939054673241</v>
       </c>
       <c r="F119" t="n">
-        <v>0.02005256181617443</v>
+        <v>0.02014841144195084</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0236307769902124</v>
+        <v>0.02364444538604505</v>
       </c>
       <c r="H119" t="n">
-        <v>0.06893672523688184</v>
+        <v>0.06868180965460305</v>
       </c>
       <c r="I119" t="n">
-        <v>0.06344203011215944</v>
+        <v>0.0634710754533038</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04666663705180903</v>
+        <v>0.04666304909790296</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03774647107647843</v>
+        <v>0.037803024064236</v>
       </c>
       <c r="L119" t="n">
-        <v>0.01931344331152427</v>
+        <v>0.01937563451256279</v>
       </c>
       <c r="M119" t="n">
-        <v>0.01876516978368738</v>
+        <v>0.01887690891961924</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03700120179370359</v>
+        <v>0.03700137264865149</v>
       </c>
       <c r="O119" t="n">
         <v>0.06989898030349989</v>
@@ -22503,43 +22503,43 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.03694304075937748</v>
+        <v>0.03698522613819625</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04505313748248841</v>
+        <v>0.04489710240661657</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03785333007822592</v>
+        <v>0.03786247871459626</v>
       </c>
       <c r="E120" t="n">
-        <v>0.04375860543608585</v>
+        <v>0.04375352286032455</v>
       </c>
       <c r="F120" t="n">
-        <v>0.01995317592370308</v>
+        <v>0.02004822009043935</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02354469337582818</v>
+        <v>0.02355824691119164</v>
       </c>
       <c r="H120" t="n">
-        <v>0.06913776982335847</v>
+        <v>0.06888499638882992</v>
       </c>
       <c r="I120" t="n">
-        <v>0.06363859226882625</v>
+        <v>0.06366739353147359</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04677884137264107</v>
+        <v>0.04677528356960816</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03778624007817679</v>
+        <v>0.03784231783074311</v>
       </c>
       <c r="L120" t="n">
-        <v>0.01924483428177021</v>
+        <v>0.01930650286767395</v>
       </c>
       <c r="M120" t="n">
-        <v>0.01869828796823865</v>
+        <v>0.01880908811983494</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03669026732484893</v>
+        <v>0.03669043674404097</v>
       </c>
       <c r="O120" t="n">
         <v>0.06931159391439486</v>
@@ -22688,43 +22688,43 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03676622783142813</v>
+        <v>0.03680806166542341</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04485158229336774</v>
+        <v>0.04469684750979483</v>
       </c>
       <c r="D121" t="n">
-        <v>0.03788095670114178</v>
+        <v>0.0378900290988757</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0434917306774729</v>
+        <v>0.04348669045650962</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01996229914719461</v>
+        <v>0.02005655127920808</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02345315618636721</v>
+        <v>0.02346659677560264</v>
       </c>
       <c r="H121" t="n">
-        <v>0.06898852845708756</v>
+        <v>0.06873786146784674</v>
       </c>
       <c r="I121" t="n">
-        <v>0.06375812315611916</v>
+        <v>0.06378668440824446</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04686330248718104</v>
+        <v>0.04685977433250674</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03780283327621083</v>
+        <v>0.03785844371417243</v>
       </c>
       <c r="L121" t="n">
-        <v>0.01941157100327278</v>
+        <v>0.019472725684294</v>
       </c>
       <c r="M121" t="n">
-        <v>0.01868241903725059</v>
+        <v>0.01879229585425025</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03638451509714186</v>
+        <v>0.0363846831045073</v>
       </c>
       <c r="O121" t="n">
         <v>0.06873399729844157</v>
@@ -22873,43 +22873,43 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03655684761087695</v>
+        <v>0.03659833571070698</v>
       </c>
       <c r="C122" t="n">
-        <v>0.04455305403233506</v>
+        <v>0.04439959804862639</v>
       </c>
       <c r="D122" t="n">
-        <v>0.03765786513568358</v>
+        <v>0.03766686255492383</v>
       </c>
       <c r="E122" t="n">
-        <v>0.04319844258005329</v>
+        <v>0.04319344401380871</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01983514395287618</v>
+        <v>0.01992861714164987</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02333464018070817</v>
+        <v>0.02334796969069372</v>
       </c>
       <c r="H122" t="n">
-        <v>0.06901687032769434</v>
+        <v>0.06876827496646379</v>
       </c>
       <c r="I122" t="n">
-        <v>0.06381969438432743</v>
+        <v>0.06384801959304673</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04700168501668105</v>
+        <v>0.04699818602030984</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03794511607587224</v>
+        <v>0.03800026692343746</v>
       </c>
       <c r="L122" t="n">
-        <v>0.01932828933567555</v>
+        <v>0.01938893860610981</v>
       </c>
       <c r="M122" t="n">
-        <v>0.01858466929735654</v>
+        <v>0.01869363804148843</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03608381662526465</v>
+        <v>0.03608398324413947</v>
       </c>
       <c r="O122" t="n">
         <v>0.06816594773399164</v>
@@ -23058,43 +23058,43 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.03651136065805125</v>
+        <v>0.03655250869148923</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04444417269482602</v>
+        <v>0.04429197454704939</v>
       </c>
       <c r="D123" t="n">
-        <v>0.03753312086185465</v>
+        <v>0.03754204453175686</v>
       </c>
       <c r="E123" t="n">
-        <v>0.04302035158598402</v>
+        <v>0.0430153939915939</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01975700516349981</v>
+        <v>0.01984971217859502</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02320269851777843</v>
+        <v>0.02321591876948541</v>
       </c>
       <c r="H123" t="n">
-        <v>0.06860715724597038</v>
+        <v>0.06836059955163516</v>
       </c>
       <c r="I123" t="n">
-        <v>0.06379746442182387</v>
+        <v>0.0638255574567012</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0470226175371266</v>
+        <v>0.04701914722105351</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0377824878596776</v>
+        <v>0.03783718665111525</v>
       </c>
       <c r="L123" t="n">
-        <v>0.01920059781978219</v>
+        <v>0.01926074996504896</v>
       </c>
       <c r="M123" t="n">
-        <v>0.01847447549477618</v>
+        <v>0.01858255105248076</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03578804763653298</v>
+        <v>0.03578821288967932</v>
       </c>
       <c r="O123" t="n">
         <v>0.06760721045748351</v>
@@ -23243,43 +23243,43 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03622861655523271</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="C124" t="n">
-        <v>0.04410217929319875</v>
+        <v>0.04395121852873737</v>
       </c>
       <c r="D124" t="n">
-        <v>0.037253379529622</v>
+        <v>0.0372622306493624</v>
       </c>
       <c r="E124" t="n">
-        <v>0.04272451889656696</v>
+        <v>0.04271960160782229</v>
       </c>
       <c r="F124" t="n">
-        <v>0.01975881354345892</v>
+        <v>0.01985076684298425</v>
       </c>
       <c r="G124" t="n">
-        <v>0.02316993674563669</v>
+        <v>0.02318304951562247</v>
       </c>
       <c r="H124" t="n">
-        <v>0.06812788819003289</v>
+        <v>0.06788333502979794</v>
       </c>
       <c r="I124" t="n">
-        <v>0.06368790427284528</v>
+        <v>0.06371576890906507</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04725498092665651</v>
+        <v>0.04725153882453524</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03766675960342394</v>
+        <v>0.03772101368924013</v>
       </c>
       <c r="L124" t="n">
-        <v>0.01908137506406818</v>
+        <v>0.01914103816750351</v>
       </c>
       <c r="M124" t="n">
-        <v>0.01837246593671154</v>
+        <v>0.01847966283134535</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03549708789965059</v>
+        <v>0.03549725180927542</v>
       </c>
       <c r="O124" t="n">
         <v>0.06705755833994299</v>
@@ -23428,43 +23428,43 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.03593791358264759</v>
+        <v>0.0359783979381269</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0437468417325093</v>
+        <v>0.04359709839356777</v>
       </c>
       <c r="D125" t="n">
-        <v>0.03695408716395546</v>
+        <v>0.03696286690369796</v>
       </c>
       <c r="E125" t="n">
-        <v>0.04239394887329925</v>
+        <v>0.04238907124010897</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01960450849391044</v>
+        <v>0.01969572023456863</v>
       </c>
       <c r="G125" t="n">
-        <v>0.02310063337692854</v>
+        <v>0.02311364039876928</v>
       </c>
       <c r="H125" t="n">
-        <v>0.06762009220677782</v>
+        <v>0.06737751124944802</v>
       </c>
       <c r="I125" t="n">
-        <v>0.06330241130674395</v>
+        <v>0.06333005122815552</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04695729989835012</v>
+        <v>0.04695388555511693</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03742754275895843</v>
+        <v>0.03748135931182449</v>
       </c>
       <c r="L125" t="n">
-        <v>0.01902244426653729</v>
+        <v>0.01908162621591266</v>
       </c>
       <c r="M125" t="n">
-        <v>0.01822739005652201</v>
+        <v>0.01833372246007007</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03521082106175018</v>
+        <v>0.03521098364952319</v>
       </c>
       <c r="O125" t="n">
         <v>0.06651677157913699</v>
@@ -23613,43 +23613,43 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.03566492611036068</v>
+        <v>0.03570444144271285</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04341364085401504</v>
+        <v>0.04326574061006835</v>
       </c>
       <c r="D126" t="n">
-        <v>0.03672474345275297</v>
+        <v>0.03673313038043588</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04208221608435314</v>
+        <v>0.04207786133344086</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01945541420535876</v>
+        <v>0.01954589625209169</v>
       </c>
       <c r="G126" t="n">
-        <v>0.02292727969194169</v>
+        <v>0.02294018265760771</v>
       </c>
       <c r="H126" t="n">
-        <v>0.06721896735952904</v>
+        <v>0.06697897219814117</v>
       </c>
       <c r="I126" t="n">
-        <v>0.06297082720106449</v>
+        <v>0.06300002016088385</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04669034898489949</v>
+        <v>0.04668728453055382</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03717957299247999</v>
+        <v>0.03723053970686075</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0188786516400879</v>
+        <v>0.01893736013386827</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0180947964758775</v>
+        <v>0.0181997943589847</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03492913449325619</v>
+        <v>0.03492929578032701</v>
       </c>
       <c r="O126" t="n">
         <v>0.0659846374065039</v>
@@ -23798,43 +23798,43 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.03563164209118928</v>
+        <v>0.03567084380979262</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04313821117917809</v>
+        <v>0.0429914847466913</v>
       </c>
       <c r="D127" t="n">
-        <v>0.03657680352706662</v>
+        <v>0.03658512389183142</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04183383399528235</v>
+        <v>0.04182951380588525</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01933684772740437</v>
+        <v>0.01942661166265529</v>
       </c>
       <c r="G127" t="n">
-        <v>0.02279955953268991</v>
+        <v>0.02281236009386652</v>
       </c>
       <c r="H127" t="n">
-        <v>0.066996377121173</v>
+        <v>0.06675828668328819</v>
       </c>
       <c r="I127" t="n">
-        <v>0.06273715039667339</v>
+        <v>0.06276611166633546</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04655564099930141</v>
+        <v>0.04655260086602197</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03700418226335043</v>
+        <v>0.037054744479998</v>
       </c>
       <c r="L127" t="n">
-        <v>0.01881346478229606</v>
+        <v>0.0188717073356496</v>
       </c>
       <c r="M127" t="n">
-        <v>0.01808271274612679</v>
+        <v>0.01818687731270139</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0346519191401351</v>
+        <v>0.03465207914714981</v>
       </c>
       <c r="O127" t="n">
         <v>0.06546094980803958</v>
@@ -23983,43 +23983,43 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.03537441380642726</v>
+        <v>0.03541330685008097</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04284235442929062</v>
+        <v>0.04269678332304387</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03635562973631945</v>
+        <v>0.03636388458640105</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04162444654802013</v>
+        <v>0.04162016037586237</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01949366972059079</v>
+        <v>0.01958272685320194</v>
       </c>
       <c r="G128" t="n">
-        <v>0.02272972969969649</v>
+        <v>0.02274242946905281</v>
       </c>
       <c r="H128" t="n">
-        <v>0.06660584535459105</v>
+        <v>0.06636962964456362</v>
       </c>
       <c r="I128" t="n">
-        <v>0.06260081434096056</v>
+        <v>0.06262954756912921</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04648036210852366</v>
+        <v>0.04647734591330153</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0368067890427025</v>
+        <v>0.03685695313165994</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01876311548836884</v>
+        <v>0.01882089943894006</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0179966844077153</v>
+        <v>0.0181000287808523</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03437906938312617</v>
+        <v>0.03437922813024312</v>
       </c>
       <c r="O128" t="n">
         <v>0.06494550925836998</v>
@@ -24168,43 +24168,43 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.03517900974778734</v>
+        <v>0.03521759893953751</v>
       </c>
       <c r="C129" t="n">
-        <v>0.04263176397653273</v>
+        <v>0.04248733014455354</v>
       </c>
       <c r="D129" t="n">
-        <v>0.03625478190963892</v>
+        <v>0.03626312977560936</v>
       </c>
       <c r="E129" t="n">
-        <v>0.04148779132477168</v>
+        <v>0.04148338113142881</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01940532322937038</v>
+        <v>0.0194935270962279</v>
       </c>
       <c r="G129" t="n">
-        <v>0.02295348128061934</v>
+        <v>0.02296655435374287</v>
       </c>
       <c r="H129" t="n">
-        <v>0.06647342669502632</v>
+        <v>0.06623874140642326</v>
       </c>
       <c r="I129" t="n">
-        <v>0.06254110930223181</v>
+        <v>0.0625696180520554</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04645303900122982</v>
+        <v>0.04645004637003286</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03673565049091752</v>
+        <v>0.03678542267292998</v>
       </c>
       <c r="L129" t="n">
-        <v>0.01876789278441967</v>
+        <v>0.01882522529787706</v>
       </c>
       <c r="M129" t="n">
-        <v>0.01793657133928751</v>
+        <v>0.01803910833450938</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03411048290357049</v>
+        <v>0.0341106404104756</v>
       </c>
       <c r="O129" t="n">
         <v>0.06443812246728897</v>
@@ -24353,43 +24353,43 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03514104569972255</v>
+        <v>0.03517933575045139</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04244319280259572</v>
+        <v>0.04229987861272489</v>
       </c>
       <c r="D130" t="n">
-        <v>0.03613643073275123</v>
+        <v>0.03614471388658237</v>
       </c>
       <c r="E130" t="n">
-        <v>0.04133653219357137</v>
+        <v>0.04133215618777378</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0194872915321631</v>
+        <v>0.01957481164811475</v>
       </c>
       <c r="G130" t="n">
-        <v>0.02295277555200578</v>
+        <v>0.02296574728347719</v>
       </c>
       <c r="H130" t="n">
-        <v>0.0664887195166264</v>
+        <v>0.06625585349382647</v>
       </c>
       <c r="I130" t="n">
-        <v>0.06259329292717122</v>
+        <v>0.06262158067893417</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04631908365188311</v>
+        <v>0.04631611421937761</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03660153763466572</v>
+        <v>0.03665092398580987</v>
       </c>
       <c r="L130" t="n">
-        <v>0.01885808441283926</v>
+        <v>0.01891497248820784</v>
       </c>
       <c r="M130" t="n">
-        <v>0.01791818088188707</v>
+        <v>0.01801992301668087</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0338460605554808</v>
+        <v>0.03384621684140214</v>
       </c>
       <c r="O130" t="n">
         <v>0.06393860213808518</v>
@@ -24538,43 +24538,43 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.03493695071284233</v>
+        <v>0.03497494622471942</v>
       </c>
       <c r="C131" t="n">
-        <v>0.04217222667657135</v>
+        <v>0.04203001490354568</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03592374843559296</v>
+        <v>0.03593196787285616</v>
       </c>
       <c r="E131" t="n">
-        <v>0.04122171854475638</v>
+        <v>0.04121737620054186</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01943292086232753</v>
+        <v>0.01951976774661801</v>
       </c>
       <c r="G131" t="n">
-        <v>0.02299178211357401</v>
+        <v>0.02300465406249564</v>
       </c>
       <c r="H131" t="n">
-        <v>0.06685349085703918</v>
+        <v>0.06662241611133771</v>
       </c>
       <c r="I131" t="n">
-        <v>0.06279091767690788</v>
+        <v>0.06281898783058033</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04640399619734713</v>
+        <v>0.04640104960663014</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03646406012285732</v>
+        <v>0.03651306657899267</v>
       </c>
       <c r="L131" t="n">
-        <v>0.01876652610912001</v>
+        <v>0.01882297658390882</v>
       </c>
       <c r="M131" t="n">
-        <v>0.01783664411232404</v>
+        <v>0.01793760361531173</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03358570624351556</v>
+        <v>0.03358586132723751</v>
       </c>
       <c r="O131" t="n">
         <v>0.06344676673702299</v>
@@ -24723,43 +24723,43 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03477136865161085</v>
+        <v>0.03480907412141254</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04193987101035731</v>
+        <v>0.04179874482338527</v>
       </c>
       <c r="D132" t="n">
-        <v>0.03584928338830894</v>
+        <v>0.03585744008177624</v>
       </c>
       <c r="E132" t="n">
-        <v>0.04123701027327847</v>
+        <v>0.04123270107672971</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01945540681816468</v>
+        <v>0.01954159074913997</v>
       </c>
       <c r="G132" t="n">
-        <v>0.02298802458889111</v>
+        <v>0.02300079827866066</v>
       </c>
       <c r="H132" t="n">
-        <v>0.06692736279787513</v>
+        <v>0.06669805198153017</v>
       </c>
       <c r="I132" t="n">
-        <v>0.06276991152757785</v>
+        <v>0.06279776740526809</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04633201959268551</v>
+        <v>0.04632909549502742</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03641840513249933</v>
+        <v>0.03646703749354967</v>
       </c>
       <c r="L132" t="n">
-        <v>0.01882487902315439</v>
+        <v>0.01888089857828833</v>
       </c>
       <c r="M132" t="n">
-        <v>0.01793903133262981</v>
+        <v>0.01803922015238858</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03332932680654216</v>
+        <v>0.0333294807064189</v>
       </c>
       <c r="O132" t="n">
         <v>0.06296244027338159</v>
@@ -24908,43 +24908,43 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.03461822311744692</v>
+        <v>0.03465564293975012</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0416977480292736</v>
+        <v>0.04155769098008166</v>
       </c>
       <c r="D133" t="n">
-        <v>0.03568125153879474</v>
+        <v>0.03568934643912971</v>
       </c>
       <c r="E133" t="n">
-        <v>0.04113034133598235</v>
+        <v>0.04112606478486198</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0197365888884205</v>
+        <v>0.0198221199108278</v>
       </c>
       <c r="G133" t="n">
-        <v>0.02319005665208363</v>
+        <v>0.02320273357147614</v>
       </c>
       <c r="H133" t="n">
-        <v>0.06699812992528865</v>
+        <v>0.06677055631209781</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0628620940560216</v>
+        <v>0.06288973890433538</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04620248369870354</v>
+        <v>0.04619958175330043</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03624865823208599</v>
+        <v>0.03629692216615867</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0187737539504641</v>
+        <v>0.01882934911502884</v>
       </c>
       <c r="M133" t="n">
-        <v>0.01793310618737525</v>
+        <v>0.01803253600092374</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0330768319064926</v>
+        <v>0.03307698464046118</v>
       </c>
       <c r="O133" t="n">
         <v>0.06248545208949233</v>
@@ -25093,43 +25093,43 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.03443221266609802</v>
+        <v>0.03446935113635382</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04141181970470217</v>
+        <v>0.04127281571603046</v>
       </c>
       <c r="D134" t="n">
-        <v>0.03563504434560727</v>
+        <v>0.03564307838202995</v>
       </c>
       <c r="E134" t="n">
-        <v>0.04107605761647117</v>
+        <v>0.04107181321987051</v>
       </c>
       <c r="F134" t="n">
-        <v>0.01969854779486164</v>
+        <v>0.01978358731246778</v>
       </c>
       <c r="G134" t="n">
-        <v>0.02315651833965875</v>
+        <v>0.02316894835827497</v>
       </c>
       <c r="H134" t="n">
-        <v>0.06692973841025822</v>
+        <v>0.06670387587686581</v>
       </c>
       <c r="I134" t="n">
-        <v>0.06312766856962167</v>
+        <v>0.0631551055619331</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04621329335920192</v>
+        <v>0.04621041323293718</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03627609981790023</v>
+        <v>0.03632400086525056</v>
       </c>
       <c r="L134" t="n">
-        <v>0.01870065983692725</v>
+        <v>0.01875583699273587</v>
       </c>
       <c r="M134" t="n">
-        <v>0.01787451835572682</v>
+        <v>0.01797320057669223</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03282813392223326</v>
+        <v>0.03282828550782613</v>
       </c>
       <c r="O134" t="n">
         <v>0.06201563666024803</v>
@@ -25278,43 +25278,43 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03432691384712694</v>
+        <v>0.03436377516461964</v>
       </c>
       <c r="C135" t="n">
-        <v>0.04121727203983309</v>
+        <v>0.04107930539436043</v>
       </c>
       <c r="D135" t="n">
-        <v>0.03554484186795704</v>
+        <v>0.03555281594888404</v>
       </c>
       <c r="E135" t="n">
-        <v>0.04103161136315559</v>
+        <v>0.04102739864115643</v>
       </c>
       <c r="F135" t="n">
-        <v>0.01973660256608933</v>
+        <v>0.01982085700607264</v>
       </c>
       <c r="G135" t="n">
-        <v>0.02318892824440528</v>
+        <v>0.02320141595604566</v>
       </c>
       <c r="H135" t="n">
-        <v>0.06667806107664537</v>
+        <v>0.06645388408454693</v>
       </c>
       <c r="I135" t="n">
-        <v>0.06310928372592392</v>
+        <v>0.06313636551020427</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04619189490341884</v>
+        <v>0.0461891867249908</v>
       </c>
       <c r="K135" t="n">
-        <v>0.03625739370324443</v>
+        <v>0.03630493728009215</v>
       </c>
       <c r="L135" t="n">
-        <v>0.01863241803923669</v>
+        <v>0.01868718342522584</v>
       </c>
       <c r="M135" t="n">
-        <v>0.01782944313532437</v>
+        <v>0.01792738892180496</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03258314784818674</v>
+        <v>0.03258329830254385</v>
       </c>
       <c r="O135" t="n">
         <v>0.06155283340158946</v>
@@ -25463,43 +25463,43 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.03418539202091953</v>
+        <v>0.03422198029161599</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04101530211084454</v>
+        <v>0.04087835744052352</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03551571167546652</v>
+        <v>0.03552362668912738</v>
       </c>
       <c r="E136" t="n">
-        <v>0.04092704224153187</v>
+        <v>0.04092286072488085</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01966074459370966</v>
+        <v>0.01974437492673012</v>
       </c>
       <c r="G136" t="n">
-        <v>0.02310721035343523</v>
+        <v>0.0231196055635079</v>
       </c>
       <c r="H136" t="n">
-        <v>0.06645818819363708</v>
+        <v>0.06623567177185048</v>
       </c>
       <c r="I136" t="n">
-        <v>0.06304457720759811</v>
+        <v>0.06307145838606898</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04607822273595141</v>
+        <v>0.04607553461810433</v>
       </c>
       <c r="K136" t="n">
-        <v>0.03628152658212536</v>
+        <v>0.03632871798432977</v>
       </c>
       <c r="L136" t="n">
-        <v>0.01857728376145344</v>
+        <v>0.01863164347791674</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0177711470870883</v>
+        <v>0.01786836734922459</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03234179119745943</v>
+        <v>0.03234194053733982</v>
       </c>
       <c r="O136" t="n">
         <v>0.06109688648750361</v>
@@ -25648,43 +25648,43 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.03416172823840127</v>
+        <v>0.03419804747769554</v>
       </c>
       <c r="C137" t="n">
-        <v>0.04109395920623043</v>
+        <v>0.04095802148201471</v>
       </c>
       <c r="D137" t="n">
-        <v>0.03547870832774956</v>
+        <v>0.03548656514278056</v>
       </c>
       <c r="E137" t="n">
-        <v>0.04073284219839021</v>
+        <v>0.04072869142818515</v>
       </c>
       <c r="F137" t="n">
-        <v>0.01954820052252267</v>
+        <v>0.01963121592662387</v>
       </c>
       <c r="G137" t="n">
-        <v>0.02318783302518806</v>
+        <v>0.0232001370940102</v>
       </c>
       <c r="H137" t="n">
-        <v>0.06622509389635171</v>
+        <v>0.06600421362472531</v>
       </c>
       <c r="I137" t="n">
-        <v>0.06272050966714381</v>
+        <v>0.06274719318989062</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04595629001787203</v>
+        <v>0.04595362166559735</v>
       </c>
       <c r="K137" t="n">
-        <v>0.03623711334093122</v>
+        <v>0.03628395774753118</v>
       </c>
       <c r="L137" t="n">
-        <v>0.01860063898142471</v>
+        <v>0.01865459899409049</v>
       </c>
       <c r="M137" t="n">
-        <v>0.01775847735517666</v>
+        <v>0.0178549827624443</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03271251646966321</v>
+        <v>0.03271266471145624</v>
       </c>
       <c r="O137" t="n">
         <v>0.0614555624471518</v>
@@ -25833,43 +25833,43 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.03413384796074131</v>
+        <v>0.03416990209609913</v>
       </c>
       <c r="C138" t="n">
-        <v>0.04130052711145893</v>
+        <v>0.04116558163340538</v>
       </c>
       <c r="D138" t="n">
-        <v>0.03547049984423142</v>
+        <v>0.0354782993102476</v>
       </c>
       <c r="E138" t="n">
-        <v>0.04060563883733802</v>
+        <v>0.04060151836472569</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01949071841470114</v>
+        <v>0.01957312786694759</v>
       </c>
       <c r="G138" t="n">
-        <v>0.02308965692209231</v>
+        <v>0.02310187118019312</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06596067273779063</v>
+        <v>0.06574140473092063</v>
       </c>
       <c r="I138" t="n">
-        <v>0.06240235031757807</v>
+        <v>0.06242883907008585</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04582156852559336</v>
+        <v>0.04581906681007873</v>
       </c>
       <c r="K138" t="n">
-        <v>0.03622984408278795</v>
+        <v>0.03627619939967657</v>
       </c>
       <c r="L138" t="n">
-        <v>0.01857906384922484</v>
+        <v>0.01863262999318503</v>
       </c>
       <c r="M138" t="n">
-        <v>0.01774378518681266</v>
+        <v>0.01783958617504916</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03283354453208134</v>
+        <v>0.03283369169181749</v>
       </c>
       <c r="O138" t="n">
         <v>0.06186551160008694</v>
@@ -26018,43 +26018,43 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.03407569213921295</v>
+        <v>0.03411133891935909</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04156721361099253</v>
+        <v>0.04143339209208323</v>
       </c>
       <c r="D139" t="n">
-        <v>0.03547263685953036</v>
+        <v>0.03548037980767686</v>
       </c>
       <c r="E139" t="n">
-        <v>0.04063659889980011</v>
+        <v>0.04063250828568498</v>
       </c>
       <c r="F139" t="n">
-        <v>0.01959316505131237</v>
+        <v>0.019674977333615</v>
       </c>
       <c r="G139" t="n">
-        <v>0.02305338631262986</v>
+        <v>0.023065512061614</v>
       </c>
       <c r="H139" t="n">
-        <v>0.06557838800000818</v>
+        <v>0.06536070889173869</v>
       </c>
       <c r="I139" t="n">
-        <v>0.06201794669286997</v>
+        <v>0.06204424349789582</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04568076438384102</v>
+        <v>0.04567828079669969</v>
       </c>
       <c r="K139" t="n">
-        <v>0.03623787388578246</v>
+        <v>0.03628389329457769</v>
       </c>
       <c r="L139" t="n">
-        <v>0.01857241073622581</v>
+        <v>0.01862558871972252</v>
       </c>
       <c r="M139" t="n">
-        <v>0.01775794024723087</v>
+        <v>0.01785304702540768</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03275676127380555</v>
+        <v>0.03275690736716681</v>
       </c>
       <c r="O139" t="n">
         <v>0.06244570805462372</v>
@@ -26203,43 +26203,43 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0341007571354662</v>
+        <v>0.03413614746395662</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04163541608800821</v>
+        <v>0.04150255731383926</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0353704576912249</v>
+        <v>0.03537814493470847</v>
       </c>
       <c r="E140" t="n">
-        <v>0.04046129842763962</v>
+        <v>0.04045723724240301</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01972343618623377</v>
+        <v>0.01980465989096588</v>
       </c>
       <c r="G140" t="n">
-        <v>0.02312163293296332</v>
+        <v>0.02313367144634326</v>
       </c>
       <c r="H140" t="n">
-        <v>0.06579424672193457</v>
+        <v>0.0655781336504152</v>
       </c>
       <c r="I140" t="n">
-        <v>0.06175786372373845</v>
+        <v>0.06178397134311663</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04549064121618573</v>
+        <v>0.0454881754965778</v>
       </c>
       <c r="K140" t="n">
-        <v>0.03621823010936627</v>
+        <v>0.03626391844327808</v>
       </c>
       <c r="L140" t="n">
-        <v>0.01851958484824004</v>
+        <v>0.01857238025631591</v>
       </c>
       <c r="M140" t="n">
-        <v>0.01773287525097762</v>
+        <v>0.0178272978077287</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0328625307652912</v>
+        <v>0.03286267580762108</v>
       </c>
       <c r="O140" t="n">
         <v>0.0627295022915963</v>
@@ -26388,43 +26388,43 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0344641669090773</v>
+        <v>0.03449930444950706</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04171315670478994</v>
+        <v>0.04158124692186505</v>
       </c>
       <c r="D141" t="n">
-        <v>0.03529191519756226</v>
+        <v>0.03529954753216381</v>
       </c>
       <c r="E141" t="n">
-        <v>0.04030275887294899</v>
+        <v>0.04029872669617836</v>
       </c>
       <c r="F141" t="n">
-        <v>0.01966766223031218</v>
+        <v>0.01974830576572477</v>
       </c>
       <c r="G141" t="n">
-        <v>0.02318069624172324</v>
+        <v>0.0231930807846616</v>
       </c>
       <c r="H141" t="n">
-        <v>0.06549637536109583</v>
+        <v>0.0652812299291201</v>
       </c>
       <c r="I141" t="n">
-        <v>0.06146751073567065</v>
+        <v>0.06149357587836651</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04552154766464962</v>
+        <v>0.0455190995573246</v>
       </c>
       <c r="K141" t="n">
-        <v>0.03627245418439144</v>
+        <v>0.03631781617306103</v>
       </c>
       <c r="L141" t="n">
-        <v>0.01850221913728698</v>
+        <v>0.01855449342899193</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0177774353627663</v>
+        <v>0.01787132747899668</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03287217711624477</v>
+        <v>0.03287232112255802</v>
       </c>
       <c r="O141" t="n">
         <v>0.06314518428487904</v>
@@ -26573,43 +26573,43 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03468043783720329</v>
+        <v>0.03471532617521867</v>
       </c>
       <c r="C142" t="n">
-        <v>0.04172430749151277</v>
+        <v>0.0415934762239551</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03516687277953244</v>
+        <v>0.03517445098410136</v>
       </c>
       <c r="E142" t="n">
-        <v>0.04018378718914527</v>
+        <v>0.04017978360937301</v>
       </c>
       <c r="F142" t="n">
-        <v>0.01960467223478822</v>
+        <v>0.01968474383023335</v>
       </c>
       <c r="G142" t="n">
-        <v>0.02313854630876379</v>
+        <v>0.02315084301806429</v>
       </c>
       <c r="H142" t="n">
-        <v>0.06540033438470198</v>
+        <v>0.06518657182186186</v>
       </c>
       <c r="I142" t="n">
-        <v>0.06132097256675648</v>
+        <v>0.06134699583527614</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04545535786927197</v>
+        <v>0.04545292712441024</v>
       </c>
       <c r="K142" t="n">
-        <v>0.03621695455979854</v>
+        <v>0.03626199483223642</v>
       </c>
       <c r="L142" t="n">
-        <v>0.01851412570182396</v>
+        <v>0.01856602925387143</v>
       </c>
       <c r="M142" t="n">
-        <v>0.01783080042569492</v>
+        <v>0.01792388365539988</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03301237492209105</v>
+        <v>0.03301251790708292</v>
       </c>
       <c r="O142" t="n">
         <v>0.06342056418732121</v>
@@ -26758,43 +26758,43 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.03483346400047023</v>
+        <v>0.03486810664596438</v>
       </c>
       <c r="C143" t="n">
-        <v>0.04185200718636125</v>
+        <v>0.04172223924381352</v>
       </c>
       <c r="D143" t="n">
-        <v>0.03513545132410154</v>
+        <v>0.03514283418297734</v>
       </c>
       <c r="E143" t="n">
-        <v>0.04003454610041653</v>
+        <v>0.04003071269292333</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01952837161676943</v>
+        <v>0.01960787932773959</v>
       </c>
       <c r="G143" t="n">
-        <v>0.02311218168874946</v>
+        <v>0.02312424982345029</v>
       </c>
       <c r="H143" t="n">
-        <v>0.06517573617751346</v>
+        <v>0.06496362096288949</v>
       </c>
       <c r="I143" t="n">
-        <v>0.06111743544470792</v>
+        <v>0.06114341742882853</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04537277900178636</v>
+        <v>0.0453702233967909</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0362522507071217</v>
+        <v>0.03629697379454242</v>
       </c>
       <c r="L143" t="n">
-        <v>0.01854446369351367</v>
+        <v>0.01859600172758898</v>
       </c>
       <c r="M143" t="n">
-        <v>0.01788611145106968</v>
+        <v>0.01797839718701719</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03309366491077673</v>
+        <v>0.03309380688883203</v>
       </c>
       <c r="O143" t="n">
         <v>0.06362192834026802</v>
@@ -26943,43 +26943,43 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03477484592784687</v>
+        <v>0.03480924631707882</v>
       </c>
       <c r="C144" t="n">
-        <v>0.04190319871455332</v>
+        <v>0.0417743382401353</v>
       </c>
       <c r="D144" t="n">
-        <v>0.03505441958295731</v>
+        <v>0.03506203278385291</v>
       </c>
       <c r="E144" t="n">
-        <v>0.03997818676958211</v>
+        <v>0.03997409819873077</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01956028689360679</v>
+        <v>0.01963937959179991</v>
       </c>
       <c r="G144" t="n">
-        <v>0.02323238745891515</v>
+        <v>0.02324408923066208</v>
       </c>
       <c r="H144" t="n">
-        <v>0.06492847891206795</v>
+        <v>0.06471756505021964</v>
       </c>
       <c r="I144" t="n">
-        <v>0.06081946520647354</v>
+        <v>0.06084540648359926</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04523143637274401</v>
+        <v>0.04522918060951568</v>
       </c>
       <c r="K144" t="n">
-        <v>0.03629382049171972</v>
+        <v>0.03633823083027736</v>
       </c>
       <c r="L144" t="n">
-        <v>0.01858692506058486</v>
+        <v>0.01863810268882747</v>
       </c>
       <c r="M144" t="n">
-        <v>0.01787368092482909</v>
+        <v>0.01796532130597976</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03311869276265155</v>
+        <v>0.03311883374785332</v>
       </c>
       <c r="O144" t="n">
         <v>0.06413219449246949</v>
@@ -27128,43 +27128,43 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03462491795640321</v>
+        <v>0.03465907945404326</v>
       </c>
       <c r="C145" t="n">
-        <v>0.04174927028800943</v>
+        <v>0.04162130467799708</v>
       </c>
       <c r="D145" t="n">
-        <v>0.035026175547536</v>
+        <v>0.03503373587898093</v>
       </c>
       <c r="E145" t="n">
-        <v>0.03981032528466048</v>
+        <v>0.03980626510666228</v>
       </c>
       <c r="F145" t="n">
-        <v>0.01948563425020553</v>
+        <v>0.01956403768741222</v>
       </c>
       <c r="G145" t="n">
-        <v>0.02312313371818221</v>
+        <v>0.02313489423376321</v>
       </c>
       <c r="H145" t="n">
-        <v>0.06461003250382497</v>
+        <v>0.06440058332157282</v>
       </c>
       <c r="I145" t="n">
-        <v>0.06046669085972729</v>
+        <v>0.06049259199523307</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0450928968725989</v>
+        <v>0.04509051676825512</v>
       </c>
       <c r="K145" t="n">
-        <v>0.03634461334784917</v>
+        <v>0.03638871528127793</v>
       </c>
       <c r="L145" t="n">
-        <v>0.01858777488805109</v>
+        <v>0.01863859711609757</v>
       </c>
       <c r="M145" t="n">
-        <v>0.01782264134459655</v>
+        <v>0.01791364533421145</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03313119247147795</v>
+        <v>0.03313133247761582</v>
       </c>
       <c r="O145" t="n">
         <v>0.06475969906520702</v>
@@ -27313,43 +27313,43 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.03449388186695346</v>
+        <v>0.03452780776805807</v>
       </c>
       <c r="C146" t="n">
-        <v>0.04162207519453515</v>
+        <v>0.04149499210597116</v>
       </c>
       <c r="D146" t="n">
-        <v>0.03492907887702486</v>
+        <v>0.03493658706825294</v>
       </c>
       <c r="E146" t="n">
-        <v>0.03971541174434053</v>
+        <v>0.0397113795675699</v>
       </c>
       <c r="F146" t="n">
-        <v>0.01945441867481815</v>
+        <v>0.01953228139866479</v>
       </c>
       <c r="G146" t="n">
-        <v>0.02308351680896311</v>
+        <v>0.02309519621754011</v>
       </c>
       <c r="H146" t="n">
-        <v>0.06452094611551909</v>
+        <v>0.06431294141038592</v>
       </c>
       <c r="I146" t="n">
-        <v>0.06020178959128327</v>
+        <v>0.06022751209826832</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04480693868101936</v>
+        <v>0.0448045749911883</v>
       </c>
       <c r="K146" t="n">
-        <v>0.03612315936344442</v>
+        <v>0.03616695714560816</v>
       </c>
       <c r="L146" t="n">
-        <v>0.01849295307589043</v>
+        <v>0.01854342480581245</v>
       </c>
       <c r="M146" t="n">
-        <v>0.01773476480243377</v>
+        <v>0.01782514117832719</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03330272123267815</v>
+        <v>0.03330286027325645</v>
       </c>
       <c r="O146" t="n">
         <v>0.06575562645080153</v>
@@ -27498,43 +27498,43 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.03431741461244291</v>
+        <v>0.03435110814436187</v>
       </c>
       <c r="C147" t="n">
-        <v>0.04149510352890035</v>
+        <v>0.04136889087244982</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0347947856773767</v>
+        <v>0.03480224244263745</v>
       </c>
       <c r="E147" t="n">
-        <v>0.03948301970270705</v>
+        <v>0.03947901514358554</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01933898261551841</v>
+        <v>0.01941631203303734</v>
       </c>
       <c r="G147" t="n">
-        <v>0.02294391435435598</v>
+        <v>0.02295551376698382</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0641153390356414</v>
+        <v>0.06390875902026942</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05985200254192843</v>
+        <v>0.05987754886735878</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04460567934859908</v>
+        <v>0.0446033318484244</v>
       </c>
       <c r="K147" t="n">
-        <v>0.03590529134824668</v>
+        <v>0.03594878914560107</v>
       </c>
       <c r="L147" t="n">
-        <v>0.01837112210232173</v>
+        <v>0.01842124813546346</v>
       </c>
       <c r="M147" t="n">
-        <v>0.01762185528186158</v>
+        <v>0.01771161264148177</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03356372896812454</v>
+        <v>0.03356386705637011</v>
       </c>
       <c r="O147" t="n">
         <v>0.06600714799994366</v>
@@ -27683,43 +27683,43 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.03409452327532896</v>
+        <v>0.03412798759954779</v>
       </c>
       <c r="C148" t="n">
-        <v>0.04141086688097549</v>
+        <v>0.04128551281402462</v>
       </c>
       <c r="D148" t="n">
-        <v>0.03466684550879282</v>
+        <v>0.03467425154775929</v>
       </c>
       <c r="E148" t="n">
-        <v>0.03927943629620151</v>
+        <v>0.03927545897897878</v>
       </c>
       <c r="F148" t="n">
-        <v>0.01922251128632337</v>
+        <v>0.01929931465338297</v>
       </c>
       <c r="G148" t="n">
-        <v>0.02282760647655365</v>
+        <v>0.02283912698161259</v>
       </c>
       <c r="H148" t="n">
-        <v>0.06371058735786406</v>
+        <v>0.06350541264871909</v>
       </c>
       <c r="I148" t="n">
-        <v>0.05945472078067331</v>
+        <v>0.05948009332157693</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04431650283548431</v>
+        <v>0.04431417130469857</v>
       </c>
       <c r="K148" t="n">
-        <v>0.03566213485656354</v>
+        <v>0.03570533675053457</v>
       </c>
       <c r="L148" t="n">
-        <v>0.01824710852466629</v>
+        <v>0.01829689356438529</v>
       </c>
       <c r="M148" t="n">
-        <v>0.01750458454384354</v>
+        <v>0.0175937313091806</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0337121522264679</v>
+        <v>0.03371228937533764</v>
       </c>
       <c r="O148" t="n">
         <v>0.06809784255227463</v>
@@ -27868,43 +27868,43 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.03387518887206394</v>
+        <v>0.03390842708598399</v>
       </c>
       <c r="C149" t="n">
-        <v>0.04143197854010136</v>
+        <v>0.04130747146008935</v>
       </c>
       <c r="D149" t="n">
-        <v>0.03482533863473764</v>
+        <v>0.03483269463290027</v>
       </c>
       <c r="E149" t="n">
-        <v>0.03912968733738476</v>
+        <v>0.03912573689392705</v>
       </c>
       <c r="F149" t="n">
-        <v>0.01911251789278442</v>
+        <v>0.01918880231817471</v>
       </c>
       <c r="G149" t="n">
-        <v>0.02269638744205789</v>
+        <v>0.02270783010586644</v>
       </c>
       <c r="H149" t="n">
-        <v>0.06334290884501566</v>
+        <v>0.06313912045147302</v>
       </c>
       <c r="I149" t="n">
-        <v>0.05936631072717038</v>
+        <v>0.05939151183198682</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04405888721729128</v>
+        <v>0.04405657144009193</v>
       </c>
       <c r="K149" t="n">
-        <v>0.03546462936394591</v>
+        <v>0.03550753935322795</v>
       </c>
       <c r="L149" t="n">
-        <v>0.01814411435689232</v>
+        <v>0.01819356301120782</v>
       </c>
       <c r="M149" t="n">
-        <v>0.01739598209931469</v>
+        <v>0.01748452652164271</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03369959847147807</v>
+        <v>0.03369973469366627</v>
       </c>
       <c r="O149" t="n">
         <v>0.06995990163668235</v>
@@ -28053,43 +28053,43 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.03377313376854683</v>
+        <v>0.03380614890720567</v>
       </c>
       <c r="C150" t="n">
-        <v>0.04151518378404635</v>
+        <v>0.04139151232202101</v>
       </c>
       <c r="D150" t="n">
-        <v>0.03483746606645866</v>
+        <v>0.03484463738756079</v>
       </c>
       <c r="E150" t="n">
-        <v>0.03898397805088634</v>
+        <v>0.03898018942841729</v>
       </c>
       <c r="F150" t="n">
-        <v>0.01905271178095159</v>
+        <v>0.01912848423033255</v>
       </c>
       <c r="G150" t="n">
-        <v>0.02259818587225387</v>
+        <v>0.02260955173966102</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06326958930926511</v>
+        <v>0.06306716862306169</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05931832668993873</v>
+        <v>0.05934335865982351</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04394802064095645</v>
+        <v>0.04394572040588595</v>
       </c>
       <c r="K150" t="n">
-        <v>0.03545338783356961</v>
+        <v>0.03549600983634639</v>
       </c>
       <c r="L150" t="n">
-        <v>0.01808011826996885</v>
+        <v>0.01812923505412115</v>
       </c>
       <c r="M150" t="n">
-        <v>0.01733511272301963</v>
+        <v>0.01742306288747967</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03431544801340198</v>
+        <v>0.03431558332134731</v>
       </c>
       <c r="O150" t="n">
         <v>0.0700899216012234</v>
@@ -28238,43 +28238,43 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03363803149130058</v>
+        <v>0.03367082652903503</v>
       </c>
       <c r="C151" t="n">
-        <v>0.04173719615867959</v>
+        <v>0.04161434917306775</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03498450972090617</v>
+        <v>0.03499163323320095</v>
       </c>
       <c r="E151" t="n">
-        <v>0.03887340981028609</v>
+        <v>0.03886964644530016</v>
       </c>
       <c r="F151" t="n">
-        <v>0.01899625679589793</v>
+        <v>0.01907152409561635</v>
       </c>
       <c r="G151" t="n">
-        <v>0.02254537878940613</v>
+        <v>0.02255666888436389</v>
       </c>
       <c r="H151" t="n">
-        <v>0.06314348501038286</v>
+        <v>0.06294241379542079</v>
       </c>
       <c r="I151" t="n">
-        <v>0.05917783915646862</v>
+        <v>0.05920270424655417</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04380355234773493</v>
+        <v>0.0438012674475649</v>
       </c>
       <c r="K151" t="n">
-        <v>0.03527643931909975</v>
+        <v>0.03531877717519136</v>
       </c>
       <c r="L151" t="n">
-        <v>0.01804520070159876</v>
+        <v>0.01809399004052338</v>
       </c>
       <c r="M151" t="n">
-        <v>0.01730139849330995</v>
+        <v>0.01738876232334026</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03455467967715704</v>
+        <v>0.0345548140830494</v>
       </c>
       <c r="O151" t="n">
         <v>0.07082652903503289</v>
@@ -28423,43 +28423,43 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.03384678609475802</v>
+        <v>0.03387936394681212</v>
       </c>
       <c r="C152" t="n">
-        <v>0.041759732733438</v>
+        <v>0.04163769930402226</v>
       </c>
       <c r="D152" t="n">
-        <v>0.03495349845408746</v>
+        <v>0.03496057479080412</v>
       </c>
       <c r="E152" t="n">
-        <v>0.03875536049195761</v>
+        <v>0.03875162204991862</v>
       </c>
       <c r="F152" t="n">
-        <v>0.01900410307365358</v>
+        <v>0.01907887191443347</v>
       </c>
       <c r="G152" t="n">
-        <v>0.02250288427479098</v>
+        <v>0.02251409960090796</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0628896741694083</v>
+        <v>0.06268993455189632</v>
       </c>
       <c r="I152" t="n">
-        <v>0.05888019508258686</v>
+        <v>0.05890489550320164</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0437812952660242</v>
+        <v>0.04377902549764338</v>
       </c>
       <c r="K152" t="n">
-        <v>0.03537834568866174</v>
+        <v>0.03542040316160043</v>
       </c>
       <c r="L152" t="n">
-        <v>0.01810153635281066</v>
+        <v>0.01815000258353048</v>
       </c>
       <c r="M152" t="n">
-        <v>0.01742754865949482</v>
+        <v>0.01751433392111433</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03462064359682986</v>
+        <v>0.03462077711261696</v>
       </c>
       <c r="O152" t="n">
         <v>0.07214392040536462</v>
@@ -28608,43 +28608,43 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03377730606025558</v>
+        <v>0.03380953694694186</v>
       </c>
       <c r="C153" t="n">
-        <v>0.04171034858168182</v>
+        <v>0.04158911800377539</v>
       </c>
       <c r="D153" t="n">
-        <v>0.03498748964101955</v>
+        <v>0.03499451942288939</v>
       </c>
       <c r="E153" t="n">
-        <v>0.03868144105753386</v>
+        <v>0.0386775945731145</v>
       </c>
       <c r="F153" t="n">
-        <v>0.01900455105425506</v>
+        <v>0.01907869535737289</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02258814815915214</v>
+        <v>0.02259955497501642</v>
       </c>
       <c r="H153" t="n">
-        <v>0.06299865028188099</v>
+        <v>0.06280022474080001</v>
       </c>
       <c r="I153" t="n">
-        <v>0.05871340136393684</v>
+        <v>0.05873767400699689</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0435907489131692</v>
+        <v>0.04358849407747509</v>
       </c>
       <c r="K153" t="n">
-        <v>0.03531616510278337</v>
+        <v>0.03535821115660868</v>
       </c>
       <c r="L153" t="n">
-        <v>0.01804279731202363</v>
+        <v>0.0180909446859624</v>
       </c>
       <c r="M153" t="n">
-        <v>0.01738730331200878</v>
+        <v>0.01747365025535351</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03499080557586381</v>
+        <v>0.03499093821325758</v>
       </c>
       <c r="O153" t="n">
         <v>0.07282376522544642</v>
@@ -28793,43 +28793,43 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03377461950284841</v>
+        <v>0.03380703504159269</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0418539948791355</v>
+        <v>0.04173447905132632</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03506478429896719</v>
+        <v>0.03507110928213681</v>
       </c>
       <c r="E154" t="n">
-        <v>0.03855630677907743</v>
+        <v>0.03855327605797532</v>
       </c>
       <c r="F154" t="n">
-        <v>0.01897547659077609</v>
+        <v>0.01904900452012287</v>
       </c>
       <c r="G154" t="n">
-        <v>0.02268073079382624</v>
+        <v>0.02269311721920007</v>
       </c>
       <c r="H154" t="n">
-        <v>0.06294267470097654</v>
+        <v>0.06274370127209906</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0584012050147102</v>
+        <v>0.05842571432449246</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04337225438080852</v>
+        <v>0.04336961897115452</v>
       </c>
       <c r="K154" t="n">
-        <v>0.03524188382771642</v>
+        <v>0.03528405038218052</v>
       </c>
       <c r="L154" t="n">
-        <v>0.01806850035834983</v>
+        <v>0.01811580596163924</v>
       </c>
       <c r="M154" t="n">
-        <v>0.01743521141849212</v>
+        <v>0.01752059869128192</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03552334557876429</v>
+        <v>0.03552347734924699</v>
       </c>
       <c r="O154" t="n">
         <v>0.07350342003699324</v>
@@ -28978,43 +28978,43 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.03370624859102914</v>
+        <v>0.03373858455409231</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04195833399881705</v>
+        <v>0.04183959424781183</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03501971708257872</v>
+        <v>0.03502613190925927</v>
       </c>
       <c r="E155" t="n">
-        <v>0.03844143799991465</v>
+        <v>0.0384384269588197</v>
       </c>
       <c r="F155" t="n">
-        <v>0.01892452419659532</v>
+        <v>0.01899744375702522</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0226171078976466</v>
+        <v>0.02262941389168683</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06280730619957652</v>
+        <v>0.06260949389112128</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0584910442473798</v>
+        <v>0.05851631080961135</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04354279618891219</v>
+        <v>0.04353926148849638</v>
       </c>
       <c r="K155" t="n">
-        <v>0.03516987639283561</v>
+        <v>0.03521176913850449</v>
       </c>
       <c r="L155" t="n">
-        <v>0.01801689167871301</v>
+        <v>0.0180640210175905</v>
       </c>
       <c r="M155" t="n">
-        <v>0.01738444213394315</v>
+        <v>0.01746914402909242</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03589396631875614</v>
+        <v>0.03589409723358636</v>
       </c>
       <c r="O155" t="n">
         <v>0.07390469452726262</v>
@@ -29163,43 +29163,43 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.03369703134237018</v>
+        <v>0.03372915868631681</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0420857800083375</v>
+        <v>0.04196858674155243</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03496105372485336</v>
+        <v>0.03496716702511851</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0383981592462691</v>
+        <v>0.03839620819299298</v>
       </c>
       <c r="F156" t="n">
-        <v>0.01888138311467446</v>
+        <v>0.01895266159436172</v>
       </c>
       <c r="G156" t="n">
-        <v>0.02262961659852071</v>
+        <v>0.02264314390123508</v>
       </c>
       <c r="H156" t="n">
-        <v>0.06287347224399092</v>
+        <v>0.06266522982432066</v>
       </c>
       <c r="I156" t="n">
-        <v>0.05849673946480007</v>
+        <v>0.0585288668087467</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0434590613742829</v>
+        <v>0.0434571103210068</v>
       </c>
       <c r="K156" t="n">
-        <v>0.03513664851970336</v>
+        <v>0.0351794416215594</v>
       </c>
       <c r="L156" t="n">
-        <v>0.01795424259786646</v>
+        <v>0.01800132801692994</v>
       </c>
       <c r="M156" t="n">
-        <v>0.01734200207982279</v>
+        <v>0.01742615751113238</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03614781439760255</v>
+        <v>0.03614794446782095</v>
       </c>
       <c r="O156" t="n">
         <v>0.07419465398395324</v>
@@ -29348,43 +29348,43 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.033684442879822</v>
+        <v>0.03371662275212607</v>
       </c>
       <c r="C157" t="n">
-        <v>0.04222335261023997</v>
+        <v>0.04210716905521446</v>
       </c>
       <c r="D157" t="n">
-        <v>0.03499128171009786</v>
+        <v>0.03499864818689036</v>
       </c>
       <c r="E157" t="n">
-        <v>0.03842237982174677</v>
+        <v>0.03842069974809234</v>
       </c>
       <c r="F157" t="n">
-        <v>0.01892150644191934</v>
+        <v>0.01899426655479961</v>
       </c>
       <c r="G157" t="n">
-        <v>0.02268047738905181</v>
+        <v>0.02269172095889299</v>
       </c>
       <c r="H157" t="n">
-        <v>0.06284018260591313</v>
+        <v>0.0626319827091989</v>
       </c>
       <c r="I157" t="n">
-        <v>0.05833913604926286</v>
+        <v>0.05836679264634346</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04339591478459646</v>
+        <v>0.04339733638538098</v>
       </c>
       <c r="K157" t="n">
-        <v>0.03509531704023751</v>
+        <v>0.03513809430020796</v>
       </c>
       <c r="L157" t="n">
-        <v>0.01789019969096984</v>
+        <v>0.01793685404398898</v>
       </c>
       <c r="M157" t="n">
-        <v>0.01730605100496837</v>
+        <v>0.01738992545125486</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03640991005661073</v>
+        <v>0.03641003929304568</v>
       </c>
       <c r="O157" t="n">
         <v>0.07442403198033125</v>
@@ -29533,43 +29533,43 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0338311188250391</v>
+        <v>0.03386309373000364</v>
       </c>
       <c r="C158" t="n">
-        <v>0.04233194908105536</v>
+        <v>0.04221650554867332</v>
       </c>
       <c r="D158" t="n">
-        <v>0.03491415636909929</v>
+        <v>0.03492147592565745</v>
       </c>
       <c r="E158" t="n">
-        <v>0.03846247192725337</v>
+        <v>0.03846080255470502</v>
       </c>
       <c r="F158" t="n">
-        <v>0.01890898285515869</v>
+        <v>0.01898127952782953</v>
       </c>
       <c r="G158" t="n">
-        <v>0.02269524820808909</v>
+        <v>0.02270642016283574</v>
       </c>
       <c r="H158" t="n">
-        <v>0.06261623808950842</v>
+        <v>0.06240936430678599</v>
       </c>
       <c r="I158" t="n">
-        <v>0.05841532627822251</v>
+        <v>0.05844280671863381</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04341691282420981</v>
+        <v>0.04341832537021226</v>
       </c>
       <c r="K158" t="n">
-        <v>0.03497296964811039</v>
+        <v>0.03501547444145684</v>
       </c>
       <c r="L158" t="n">
-        <v>0.01789554530503738</v>
+        <v>0.01794190249657233</v>
       </c>
       <c r="M158" t="n">
-        <v>0.01738882652997673</v>
+        <v>0.01747216674412127</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03658969275455074</v>
+        <v>0.03658982116782369</v>
       </c>
       <c r="O158" t="n">
         <v>0.07456445107114006</v>
@@ -29718,43 +29718,43 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.03380074258404855</v>
+        <v>0.03383251511619687</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0423753706476416</v>
+        <v>0.0422606577705278</v>
       </c>
       <c r="D159" t="n">
-        <v>0.03486505861075177</v>
+        <v>0.03487220424047188</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03863833390455838</v>
+        <v>0.03863680269818978</v>
       </c>
       <c r="F159" t="n">
-        <v>0.01897828213447105</v>
+        <v>0.01905012123326423</v>
       </c>
       <c r="G159" t="n">
-        <v>0.02277005950523149</v>
+        <v>0.0227811607514038</v>
       </c>
       <c r="H159" t="n">
-        <v>0.06272472048465744</v>
+        <v>0.06251915602967376</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05834968108799358</v>
+        <v>0.05837698760156683</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04319852167129134</v>
+        <v>0.04319992527712922</v>
       </c>
       <c r="K159" t="n">
-        <v>0.03484477012636791</v>
+        <v>0.03488700590203495</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0178741547421844</v>
+        <v>0.01792021853377293</v>
       </c>
       <c r="M159" t="n">
-        <v>0.01735954180180626</v>
+        <v>0.01744235454624103</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03666078087951984</v>
+        <v>0.03666090848005055</v>
       </c>
       <c r="O159" t="n">
         <v>0.07485825495045399</v>
@@ -29903,43 +29903,43 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03390845107479701</v>
+        <v>0.0339400237796991</v>
       </c>
       <c r="C160" t="n">
-        <v>0.04240734140199801</v>
+        <v>0.04229334998952015</v>
       </c>
       <c r="D160" t="n">
-        <v>0.03494996994253134</v>
+        <v>0.03495694383317236</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0388252975727437</v>
+        <v>0.03882377599660384</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01893753663670049</v>
+        <v>0.01900892391726227</v>
       </c>
       <c r="G160" t="n">
-        <v>0.02273234752951192</v>
+        <v>0.02274363255254922</v>
       </c>
       <c r="H160" t="n">
-        <v>0.06257925668216012</v>
+        <v>0.06237485828737222</v>
       </c>
       <c r="I160" t="n">
-        <v>0.05839986741999902</v>
+        <v>0.05842712899250484</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04304513540062276</v>
+        <v>0.04304678377477427</v>
       </c>
       <c r="K160" t="n">
-        <v>0.03470043145559426</v>
+        <v>0.03474202120341711</v>
       </c>
       <c r="L160" t="n">
-        <v>0.01781334546536709</v>
+        <v>0.01785937314359786</v>
       </c>
       <c r="M160" t="n">
-        <v>0.01733519016341601</v>
+        <v>0.01741722847695681</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03669293541074124</v>
+        <v>0.0366930622087529</v>
       </c>
       <c r="O160" t="n">
         <v>0.07542275408070871</v>
@@ -30088,43 +30088,43 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.03395231446946634</v>
+        <v>0.03398368984496281</v>
       </c>
       <c r="C161" t="n">
-        <v>0.04238888832886434</v>
+        <v>0.04227560936271446</v>
       </c>
       <c r="D161" t="n">
-        <v>0.03496476885546662</v>
+        <v>0.03497169915929114</v>
       </c>
       <c r="E161" t="n">
-        <v>0.03899341747142195</v>
+        <v>0.03899190540513296</v>
       </c>
       <c r="F161" t="n">
-        <v>0.01886743714844459</v>
+        <v>0.01893837825850285</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02274928932884418</v>
+        <v>0.02276050382048749</v>
       </c>
       <c r="H161" t="n">
-        <v>0.06250504022096329</v>
+        <v>0.06230191931614282</v>
       </c>
       <c r="I161" t="n">
-        <v>0.05827667284933771</v>
+        <v>0.05830376403701538</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04336152496925465</v>
+        <v>0.04336316304106772</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0347083476139594</v>
+        <v>0.03474967742585835</v>
       </c>
       <c r="L161" t="n">
-        <v>0.01780760468538941</v>
+        <v>0.01785334469063124</v>
       </c>
       <c r="M161" t="n">
-        <v>0.01727863349529243</v>
+        <v>0.0173601590693736</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0368319187113163</v>
+        <v>0.03683204471684039</v>
       </c>
       <c r="O161" t="n">
         <v>0.07570487490171569</v>
@@ -30273,43 +30273,43 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0340439690093405</v>
+        <v>0.03407514950672829</v>
       </c>
       <c r="C162" t="n">
-        <v>0.04257853446903808</v>
+        <v>0.04246558343030802</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03512251368404339</v>
+        <v>0.03512952616538361</v>
       </c>
       <c r="E162" t="n">
-        <v>0.03920515527574642</v>
+        <v>0.03920390304693566</v>
       </c>
       <c r="F162" t="n">
-        <v>0.01885430831200683</v>
+        <v>0.01892480879405231</v>
       </c>
       <c r="G162" t="n">
-        <v>0.02273922297449172</v>
+        <v>0.02275074347955067</v>
       </c>
       <c r="H162" t="n">
-        <v>0.062428740354238</v>
+        <v>0.06222750718434975</v>
       </c>
       <c r="I162" t="n">
-        <v>0.05809966013257847</v>
+        <v>0.05812583171472324</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04318987257444844</v>
+        <v>0.04319125002614028</v>
       </c>
       <c r="K162" t="n">
-        <v>0.03465994036135066</v>
+        <v>0.03470101346634341</v>
       </c>
       <c r="L162" t="n">
-        <v>0.01777225739663383</v>
+        <v>0.01781771330246422</v>
       </c>
       <c r="M162" t="n">
-        <v>0.01725759135541372</v>
+        <v>0.01733861055946954</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03700523970101284</v>
+        <v>0.03700536492389392</v>
       </c>
       <c r="O162" t="n">
         <v>0.0761198588337417</v>
@@ -30458,43 +30458,43 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.03406504896730228</v>
+        <v>0.03409591254258364</v>
       </c>
       <c r="C163" t="n">
-        <v>0.04271058354309364</v>
+        <v>0.0425987030826987</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0350824269024843</v>
+        <v>0.03508939609690267</v>
       </c>
       <c r="E163" t="n">
-        <v>0.03938864235363634</v>
+        <v>0.03938739785463306</v>
       </c>
       <c r="F163" t="n">
-        <v>0.01898010319883535</v>
+        <v>0.01905016849272005</v>
       </c>
       <c r="G163" t="n">
-        <v>0.02270700436396021</v>
+        <v>0.02271832930489006</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0623986822248954</v>
+        <v>0.06219906458476918</v>
       </c>
       <c r="I163" t="n">
-        <v>0.05794536699155558</v>
+        <v>0.0579716259205248</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0430800752971677</v>
+        <v>0.04308107089637032</v>
       </c>
       <c r="K163" t="n">
-        <v>0.03469476546296234</v>
+        <v>0.03473558503026995</v>
       </c>
       <c r="L163" t="n">
-        <v>0.01776273427382612</v>
+        <v>0.01780790958764521</v>
       </c>
       <c r="M163" t="n">
-        <v>0.01726194787490595</v>
+        <v>0.01734209361071723</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03714717519882738</v>
+        <v>0.03714729964872771</v>
       </c>
       <c r="O163" t="n">
         <v>0.07664732466315767</v>
@@ -30643,43 +30643,43 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.03416057686349338</v>
+        <v>0.03419125109168712</v>
       </c>
       <c r="C164" t="n">
-        <v>0.04262889020023963</v>
+        <v>0.0425176961230373</v>
       </c>
       <c r="D164" t="n">
-        <v>0.03524357501697905</v>
+        <v>0.03525050145560345</v>
       </c>
       <c r="E164" t="n">
-        <v>0.03965447955667824</v>
+        <v>0.03965324269263817</v>
       </c>
       <c r="F164" t="n">
-        <v>0.01898017344049688</v>
+        <v>0.01904980888595285</v>
       </c>
       <c r="G164" t="n">
-        <v>0.02265638074039424</v>
+        <v>0.02266763620315888</v>
       </c>
       <c r="H164" t="n">
-        <v>0.06227227013902228</v>
+        <v>0.06207400083339899</v>
       </c>
       <c r="I164" t="n">
-        <v>0.05800335759112318</v>
+        <v>0.05802933173596465</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04303445791897872</v>
+        <v>0.04303544741021078</v>
       </c>
       <c r="K164" t="n">
-        <v>0.03481104366216642</v>
+        <v>0.03485161280268073</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0177741073150242</v>
+        <v>0.01781900547967876</v>
       </c>
       <c r="M164" t="n">
-        <v>0.01728665919683244</v>
+        <v>0.01736631324101298</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03723950251844071</v>
+        <v>0.03723962620484472</v>
       </c>
       <c r="O164" t="n">
         <v>0.0771352942493367</v>
@@ -30828,43 +30828,43 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.03440368776986695</v>
+        <v>0.03443417496008391</v>
       </c>
       <c r="C165" t="n">
-        <v>0.04269595764444167</v>
+        <v>0.0425854415799052</v>
       </c>
       <c r="D165" t="n">
-        <v>0.03523925805980505</v>
+        <v>0.03524614226404759</v>
       </c>
       <c r="E165" t="n">
-        <v>0.03979217570849525</v>
+        <v>0.03979094638630909</v>
       </c>
       <c r="F165" t="n">
-        <v>0.01917828662974438</v>
+        <v>0.01924749746882562</v>
       </c>
       <c r="G165" t="n">
-        <v>0.02274836119059362</v>
+        <v>0.02275954802248775</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0621188793892334</v>
+        <v>0.06192181904279074</v>
       </c>
       <c r="I165" t="n">
-        <v>0.05782657804401072</v>
+        <v>0.05785239380992024</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04305295280730473</v>
+        <v>0.04305393626505367</v>
       </c>
       <c r="K165" t="n">
-        <v>0.03478735922416985</v>
+        <v>0.03482768099187615</v>
       </c>
       <c r="L165" t="n">
-        <v>0.01773174321328101</v>
+        <v>0.01777636760863889</v>
       </c>
       <c r="M165" t="n">
-        <v>0.01727787746214794</v>
+        <v>0.01735704581093713</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03734385764252392</v>
+        <v>0.03734398057474254</v>
       </c>
       <c r="O165" t="n">
         <v>0.07774098279883224</v>
@@ -31013,43 +31013,43 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.03442086028324209</v>
+        <v>0.03445116270260925</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04277980710310704</v>
+        <v>0.0426699608329011</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03531148260085177</v>
+        <v>0.03531832508264435</v>
       </c>
       <c r="E166" t="n">
-        <v>0.03995618367909249</v>
+        <v>0.03995496180734381</v>
       </c>
       <c r="F166" t="n">
-        <v>0.01912327036417277</v>
+        <v>0.0191920617436232</v>
       </c>
       <c r="G166" t="n">
-        <v>0.02274660884769552</v>
+        <v>0.02275772788060847</v>
       </c>
       <c r="H166" t="n">
-        <v>0.06249434120646395</v>
+        <v>0.06229847516515124</v>
       </c>
       <c r="I166" t="n">
-        <v>0.05768969711632158</v>
+        <v>0.05771535642304377</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04303640017032892</v>
+        <v>0.04303737766772786</v>
       </c>
       <c r="K166" t="n">
-        <v>0.03462112506285003</v>
+        <v>0.03466120245620659</v>
       </c>
       <c r="L166" t="n">
-        <v>0.01771714035579684</v>
+        <v>0.01776149430027376</v>
       </c>
       <c r="M166" t="n">
-        <v>0.01743977546884746</v>
+        <v>0.01751846400946218</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03748702524936875</v>
+        <v>0.03748714743654362</v>
       </c>
       <c r="O166" t="n">
         <v>0.0782491555338877</v>
@@ -31198,43 +31198,43 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.03442142999934659</v>
+        <v>0.03445154987401877</v>
       </c>
       <c r="C167" t="n">
-        <v>0.04294207535166775</v>
+        <v>0.04283289080598113</v>
       </c>
       <c r="D167" t="n">
-        <v>0.03539716819739594</v>
+        <v>0.03540396945941869</v>
       </c>
       <c r="E167" t="n">
-        <v>0.04021027558956618</v>
+        <v>0.04020906107849069</v>
       </c>
       <c r="F167" t="n">
-        <v>0.01907656836494989</v>
+        <v>0.01914494533850003</v>
       </c>
       <c r="G167" t="n">
-        <v>0.02271524354712048</v>
+        <v>0.02272629559790745</v>
       </c>
       <c r="H167" t="n">
-        <v>0.06236538662867028</v>
+        <v>0.0621707005032691</v>
       </c>
       <c r="I167" t="n">
-        <v>0.05759235810199124</v>
+        <v>0.05761786283457655</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04335075832857042</v>
+        <v>0.04335172993743082</v>
       </c>
       <c r="K167" t="n">
-        <v>0.03462692527331965</v>
+        <v>0.03466676123659575</v>
       </c>
       <c r="L167" t="n">
-        <v>0.01778979388046733</v>
+        <v>0.01783388063250765</v>
       </c>
       <c r="M167" t="n">
-        <v>0.01743418503756361</v>
+        <v>0.01751239955082522</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03760988592583273</v>
+        <v>0.03761000737694027</v>
       </c>
       <c r="O167" t="n">
         <v>0.07875035554811735</v>
@@ -31383,43 +31383,43 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.03455708288670537</v>
+        <v>0.03458702240284657</v>
       </c>
       <c r="C168" t="n">
-        <v>0.04322674583898069</v>
+        <v>0.04311857726453506</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0355430346138231</v>
+        <v>0.03554967442587054</v>
       </c>
       <c r="E168" t="n">
-        <v>0.04050478507109488</v>
+        <v>0.04050321566097458</v>
       </c>
       <c r="F168" t="n">
-        <v>0.01909609944844892</v>
+        <v>0.01916406697904367</v>
       </c>
       <c r="G168" t="n">
-        <v>0.02269258382491081</v>
+        <v>0.02270369041960835</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0622732277828569</v>
+        <v>0.06207994889034858</v>
       </c>
       <c r="I168" t="n">
-        <v>0.05749026935544447</v>
+        <v>0.05751743222291129</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04332610157198154</v>
+        <v>0.04332513578113827</v>
       </c>
       <c r="K168" t="n">
-        <v>0.03459523162501432</v>
+        <v>0.03463458760187735</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0177558232057085</v>
+        <v>0.01779976668907704</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0174641543710426</v>
+        <v>0.0175419005339254</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03763312672250306</v>
+        <v>0.03763324744635847</v>
       </c>
       <c r="O168" t="n">
         <v>0.07924579461467782</v>
@@ -31568,43 +31568,43 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.03460579711814566</v>
+        <v>0.03463603844392538</v>
       </c>
       <c r="C169" t="n">
-        <v>0.04332129920575718</v>
+        <v>0.04321353448135166</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0356034008530934</v>
+        <v>0.03561012114771112</v>
       </c>
       <c r="E169" t="n">
-        <v>0.04072234526761653</v>
+        <v>0.04072090520448417</v>
       </c>
       <c r="F169" t="n">
-        <v>0.01907075606194576</v>
+        <v>0.01913819901864498</v>
       </c>
       <c r="G169" t="n">
-        <v>0.02274291704948345</v>
+        <v>0.02275383752823724</v>
       </c>
       <c r="H169" t="n">
-        <v>0.06230325137454026</v>
+        <v>0.06211172297793535</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0575468428535907</v>
+        <v>0.05757300400049538</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04334302015800372</v>
+        <v>0.04334266014222064</v>
       </c>
       <c r="K169" t="n">
-        <v>0.03466051951717564</v>
+        <v>0.03469952122701059</v>
       </c>
       <c r="L169" t="n">
-        <v>0.01779258002670837</v>
+        <v>0.01783590192594043</v>
       </c>
       <c r="M169" t="n">
-        <v>0.01747384605341098</v>
+        <v>0.01755100943625369</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03764205022748197</v>
+        <v>0.037642170232743</v>
       </c>
       <c r="O169" t="n">
         <v>0.07982101935348845</v>
@@ -31753,43 +31753,43 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.03465882595180547</v>
+        <v>0.0346888883348291</v>
       </c>
       <c r="C170" t="n">
-        <v>0.04342976478929073</v>
+        <v>0.04332263772597637</v>
       </c>
       <c r="D170" t="n">
-        <v>0.03561867489548848</v>
+        <v>0.03562535542504929</v>
       </c>
       <c r="E170" t="n">
-        <v>0.04093160461906129</v>
+        <v>0.04093017307701255</v>
       </c>
       <c r="F170" t="n">
-        <v>0.01901219065420159</v>
+        <v>0.01907923454015112</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0227161864101566</v>
+        <v>0.02272704227069291</v>
       </c>
       <c r="H170" t="n">
-        <v>0.06220634748130317</v>
+        <v>0.06201595238882018</v>
       </c>
       <c r="I170" t="n">
-        <v>0.05749896004434917</v>
+        <v>0.05752496639156802</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04357709432514066</v>
+        <v>0.04357673643962847</v>
       </c>
       <c r="K170" t="n">
-        <v>0.03474972887190073</v>
+        <v>0.03478849980238755</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0179892345652031</v>
+        <v>0.01803230012183616</v>
       </c>
       <c r="M170" t="n">
-        <v>0.01762502640896842</v>
+        <v>0.01770173320374696</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03779664682748212</v>
+        <v>0.03779676612265286</v>
       </c>
       <c r="O170" t="n">
         <v>0.08036903722474578</v>
@@ -31938,43 +31938,43 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.03468359864661173</v>
+        <v>0.03471348419208816</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04348240132729772</v>
+        <v>0.04337590442317932</v>
       </c>
       <c r="D171" t="n">
-        <v>0.03583075293785586</v>
+        <v>0.03583739417018395</v>
       </c>
       <c r="E171" t="n">
-        <v>0.04090844942642285</v>
+        <v>0.04090702630520969</v>
       </c>
       <c r="F171" t="n">
-        <v>0.01903922715030651</v>
+        <v>0.01910587666045632</v>
       </c>
       <c r="G171" t="n">
-        <v>0.02284406030713328</v>
+        <v>0.02285485230966643</v>
       </c>
       <c r="H171" t="n">
-        <v>0.06254309388923611</v>
+        <v>0.06235381876788537</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0576118602921905</v>
+        <v>0.0576377136608963</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04349746269347037</v>
+        <v>0.04349710691316707</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0347081474875388</v>
+        <v>0.03474669035372864</v>
       </c>
       <c r="L171" t="n">
-        <v>0.01797224202073725</v>
+        <v>0.01801505425056658</v>
       </c>
       <c r="M171" t="n">
-        <v>0.01769971430841646</v>
+        <v>0.01777596988675513</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03806339293444037</v>
+        <v>0.03806351152787479</v>
       </c>
       <c r="O171" t="n">
         <v>0.08117412243823358</v>
@@ -32123,43 +32123,43 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.03478353754186479</v>
+        <v>0.03481324831806942</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0435716786034426</v>
+        <v>0.04346568658833161</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03597232228976708</v>
+        <v>0.03597904258438479</v>
       </c>
       <c r="E172" t="n">
-        <v>0.04118279071670292</v>
+        <v>0.04118137591783603</v>
       </c>
       <c r="F172" t="n">
-        <v>0.01910426489939424</v>
+        <v>0.01917052464632681</v>
       </c>
       <c r="G172" t="n">
-        <v>0.02290783375311595</v>
+        <v>0.02291856264452318</v>
       </c>
       <c r="H172" t="n">
-        <v>0.06247751796175587</v>
+        <v>0.06228934971245981</v>
       </c>
       <c r="I172" t="n">
-        <v>0.05757759788610185</v>
+        <v>0.05760330006551698</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04345955579324177</v>
+        <v>0.04345920209352504</v>
       </c>
       <c r="K172" t="n">
-        <v>0.03480723542288515</v>
+        <v>0.03484555289219669</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0180434015490397</v>
+        <v>0.0180859634149519</v>
       </c>
       <c r="M172" t="n">
-        <v>0.01775383938095004</v>
+        <v>0.0178296490202341</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03877574624450483</v>
+        <v>0.03877586414441041</v>
       </c>
       <c r="O172" t="n">
         <v>0.08215501220205072</v>
@@ -32308,43 +32308,43 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03472770850925267</v>
+        <v>0.03475724654838636</v>
       </c>
       <c r="C173" t="n">
-        <v>0.04361865828849099</v>
+        <v>0.04351328250602599</v>
       </c>
       <c r="D173" t="n">
-        <v>0.036226060708641</v>
+        <v>0.03623274193177838</v>
       </c>
       <c r="E173" t="n">
-        <v>0.04156717114199217</v>
+        <v>0.04156576456870009</v>
       </c>
       <c r="F173" t="n">
-        <v>0.01929865442510302</v>
+        <v>0.01936452894094877</v>
       </c>
       <c r="G173" t="n">
-        <v>0.02302068178482898</v>
+        <v>0.02303134829896059</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0624060233219229</v>
+        <v>0.06221894907407625</v>
       </c>
       <c r="I173" t="n">
-        <v>0.05746098048473329</v>
+        <v>0.05748653323287274</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04332972469140954</v>
+        <v>0.04332937304808652</v>
       </c>
       <c r="K173" t="n">
-        <v>0.03491126632386913</v>
+        <v>0.0349493610171963</v>
       </c>
       <c r="L173" t="n">
-        <v>0.01825028846473932</v>
+        <v>0.01829260287794273</v>
       </c>
       <c r="M173" t="n">
-        <v>0.01779807515133557</v>
+        <v>0.01787344403690286</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03954756632344716</v>
+        <v>0.03954768353788816</v>
       </c>
       <c r="O173" t="n">
         <v>0.08292382514793635</v>
@@ -32493,43 +32493,43 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.03472251922946267</v>
+        <v>0.03475165345468399</v>
       </c>
       <c r="C174" t="n">
-        <v>0.04361649896812401</v>
+        <v>0.04351161575732729</v>
       </c>
       <c r="D174" t="n">
-        <v>0.03645973481095909</v>
+        <v>0.03646661048811131</v>
       </c>
       <c r="E174" t="n">
-        <v>0.04173279650221484</v>
+        <v>0.0417308153748998</v>
       </c>
       <c r="F174" t="n">
-        <v>0.01930725105416367</v>
+        <v>0.01937297786626295</v>
       </c>
       <c r="G174" t="n">
-        <v>0.02306847953023509</v>
+        <v>0.02307885131441388</v>
       </c>
       <c r="H174" t="n">
-        <v>0.06248766893917508</v>
+        <v>0.0623002776025516</v>
       </c>
       <c r="I174" t="n">
-        <v>0.05757715354657333</v>
+        <v>0.05760302473856985</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04343353603373417</v>
+        <v>0.04343388564443683</v>
       </c>
       <c r="K174" t="n">
-        <v>0.03494219128763137</v>
+        <v>0.03498029885422085</v>
       </c>
       <c r="L174" t="n">
-        <v>0.01833719789119486</v>
+        <v>0.0183795007862162</v>
       </c>
       <c r="M174" t="n">
-        <v>0.01785939659756533</v>
+        <v>0.01793479597243809</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04025196210266598</v>
+        <v>0.04025207863956687</v>
       </c>
       <c r="O174" t="n">
         <v>0.08381543678088721</v>
@@ -32678,43 +32678,43 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.03460476672814577</v>
+        <v>0.03463361764814252</v>
       </c>
       <c r="C175" t="n">
-        <v>0.04357578070705379</v>
+        <v>0.04347161614047918</v>
       </c>
       <c r="D175" t="n">
-        <v>0.03653905290656218</v>
+        <v>0.0365457732011799</v>
       </c>
       <c r="E175" t="n">
-        <v>0.04217459927925999</v>
+        <v>0.04217274540488269</v>
       </c>
       <c r="F175" t="n">
-        <v>0.01936452894094877</v>
+        <v>0.01942976214560005</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0231548909724892</v>
+        <v>0.02316531901586152</v>
       </c>
       <c r="H175" t="n">
-        <v>0.06257463292707993</v>
+        <v>0.06238843441930977</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0578840990182113</v>
+        <v>0.05791306580535663</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04348169658240576</v>
+        <v>0.04347926337228555</v>
       </c>
       <c r="K175" t="n">
-        <v>0.03495955193710175</v>
+        <v>0.03499686115894493</v>
       </c>
       <c r="L175" t="n">
-        <v>0.01836957773608105</v>
+        <v>0.01841175337816465</v>
       </c>
       <c r="M175" t="n">
-        <v>0.01789290028681754</v>
+        <v>0.01796775046480107</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04093064957209103</v>
+        <v>0.04093076543923962</v>
       </c>
       <c r="O175" t="n">
         <v>0.08452659116299796</v>
@@ -32863,43 +32863,43 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.03456854268491131</v>
+        <v>0.03459734394755866</v>
       </c>
       <c r="C176" t="n">
-        <v>0.04362677019760546</v>
+        <v>0.04352331606217617</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0366675787066505</v>
+        <v>0.03667483662483764</v>
       </c>
       <c r="E176" t="n">
-        <v>0.04229949280976478</v>
+        <v>0.04229730391380358</v>
       </c>
       <c r="F176" t="n">
-        <v>0.01944350200312782</v>
+        <v>0.01950813203650848</v>
       </c>
       <c r="G176" t="n">
-        <v>0.02310656179166895</v>
+        <v>0.02311681504117141</v>
       </c>
       <c r="H176" t="n">
-        <v>0.06264988897113249</v>
+        <v>0.0624647544548353</v>
       </c>
       <c r="I176" t="n">
-        <v>0.05798419962731166</v>
+        <v>0.05801300088995902</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04353575820763982</v>
+        <v>0.04353322369652685</v>
       </c>
       <c r="K176" t="n">
-        <v>0.03520977399649201</v>
+        <v>0.03524560276722531</v>
       </c>
       <c r="L176" t="n">
-        <v>0.01850953465799941</v>
+        <v>0.01855158450146454</v>
       </c>
       <c r="M176" t="n">
-        <v>0.01801438335056609</v>
+        <v>0.01808995786375275</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04157012963448318</v>
+        <v>0.04157024483953377</v>
       </c>
       <c r="O176" t="n">
         <v>0.08521798235634651</v>
@@ -33048,43 +33048,43 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03473010074943503</v>
+        <v>0.03475713466187449</v>
       </c>
       <c r="C177" t="n">
-        <v>0.04388577667972236</v>
+        <v>0.04378623231569745</v>
       </c>
       <c r="D177" t="n">
-        <v>0.03683668401113614</v>
+        <v>0.03684229698448162</v>
       </c>
       <c r="E177" t="n">
-        <v>0.04240738823080913</v>
+        <v>0.04240498267080393</v>
       </c>
       <c r="F177" t="n">
-        <v>0.01946040768972766</v>
+        <v>0.01952478505748601</v>
       </c>
       <c r="G177" t="n">
-        <v>0.02309727076616857</v>
+        <v>0.02310723665761871</v>
       </c>
       <c r="H177" t="n">
-        <v>0.06271157472998162</v>
+        <v>0.06252760666482164</v>
       </c>
       <c r="I177" t="n">
-        <v>0.05806208544182577</v>
+        <v>0.05809049395998248</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04350054342746022</v>
+        <v>0.04349825241793145</v>
       </c>
       <c r="K177" t="n">
-        <v>0.03520468337331908</v>
+        <v>0.03524053767244429</v>
       </c>
       <c r="L177" t="n">
-        <v>0.01857951452591682</v>
+        <v>0.0186209817983875</v>
       </c>
       <c r="M177" t="n">
-        <v>0.01816816376502673</v>
+        <v>0.01824353797852316</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04200199409469384</v>
+        <v>0.04200210864517027</v>
       </c>
       <c r="O177" t="n">
         <v>0.08586463157817566</v>
@@ -33233,43 +33233,43 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.03486317992723174</v>
+        <v>0.03488869426611934</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0440866134350991</v>
+        <v>0.04398523949934033</v>
       </c>
       <c r="D178" t="n">
-        <v>0.03698554009014535</v>
+        <v>0.03699282990125609</v>
       </c>
       <c r="E178" t="n">
-        <v>0.04250005438882509</v>
+        <v>0.04249880145254042</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0194799699340853</v>
+        <v>0.01954432529779733</v>
       </c>
       <c r="G178" t="n">
-        <v>0.02310517021879798</v>
+        <v>0.02311530761237386</v>
       </c>
       <c r="H178" t="n">
-        <v>0.06284398084283202</v>
+        <v>0.06266139385516763</v>
       </c>
       <c r="I178" t="n">
-        <v>0.05819945993889999</v>
+        <v>0.05822782186025273</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0434572977103045</v>
+        <v>0.04345479183773519</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0352706120263431</v>
+        <v>0.03530660546870239</v>
       </c>
       <c r="L178" t="n">
-        <v>0.01859459959402586</v>
+        <v>0.018635832588121</v>
       </c>
       <c r="M178" t="n">
-        <v>0.01827179764577828</v>
+        <v>0.0183465182096634</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04238535376712949</v>
+        <v>0.0423854676704281</v>
       </c>
       <c r="O178" t="n">
         <v>0.08652242636351076</v>
@@ -33418,43 +33418,43 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.03486983431151375</v>
+        <v>0.03489531857481126</v>
       </c>
       <c r="C179" t="n">
-        <v>0.04405130469234378</v>
+        <v>0.04395050027307804</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03695931737512541</v>
+        <v>0.03696656623224115</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0425868090281797</v>
+        <v>0.04258556313086294</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0195822211812058</v>
+        <v>0.01964621499793068</v>
       </c>
       <c r="G179" t="n">
-        <v>0.02319441729269231</v>
+        <v>0.02320449773461889</v>
       </c>
       <c r="H179" t="n">
-        <v>0.06295689036715235</v>
+        <v>0.06277532914908159</v>
       </c>
       <c r="I179" t="n">
-        <v>0.05924490920693199</v>
+        <v>0.05927311179164791</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04365862051077712</v>
+        <v>0.04365612871614359</v>
       </c>
       <c r="K179" t="n">
-        <v>0.03546661912624541</v>
+        <v>0.03550241035825438</v>
       </c>
       <c r="L179" t="n">
-        <v>0.01860645705539192</v>
+        <v>0.01864745840345281</v>
       </c>
       <c r="M179" t="n">
-        <v>0.01834798999385886</v>
+        <v>0.01842217751590275</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04214723380214561</v>
+        <v>0.04214734706553805</v>
       </c>
       <c r="O179" t="n">
         <v>0.08603634531652474</v>
@@ -33603,43 +33603,43 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03526589108459811</v>
+        <v>0.03528819195053623</v>
       </c>
       <c r="C180" t="n">
-        <v>0.04428816818547202</v>
+        <v>0.044184548000305</v>
       </c>
       <c r="D180" t="n">
-        <v>0.03702416794399194</v>
+        <v>0.03703407943996444</v>
       </c>
       <c r="E180" t="n">
-        <v>0.04259330237417497</v>
+        <v>0.04259251395972261</v>
       </c>
       <c r="F180" t="n">
-        <v>0.01957745715840339</v>
+        <v>0.01964041768395596</v>
       </c>
       <c r="G180" t="n">
-        <v>0.023206303621334</v>
+        <v>0.02321677827048675</v>
       </c>
       <c r="H180" t="n">
-        <v>0.06305378371921903</v>
+        <v>0.06288326093623765</v>
       </c>
       <c r="I180" t="n">
-        <v>0.05916588679337088</v>
+        <v>0.0591890887043974</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04369877206701658</v>
+        <v>0.04369516788666294</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0355702190632082</v>
+        <v>0.03560727454246902</v>
       </c>
       <c r="L180" t="n">
-        <v>0.01865366068151221</v>
+        <v>0.0186930814041301</v>
       </c>
       <c r="M180" t="n">
-        <v>0.01844292876146059</v>
+        <v>0.01851602604425776</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04191177439542972</v>
+        <v>0.04191188702606577</v>
       </c>
       <c r="O180" t="n">
         <v>0.08555569534268941</v>
@@ -33788,43 +33788,43 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.03551317289749983</v>
+        <v>0.03553534986973829</v>
       </c>
       <c r="C181" t="n">
-        <v>0.04452407993566438</v>
+        <v>0.04442114742310303</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03711148296741329</v>
+        <v>0.03712145140442957</v>
       </c>
       <c r="E181" t="n">
-        <v>0.04258180278623415</v>
+        <v>0.0425806827371312</v>
       </c>
       <c r="F181" t="n">
-        <v>0.01961665199402342</v>
+        <v>0.01967982276342995</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02327876454103748</v>
+        <v>0.02328873297805376</v>
       </c>
       <c r="H181" t="n">
-        <v>0.06315878488112919</v>
+        <v>0.06298920944694215</v>
       </c>
       <c r="I181" t="n">
-        <v>0.05913422444439964</v>
+        <v>0.05915752146574106</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04371215634093398</v>
+        <v>0.04370834817398395</v>
       </c>
       <c r="K181" t="n">
-        <v>0.03564343460817322</v>
+        <v>0.03568028422366037</v>
       </c>
       <c r="L181" t="n">
-        <v>0.01868969935641979</v>
+        <v>0.01872890107502313</v>
       </c>
       <c r="M181" t="n">
-        <v>0.01855249334130808</v>
+        <v>0.01862518452808971</v>
       </c>
       <c r="N181" t="n">
-        <v>0.041678931204344</v>
+        <v>0.04167904320925429</v>
       </c>
       <c r="O181" t="n">
         <v>0.08508038592411891</v>
